--- a/Part 2 & 4 - Smoothing & Regression.xlsx
+++ b/Part 2 & 4 - Smoothing & Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 MEng Transportation\SHC-798-DA-SLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12AB5E6-619F-4718-A99A-B6447FEBCB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4A902E-62D7-4F83-B783-9912249BACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{9D3958F0-25F4-47E3-8E6B-D1F8EE350FB9}"/>
   </bookViews>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C106360C-C790-4ABB-A5C5-C6FD05820A6D}</author>
+  </authors>
+  <commentList>
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Standard deviation of errors</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Traffic Flow Data Analysis</t>
   </si>
@@ -156,12 +174,6 @@
     <t>ln(Strength), y'</t>
   </si>
   <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>x'-x*</t>
   </si>
   <si>
@@ -175,17 +187,105 @@
   </si>
   <si>
     <t>(x'-x*) . (y'-y*)</t>
+  </si>
+  <si>
+    <t>Computing  Predicted values</t>
+  </si>
+  <si>
+    <t>ln(Strength), y^</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>Residuals (y' - y^)</t>
+  </si>
+  <si>
+    <t>(y'-y*)^2</t>
+  </si>
+  <si>
+    <t>Compute the P-value for  β1</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Compute the t-statistic (using the β1 = 0 null hypothesis)</t>
+  </si>
+  <si>
+    <t>β0</t>
+  </si>
+  <si>
+    <t>β1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE(β1) </t>
+  </si>
+  <si>
+    <t>RSS (y' - y^)^2</t>
+  </si>
+  <si>
+    <t>Residual Sum of Squares (RSS) 
+(errors^2)</t>
+  </si>
+  <si>
+    <t>Residual Standard Error (RSE)</t>
+  </si>
+  <si>
+    <t>(Reported in the R Model Summary</t>
+  </si>
+  <si>
+    <t>uses the variance of the independent variable</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x'-x*)^2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]^0.5</t>
+    </r>
+  </si>
+  <si>
+    <t>t-statistic for β1</t>
+  </si>
+  <si>
+    <t>Two-tailed p-value</t>
+  </si>
+  <si>
+    <t>p = 2*P(T&gt;∣t∣)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +310,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -271,13 +385,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -318,6 +435,33 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3977,7 +4121,145 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289796</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E48B95-0A1F-5ADC-2140-5E93646AB73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7650480" y="8839200"/>
+          <a:ext cx="2720576" cy="807790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487681</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1264921</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E93C901-D874-3024-292E-EB5D08203EEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6347461" y="6972300"/>
+          <a:ext cx="4998720" cy="1686525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266704</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF9679A-D9EC-121E-73C9-0CE97945E231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="7376161"/>
+          <a:ext cx="5623564" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mr. R Lubega" id="{23542B09-63C8-4591-A561-BA4E3E0F36D4}" userId="S::u25585089@up.ac.za::824e3a8b-dadf-4459-839f-97d51e04047b" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4295,6 +4577,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B50" dT="2025-07-13T16:13:17.24" personId="{23542B09-63C8-4591-A561-BA4E3E0F36D4}" id="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
+    <text>Standard deviation of errors</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BBA91C-9C3F-4CE9-B728-30DFF26DDA3E}">
   <dimension ref="B3:J19"/>
@@ -4455,17 +4745,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221791FE-AE24-461E-BE47-F59067CEB9BD}">
-  <dimension ref="B3:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221791FE-AE24-461E-BE47-F59067CEB9BD}">
+  <dimension ref="B3:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
@@ -4475,475 +4765,717 @@
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="16"/>
+      <c r="F3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="27"/>
+      <c r="M3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="26"/>
     </row>
-    <row r="4" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="17"/>
+      <c r="F4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="20" t="s">
+      <c r="K4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="M4" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="N4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="10">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>48</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="F5" s="12">
+      <c r="D5" s="16"/>
+      <c r="F5" s="13">
         <f>LN(B5)</f>
         <v>1.6094379124341003</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <f>LN(C5)</f>
         <v>3.8712010109078911</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="19">
         <f>F5-$F$11</f>
         <v>-1.0965418686683506</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="22">
         <f>H5^2</f>
         <v>1.2024040697426781</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="19">
         <f>G5-$G$11</f>
         <v>0.37764347303699219</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="22">
         <f>H5*J5</f>
         <v>-0.41410187961438927</v>
       </c>
+      <c r="M5" s="25">
+        <f>$J$13+($J$14*F5)</f>
+        <v>3.9693778266186839</v>
+      </c>
+      <c r="N5" s="25">
+        <f>G5-M5</f>
+        <v>-9.8176815710792731E-2</v>
+      </c>
+      <c r="O5" s="25">
+        <f>N5^2</f>
+        <v>9.6386871431109588E-3</v>
+      </c>
+      <c r="P5" s="25">
+        <f>J5^2</f>
+        <v>0.14261459272744145</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="10">
         <v>10</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>42</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="F6" s="12">
+      <c r="D6" s="16"/>
+      <c r="F6" s="13">
         <f t="shared" ref="F6:F10" si="0">LN(B6)</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <f t="shared" ref="G6:G10" si="1">LN(C6)</f>
         <v>3.7376696182833684</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="19">
         <f>F6-$F$11</f>
         <v>-0.40339468810840495</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="22">
         <f t="shared" ref="I6:I10" si="2">H6^2</f>
         <v>0.1627272743940773</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="19">
         <f>G6-$G$11</f>
         <v>0.24411208041246946</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="22">
         <f t="shared" ref="K6:K10" si="3">H6*J6</f>
         <v>-9.8473516541481981E-2</v>
       </c>
+      <c r="M6" s="25">
+        <f t="shared" ref="M6:M10" si="4">$J$13+($J$14*F6)</f>
+        <v>3.6686018133878582</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" ref="N6:N10" si="5">G6-M6</f>
+        <v>6.9067804895510232E-2</v>
+      </c>
+      <c r="O6" s="25">
+        <f t="shared" ref="O6:O10" si="6">N6^2</f>
+        <v>4.770361673084267E-3</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" ref="P6:P10" si="7">J6^2</f>
+        <v>5.9590707803303951E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
         <v>15</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>37</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="F7" s="12">
+      <c r="D7" s="16"/>
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>3.6109179126442243</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="19">
         <f>F7-$F$11</f>
         <v>2.0704199997592099E-3</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="22">
         <f>H7^2</f>
         <v>4.286638975402927E-6</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="19">
         <f>G7-$G$11</f>
         <v>0.11736037477332539</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="22">
         <f t="shared" si="3"/>
         <v>2.4298526710992915E-4</v>
       </c>
+      <c r="M7" s="25">
+        <f t="shared" si="4"/>
+        <v>3.4926591245314147</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" si="5"/>
+        <v>0.11825878811280965</v>
+      </c>
+      <c r="O7" s="25">
+        <f t="shared" si="6"/>
+        <v>1.3985140965910411E-2</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="7"/>
+        <v>1.3773457566935392E-2</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
         <v>20</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>30</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="F8" s="12">
+      <c r="D8" s="16"/>
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="19">
         <f>F8-$F$11</f>
         <v>0.28975249245154</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="22">
         <f t="shared" si="2"/>
         <v>8.395650688187975E-2</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="19">
         <f>G8-$G$11</f>
         <v>-9.2360156208743494E-2</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="22">
         <f t="shared" si="3"/>
         <v>-2.6761585464697004E-2</v>
       </c>
+      <c r="M8" s="25">
+        <f t="shared" si="4"/>
+        <v>3.3678258001570325</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" si="5"/>
+        <v>3.3371581505122982E-2</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" si="6"/>
+        <v>1.1136624521530664E-3</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" si="7"/>
+        <v>8.5303984549035001E-3</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
         <v>25</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>27</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="F9" s="12">
+      <c r="D9" s="16"/>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>3.2188758248682006</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>3.2958368660043291</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="19">
         <f>F9-$F$11</f>
         <v>0.51289604376574971</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="22">
         <f>H9^2</f>
         <v>0.26306235171055786</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="19">
         <f>G9-$G$11</f>
         <v>-0.19772067186656983</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="22">
         <f t="shared" si="3"/>
         <v>-0.10141015037106964</v>
       </c>
+      <c r="M9" s="25">
+        <f t="shared" si="4"/>
+        <v>3.2709975512298168</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" si="5"/>
+        <v>2.4839314774512289E-2</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" si="6"/>
+        <v>6.1699155846730452E-4</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" si="7"/>
+        <v>3.9093464083367779E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
         <v>30</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>21</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="F10" s="12">
+      <c r="D10" s="16"/>
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>3.044522437723423</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="19">
         <f>F10-$F$11</f>
         <v>0.69521760055970461</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="22">
         <f t="shared" si="2"/>
         <v>0.48332751212799296</v>
       </c>
-      <c r="J10" s="18">
-        <f t="shared" ref="J6:J10" si="4">G10-$G$11</f>
+      <c r="J10" s="19">
+        <f t="shared" ref="J6:J10" si="8">G10-$G$11</f>
         <v>-0.44903510014747594</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="22">
         <f t="shared" si="3"/>
         <v>-0.31217710489161488</v>
       </c>
+      <c r="M10" s="25">
+        <f t="shared" si="4"/>
+        <v>3.191883111300589</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" si="5"/>
+        <v>-0.14736067357716598</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" si="6"/>
+        <v>2.1715168117116063E-2</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" si="7"/>
+        <v>0.20163252116445374</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="E11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="20">
         <f>AVERAGE(F5:F10)</f>
         <v>2.7059797811024509</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="20">
         <f>AVERAGE(G5:G10)</f>
         <v>3.493557537870899</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="23">
         <f>SUM(I5:I10)</f>
         <v>2.1954820014961616</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="23">
         <f>SUM(K5:K10)</f>
         <v>-0.9526812516161427</v>
       </c>
+      <c r="O11" s="29">
+        <f>SUM(O5:O10)</f>
+        <v>5.1840011909842068E-2</v>
+      </c>
+      <c r="P11" s="29">
+        <f>SUM(P5:P10)</f>
+        <v>0.46523514180040582</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="23">
+      <c r="I13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="24">
         <f>G11-(J14*F11)</f>
         <v>4.6677581020075509</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>2</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="18"/>
+      <c r="F14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="15">
         <v>1</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="23">
+      <c r="I14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="24">
         <f>K11/I11</f>
         <v>-0.43392806270646544</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>1</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="18"/>
+      <c r="F15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="15">
         <v>1</v>
       </c>
+      <c r="I15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="24">
+        <f>1-(O11/P11)</f>
+        <v>0.88857245024692832</v>
+      </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>1</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="18"/>
+      <c r="F16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="18"/>
+      <c r="F17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>1</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>2</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>0</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="26"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2">
+        <f>C47-2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="E49" s="31">
+        <f>O11</f>
+        <v>5.1840011909842068E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="E50" s="32">
+        <f xml:space="preserve"> (E49/C48)^0.5</f>
+        <v>0.11384200884322324</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="25">
+        <f xml:space="preserve"> J14</f>
+        <v>-0.43392806270646544</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="25">
+        <f>I11^0.5</f>
+        <v>1.4817158976997451</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="25">
+        <f>E50/C54</f>
+        <v>7.6831198895790057E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="25">
+        <f>C53/C55</f>
+        <v>-5.6478106412867968</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="33">
+        <f>2 * _xlfn.T.DIST(-ABS(C56), 4, TRUE)</f>
+        <v>4.8406901409699015E-3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="B52:E52"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Part 2 & 4 - Smoothing & Regression.xlsx
+++ b/Part 2 & 4 - Smoothing & Regression.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 MEng Transportation\SHC-798-DA-SLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4A902E-62D7-4F83-B783-9912249BACE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D562B-5CC2-4AAE-91C0-E2845117EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{9D3958F0-25F4-47E3-8E6B-D1F8EE350FB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9D3958F0-25F4-47E3-8E6B-D1F8EE350FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Qn. 2. Smoothing" sheetId="2" r:id="rId1"/>
     <sheet name="Qn. 4 Regression" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Qn. 2. Smoothing'!$J$6:$J$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Qn. 2. Smoothing'!$L$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Qn. 2. Smoothing'!$L$6:$L$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +47,7 @@
     <author>tc={C106360C-C790-4ABB-A5C5-C6FD05820A6D}</author>
   </authors>
   <commentList>
-    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
+    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,8 +59,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>Traffic Flow Data Analysis</t>
   </si>
@@ -66,9 +93,6 @@
     <t>Vehicles</t>
   </si>
   <si>
-    <t>Running mean smoother by hand</t>
-  </si>
-  <si>
     <t>Window width</t>
   </si>
   <si>
@@ -76,9 +100,6 @@
   </si>
   <si>
     <t>Scatter Plot</t>
-  </si>
-  <si>
-    <t>Gaussian kernel smoother in Excel</t>
   </si>
   <si>
     <t>Standard deviation is two hours</t>
@@ -198,6 +219,9 @@
     <t>R^2</t>
   </si>
   <si>
+    <t>Residuals</t>
+  </si>
+  <si>
     <t>Residuals (y' - y^)</t>
   </si>
   <si>
@@ -275,17 +299,102 @@
   <si>
     <t>p = 2*P(T&gt;∣t∣)</t>
   </si>
+  <si>
+    <t>Plot residuals vs fitted</t>
+  </si>
+  <si>
+    <t>Fitted</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>Ave.Veh</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Running Mean Smoother by hand</t>
+  </si>
+  <si>
+    <t>Gaussian Kernel Smoother in Excel</t>
+  </si>
+  <si>
+    <t>Gaussian Kernel Values</t>
+  </si>
+  <si>
+    <t>Vehicles (y,)</t>
+  </si>
+  <si>
+    <t>Hour (xi)</t>
+  </si>
+  <si>
+    <r>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.65"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 2*σ^2</t>
+    </r>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>w*y</t>
+  </si>
+  <si>
+    <t>Smoothed Value</t>
+  </si>
+  <si>
+    <t>wi (xi =6)</t>
+  </si>
+  <si>
+    <t>wi (xi =7)</t>
+  </si>
+  <si>
+    <t>wi (xi =8)</t>
+  </si>
+  <si>
+    <t>wi (xi =9)</t>
+  </si>
+  <si>
+    <t>wi (xi =10)</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Valdation by Hand</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>wi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +437,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.65"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -360,11 +504,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -373,18 +539,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -397,7 +556,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -421,16 +586,19 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -438,6 +606,9 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +633,55 @@
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +729,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -520,8 +737,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Age, x Histogram</a:t>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Running Mean Smoother</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -541,10 +762,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -558,84 +776,267 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$C$13</c:f>
+              <c:f>'Qn. 2. Smoothing'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>frequency</c:v>
+                  <c:v>Ave.Veh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Qn. 4 Regression'!$B$14:$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Qn. 2. Smoothing'!$E$7:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v> 5 - 10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 10 - 15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 15 - 20</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 20 - 25</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 25 - 30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$C$14:$C$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$F$7:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>366.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>233.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>293.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>516.66666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C77F-40E2-BB88-D651619FA943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Qn. 2. Smoothing'!$B$6:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Qn. 2. Smoothing'!$C$6:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-641D-464B-BC2F-69F6FB75EA1E}"/>
+              <c16:uniqueId val="{00000002-C77F-40E2-BB88-D651619FA943}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,19 +1048,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1803959584"/>
-        <c:axId val="1803950944"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1803959584"/>
+        <c:axId val="2109887520"/>
+        <c:axId val="2109890400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2109887520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -668,8 +1082,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -683,10 +1097,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -696,15 +1107,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1803950944"/>
+        <c:crossAx val="2109890400"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1803950944"/>
+        <c:axId val="2109890400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,14 +1132,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -742,10 +1156,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -755,9 +1166,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1803959584"/>
+        <c:crossAx val="2109887520"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -769,13 +1180,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -834,10 +1238,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -845,8 +1246,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Strength Histogram</a:t>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gausian Kernel Smoother</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -866,10 +1271,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -883,92 +1285,275 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$C$20</c:f>
+              <c:f>'Qn. 2. Smoothing'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>frequency</c:v>
+                  <c:v>Gaussian Kernel Values</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Qn. 4 Regression'!$B$21:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Qn. 2. Smoothing'!$J$6:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v> 21 - 25</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 25 - 30</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 30 - 35</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 35 - 40</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 40 - 45</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> 45 - 50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$C$21:$C$26</c:f>
+              <c:f>'Qn. 2. Smoothing'!$L$6:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>338.0664762732502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360.09052204088266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372.62615402646583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369.20719394879319</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>348.62222394626411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>318.14188617728212</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>291.16202640364514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>281.25930873853201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296.41565604060395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.17861483985797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387.36465579026088</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>440.28930320756791</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>485.32810205079517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55ED-4B13-A4EE-58070190E1B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Qn. 2. Smoothing'!$J$6:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Qn. 2. Smoothing'!$K$6:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-384D-48E7-BCEB-074DF0BD240F}"/>
+              <c16:uniqueId val="{00000001-55ED-4B13-A4EE-58070190E1B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -980,19 +1565,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1803973504"/>
-        <c:axId val="1803978784"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1803973504"/>
+        <c:axId val="640186992"/>
+        <c:axId val="640188432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="640186992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1001,8 +1599,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1016,10 +1614,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1029,17 +1624,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1803978784"/>
+        <c:crossAx val="640188432"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1803978784"/>
+        <c:axId val="640188432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1057,14 +1651,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1075,10 +1675,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1088,9 +1685,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1803973504"/>
+        <c:crossAx val="640186992"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1167,10 +1764,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1178,14 +1772,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ln(Age)</a:t>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Age Histogram</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Histogram</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1204,10 +1797,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1230,7 +1820,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$G$13</c:f>
+              <c:f>'Qn. 4 Regression'!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1241,61 +1831,68 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00">
+                  <a:alpha val="96000"/>
+                </a:srgbClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$F$14:$F$17</c:f>
+              <c:f>'Qn. 4 Regression'!$B$15:$B$19</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5 - 2.0</c:v>
+                  <c:v> 5 - 10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0 - 2.5</c:v>
+                  <c:v> 10 - 15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2.5 - 3.0</c:v>
+                  <c:v> 15 - 20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 3.0 - 3.5</c:v>
+                  <c:v> 20 - 25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 25 - 30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$G$14:$G$17</c:f>
+              <c:f>'Qn. 4 Regression'!$C$15:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A68C-4DFB-8793-D38607503A78}"/>
+              <c16:uniqueId val="{00000000-641D-464B-BC2F-69F6FB75EA1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1307,13 +1904,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="1748149024"/>
-        <c:axId val="1748142304"/>
+        <c:axId val="1803959584"/>
+        <c:axId val="1803950944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1748149024"/>
+        <c:axId val="1803959584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,10 +1940,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1356,7 +1950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1748142304"/>
+        <c:crossAx val="1803950944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1364,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1748142304"/>
+        <c:axId val="1803950944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,10 +1996,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1415,7 +2006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1748149024"/>
+        <c:crossAx val="1803959584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1494,10 +2085,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1505,14 +2093,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ln(Strength)</a:t>
+              <a:rPr lang="en-GB">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Strength Histogram</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Histogram</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1531,10 +2118,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1557,7 +2141,681 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$G$19</c:f>
+              <c:f>'Qn. 4 Regression'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Qn. 4 Regression'!$B$22:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> 21 - 25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 25 - 30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 30 - 35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 35 - 40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 40 - 45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 45 - 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Qn. 4 Regression'!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-384D-48E7-BCEB-074DF0BD240F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-55"/>
+        <c:axId val="1803973504"/>
+        <c:axId val="1803978784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1803973504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1803978784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1803978784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1803973504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ln(Age)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Histogram</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Qn. 4 Regression'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Qn. 4 Regression'!$F$15:$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.5 - 2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0 - 2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 2.5 - 3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 3.0 - 3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Qn. 4 Regression'!$G$15:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A68C-4DFB-8793-D38607503A78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1748149024"/>
+        <c:axId val="1748142304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1748149024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748142304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1748142304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748149024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ln(Strength)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Histogram</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Qn. 4 Regression'!$G$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1573,14 +2831,16 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$F$20:$F$24</c:f>
+              <c:f>'Qn. 4 Regression'!$F$21:$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1603,7 +2863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$G$20:$G$24</c:f>
+              <c:f>'Qn. 4 Regression'!$G$21:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1639,7 +2899,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="505955648"/>
         <c:axId val="2105318704"/>
@@ -1675,10 +2935,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1734,10 +2991,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1750,6 +3004,328 @@
         <c:crossAx val="505955648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Residual vs Fitted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Qn. 4 Regression'!$R$5:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9693778266186839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6686018133878582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4926591245314147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3678258001570325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2709975512298168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.191883111300589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Qn. 4 Regression'!$S$5:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-9.8176815710792731E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9067804895510232E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11825878811280965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3371581505122982E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4839314774512289E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.14736067357716598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5AEB-4756-8A1A-036A10592404}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="646959936"/>
+        <c:axId val="646963776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="646959936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646963776"/>
+        <c:crossesAt val="-0.25"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="646963776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646959936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1963,8 +3539,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1991,8 +3687,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2093,7 +3789,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2125,10 +3821,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2168,22 +3864,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2288,8 +3985,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2421,19 +4118,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2447,6 +4145,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2467,7 +4176,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2494,8 +4203,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2596,7 +4305,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2628,10 +4337,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2671,22 +4380,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2791,8 +4501,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2924,19 +4634,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2950,6 +4661,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3975,19 +5697,1618 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9205B3E7-FA58-661F-ADEC-130483F962DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429547</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>72626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B6F13-47B1-3807-67AE-1BE1BF8097DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4017,13 +7338,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4054,12 +7375,12 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4090,12 +7411,12 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4125,13 +7446,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>289796</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>53410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4169,13 +7490,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>487681</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1264921</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>63465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4213,13 +7534,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266704</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>152404</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4251,6 +7572,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B3961B-E82A-32A2-BA14-53CE508C8013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4579,7 +7936,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B50" dT="2025-07-13T16:13:17.24" personId="{23542B09-63C8-4591-A561-BA4E3E0F36D4}" id="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
+  <threadedComment ref="B51" dT="2025-07-13T16:13:17.24" personId="{23542B09-63C8-4591-A561-BA4E3E0F36D4}" id="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
     <text>Standard deviation of errors</text>
   </threadedComment>
 </ThreadedComments>
@@ -4587,175 +7944,1338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BBA91C-9C3F-4CE9-B728-30DFF26DDA3E}">
-  <dimension ref="B3:J19"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="N1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="2">
+        <f>2*O1^2</f>
+        <v>8</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="U4" s="48">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="W4" s="48">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y4" s="48">
+        <v>0.375</v>
+      </c>
+      <c r="AA4" s="48">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>0.25</v>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="43">
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
+      <c r="E6" s="43">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="43">
+        <v>6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>200</v>
+      </c>
+      <c r="L6" s="19" cm="1">
+        <f t="array" ref="L6">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J6)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J6)^2/(2*2^2)))))</f>
+        <v>338.0664762732502</v>
+      </c>
+      <c r="P6" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>6</v>
+      </c>
+      <c r="R6" s="7">
+        <v>200</v>
+      </c>
+      <c r="S6" s="35">
+        <f>EXP((0-($Q$6-Q6)^2/$O$2))</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="35">
+        <f>S6*R6</f>
+        <v>200</v>
+      </c>
+      <c r="U6" s="35">
+        <f>EXP((0-($Q$7-Q6)^2/$O$2))</f>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="V6" s="35">
+        <f>U6*R6</f>
+        <v>176.4993805169191</v>
+      </c>
+      <c r="W6" s="35">
+        <f>EXP((0-($Q$8-Q6)^2/$O$2))</f>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="X6" s="35">
+        <f>W6*R6</f>
+        <v>121.30613194252669</v>
+      </c>
+      <c r="Y6" s="35">
+        <f>EXP((0-($Q$9-Q6)^2/$O$2))</f>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="Z6" s="35">
+        <f>Y6*R6</f>
+        <v>64.930493471669948</v>
+      </c>
+      <c r="AA6" s="35">
+        <f>EXP((0-($Q$10-Q6)^2/$O$2))</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="AB6" s="35">
+        <f>AA6*R6</f>
+        <v>27.067056647322541</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>0.29166666666666669</v>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7" s="42">
+        <f t="shared" ref="A7:A11" si="0">B8-B7</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="43">
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>350</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="43">
+        <v>7</v>
+      </c>
+      <c r="F7" s="41">
+        <f>(C6+C7+C8)/3</f>
+        <v>350</v>
+      </c>
+      <c r="J7" s="43">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>350</v>
+      </c>
+      <c r="L7" s="19" cm="1">
+        <f t="array" ref="L7">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J7)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J7)^2/(2*2^2)))))</f>
+        <v>360.09052204088266</v>
+      </c>
+      <c r="P7" s="51">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>7</v>
+      </c>
+      <c r="R7" s="7">
+        <v>350</v>
+      </c>
+      <c r="S7" s="35">
+        <f t="shared" ref="S7:S18" si="1">EXP((0-($Q$6-Q7)^2/$O$2))</f>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="T7" s="35">
+        <f t="shared" ref="T7:T18" si="2">S7*R7</f>
+        <v>308.8739159046084</v>
+      </c>
+      <c r="U7" s="35">
+        <f t="shared" ref="U7:U18" si="3">EXP((0-($Q$7-Q7)^2/$O$2))</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="35">
+        <f t="shared" ref="V7:V18" si="4">U7*R7</f>
+        <v>350</v>
+      </c>
+      <c r="W7" s="35">
+        <f t="shared" ref="W7:W18" si="5">EXP((0-($Q$8-Q7)^2/$O$2))</f>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="X7" s="35">
+        <f t="shared" ref="X7:X18" si="6">W7*R7</f>
+        <v>308.8739159046084</v>
+      </c>
+      <c r="Y7" s="35">
+        <f t="shared" ref="Y7:Y18" si="7">EXP((0-($Q$9-Q7)^2/$O$2))</f>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="Z7" s="35">
+        <f t="shared" ref="Z7:Z18" si="8">Y7*R7</f>
+        <v>212.28573089942171</v>
+      </c>
+      <c r="AA7" s="35">
+        <f t="shared" ref="AA7:AA18" si="9">EXP((0-($Q$10-Q7)^2/$O$2))</f>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="AB7" s="35">
+        <f t="shared" ref="AB7:AB18" si="10">AA7*R7</f>
+        <v>113.62836357542241</v>
+      </c>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>0.33333333333333298</v>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="43">
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>500</v>
       </c>
+      <c r="E8" s="43">
+        <v>8</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" ref="F8:F17" si="11">(C7+C8+C9)/3</f>
+        <v>423.33333333333331</v>
+      </c>
+      <c r="J8" s="43">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2">
+        <v>500</v>
+      </c>
+      <c r="L8" s="19" cm="1">
+        <f t="array" ref="L8">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J8)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J8)^2/(2*2^2)))))</f>
+        <v>372.62615402646583</v>
+      </c>
+      <c r="P8" s="51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>8</v>
+      </c>
+      <c r="R8" s="7">
+        <v>500</v>
+      </c>
+      <c r="S8" s="35">
+        <f t="shared" si="1"/>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="T8" s="35">
+        <f t="shared" si="2"/>
+        <v>303.26532985631673</v>
+      </c>
+      <c r="U8" s="35">
+        <f t="shared" si="3"/>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="V8" s="35">
+        <f t="shared" si="4"/>
+        <v>441.24845129229772</v>
+      </c>
+      <c r="W8" s="35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="35">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="Y8" s="35">
+        <f t="shared" si="7"/>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="Z8" s="35">
+        <f t="shared" si="8"/>
+        <v>441.24845129229772</v>
+      </c>
+      <c r="AA8" s="35">
+        <f t="shared" si="9"/>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="AB8" s="35">
+        <f t="shared" si="10"/>
+        <v>303.26532985631673</v>
+      </c>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>0.375</v>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B9" s="43">
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>420</v>
       </c>
+      <c r="E9" s="43">
+        <v>9</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="11"/>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="J9" s="43">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>420</v>
+      </c>
+      <c r="L9" s="19" cm="1">
+        <f t="array" ref="L9">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J9)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J9)^2/(2*2^2)))))</f>
+        <v>369.20719394879319</v>
+      </c>
+      <c r="P9" s="51">
+        <v>0.375</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>9</v>
+      </c>
+      <c r="R9" s="7">
+        <v>420</v>
+      </c>
+      <c r="S9" s="35">
+        <f t="shared" si="1"/>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="T9" s="35">
+        <f t="shared" si="2"/>
+        <v>136.35403629050688</v>
+      </c>
+      <c r="U9" s="35">
+        <f t="shared" si="3"/>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="V9" s="35">
+        <f t="shared" si="4"/>
+        <v>254.74287707930603</v>
+      </c>
+      <c r="W9" s="35">
+        <f t="shared" si="5"/>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="X9" s="35">
+        <f t="shared" si="6"/>
+        <v>370.6486990855301</v>
+      </c>
+      <c r="Y9" s="35">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z9" s="35">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+      <c r="AA9" s="35">
+        <f t="shared" si="9"/>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="AB9" s="35">
+        <f t="shared" si="10"/>
+        <v>370.6486990855301</v>
+      </c>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>0.41666666666666702</v>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="43">
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>380</v>
       </c>
+      <c r="E10" s="43">
+        <v>10</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" si="11"/>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="J10" s="43">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>380</v>
+      </c>
+      <c r="L10" s="19" cm="1">
+        <f t="array" ref="L10">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J10)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J10)^2/(2*2^2)))))</f>
+        <v>348.62222394626411</v>
+      </c>
+      <c r="P10" s="51">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>10</v>
+      </c>
+      <c r="R10" s="7">
+        <v>380</v>
+      </c>
+      <c r="S10" s="35">
+        <f t="shared" si="1"/>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="T10" s="35">
+        <f t="shared" si="2"/>
+        <v>51.427407629912828</v>
+      </c>
+      <c r="U10" s="35">
+        <f t="shared" si="3"/>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="V10" s="35">
+        <f t="shared" si="4"/>
+        <v>123.36793759617291</v>
+      </c>
+      <c r="W10" s="35">
+        <f t="shared" si="5"/>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="X10" s="35">
+        <f t="shared" si="6"/>
+        <v>230.48165069080071</v>
+      </c>
+      <c r="Y10" s="35">
+        <f t="shared" si="7"/>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="Z10" s="35">
+        <f t="shared" si="8"/>
+        <v>335.34882298214626</v>
+      </c>
+      <c r="AA10" s="35">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB10" s="35">
+        <f t="shared" si="10"/>
+        <v>380</v>
+      </c>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>0.45833333333333298</v>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="43">
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>300</v>
       </c>
+      <c r="E11" s="43">
+        <v>11</v>
+      </c>
+      <c r="F11" s="41">
+        <f t="shared" si="11"/>
+        <v>310</v>
+      </c>
+      <c r="J11" s="43">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2">
+        <v>300</v>
+      </c>
+      <c r="L11" s="19" cm="1">
+        <f t="array" ref="L11">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J11)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J11)^2/(2*2^2)))))</f>
+        <v>318.14188617728212</v>
+      </c>
+      <c r="P11" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>11</v>
+      </c>
+      <c r="R11" s="7">
+        <v>300</v>
+      </c>
+      <c r="S11" s="35">
+        <f t="shared" si="1"/>
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="T11" s="35">
+        <f t="shared" si="2"/>
+        <v>13.181080087022226</v>
+      </c>
+      <c r="U11" s="35">
+        <f t="shared" si="3"/>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="V11" s="35">
+        <f t="shared" si="4"/>
+        <v>40.60058497098381</v>
+      </c>
+      <c r="W11" s="35">
+        <f t="shared" si="5"/>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="X11" s="35">
+        <f t="shared" si="6"/>
+        <v>97.395740207504929</v>
+      </c>
+      <c r="Y11" s="35">
+        <f t="shared" si="7"/>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="Z11" s="35">
+        <f t="shared" si="8"/>
+        <v>181.95919791379004</v>
+      </c>
+      <c r="AA11" s="35">
+        <f t="shared" si="9"/>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="AB11" s="35">
+        <f t="shared" si="10"/>
+        <v>264.74907077537864</v>
+      </c>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>0.5</v>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B12" s="43">
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>250</v>
       </c>
+      <c r="E12" s="43">
+        <v>12</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" si="11"/>
+        <v>256.66666666666669</v>
+      </c>
+      <c r="J12" s="43">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>250</v>
+      </c>
+      <c r="L12" s="19" cm="1">
+        <f t="array" ref="L12">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J12)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J12)^2/(2*2^2)))))</f>
+        <v>291.16202640364514</v>
+      </c>
+      <c r="P12" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>12</v>
+      </c>
+      <c r="R12" s="7">
+        <v>250</v>
+      </c>
+      <c r="S12" s="35">
+        <f t="shared" si="1"/>
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="T12" s="35">
+        <f t="shared" si="2"/>
+        <v>2.7772491345605763</v>
+      </c>
+      <c r="U12" s="35">
+        <f t="shared" si="3"/>
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="V12" s="35">
+        <f t="shared" si="4"/>
+        <v>10.984233405851855</v>
+      </c>
+      <c r="W12" s="35">
+        <f t="shared" si="5"/>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="X12" s="35">
+        <f t="shared" si="6"/>
+        <v>33.833820809153174</v>
+      </c>
+      <c r="Y12" s="35">
+        <f t="shared" si="7"/>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="Z12" s="35">
+        <f t="shared" si="8"/>
+        <v>81.163116839587431</v>
+      </c>
+      <c r="AA12" s="35">
+        <f t="shared" si="9"/>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="AB12" s="35">
+        <f t="shared" si="10"/>
+        <v>151.63266492815836</v>
+      </c>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>0.54166666666666696</v>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B13" s="43">
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>220</v>
       </c>
+      <c r="E13" s="43">
+        <v>13</v>
+      </c>
+      <c r="F13" s="41">
+        <f>(C12+C13+C14)/3</f>
+        <v>223.33333333333334</v>
+      </c>
+      <c r="J13" s="43">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
+        <v>220</v>
+      </c>
+      <c r="L13" s="19" cm="1">
+        <f t="array" ref="L13">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J13)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J13)^2/(2*2^2)))))</f>
+        <v>281.25930873853201</v>
+      </c>
+      <c r="P13" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>13</v>
+      </c>
+      <c r="R13" s="7">
+        <v>220</v>
+      </c>
+      <c r="S13" s="35">
+        <f t="shared" si="1"/>
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="T13" s="35">
+        <f t="shared" si="2"/>
+        <v>0.48124804600023474</v>
+      </c>
+      <c r="U13" s="35">
+        <f t="shared" si="3"/>
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="V13" s="35">
+        <f t="shared" si="4"/>
+        <v>2.4439792384133074</v>
+      </c>
+      <c r="W13" s="35">
+        <f t="shared" si="5"/>
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="X13" s="35">
+        <f t="shared" si="6"/>
+        <v>9.6661253971496333</v>
+      </c>
+      <c r="Y13" s="35">
+        <f t="shared" si="7"/>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="Z13" s="35">
+        <f t="shared" si="8"/>
+        <v>29.773762312054796</v>
+      </c>
+      <c r="AA13" s="35">
+        <f t="shared" si="9"/>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="AB13" s="35">
+        <f t="shared" si="10"/>
+        <v>71.42354281883695</v>
+      </c>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>0.58333333333333304</v>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B14" s="43">
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>200</v>
       </c>
+      <c r="E14" s="43">
+        <v>14</v>
+      </c>
+      <c r="F14" s="41">
+        <f t="shared" si="11"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="J14" s="43">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2">
+        <v>200</v>
+      </c>
+      <c r="L14" s="19" cm="1">
+        <f t="array" ref="L14">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J14)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J14)^2/(2*2^2)))))</f>
+        <v>296.41565604060395</v>
+      </c>
+      <c r="P14" s="51">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>14</v>
+      </c>
+      <c r="R14" s="7">
+        <v>200</v>
+      </c>
+      <c r="S14" s="35">
+        <f t="shared" si="1"/>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="T14" s="35">
+        <f t="shared" si="2"/>
+        <v>6.7092525580502368E-2</v>
+      </c>
+      <c r="U14" s="35">
+        <f t="shared" si="3"/>
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="V14" s="35">
+        <f t="shared" si="4"/>
+        <v>0.43749822363657703</v>
+      </c>
+      <c r="W14" s="35">
+        <f t="shared" si="5"/>
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="X14" s="35">
+        <f t="shared" si="6"/>
+        <v>2.2217993076484612</v>
+      </c>
+      <c r="Y14" s="35">
+        <f t="shared" si="7"/>
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="Z14" s="35">
+        <f t="shared" si="8"/>
+        <v>8.7873867246814843</v>
+      </c>
+      <c r="AA14" s="35">
+        <f t="shared" si="9"/>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="AB14" s="35">
+        <f t="shared" si="10"/>
+        <v>27.067056647322541</v>
+      </c>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <v>0.625</v>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B15" s="43">
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>280</v>
       </c>
+      <c r="E15" s="43">
+        <v>15</v>
+      </c>
+      <c r="F15" s="41">
+        <f t="shared" si="11"/>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="J15" s="43">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2">
+        <v>280</v>
+      </c>
+      <c r="L15" s="19" cm="1">
+        <f t="array" ref="L15">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J15)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J15)^2/(2*2^2)))))</f>
+        <v>335.17861483985797</v>
+      </c>
+      <c r="P15" s="51">
+        <v>0.625</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>15</v>
+      </c>
+      <c r="R15" s="7">
+        <v>280</v>
+      </c>
+      <c r="S15" s="35">
+        <f t="shared" si="1"/>
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="T15" s="35">
+        <f t="shared" si="2"/>
+        <v>1.1218283270026299E-2</v>
+      </c>
+      <c r="U15" s="35">
+        <f t="shared" si="3"/>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="V15" s="35">
+        <f t="shared" si="4"/>
+        <v>9.3929535812703316E-2</v>
+      </c>
+      <c r="W15" s="35">
+        <f t="shared" si="5"/>
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="X15" s="35">
+        <f t="shared" si="6"/>
+        <v>0.61249751309120781</v>
+      </c>
+      <c r="Y15" s="35">
+        <f t="shared" si="7"/>
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="Z15" s="35">
+        <f t="shared" si="8"/>
+        <v>3.1105190307078456</v>
+      </c>
+      <c r="AA15" s="35">
+        <f t="shared" si="9"/>
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="AB15" s="35">
+        <f t="shared" si="10"/>
+        <v>12.302341414554078</v>
+      </c>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>0.66666666666666696</v>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B16" s="43">
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>400</v>
       </c>
+      <c r="E16" s="43">
+        <v>16</v>
+      </c>
+      <c r="F16" s="41">
+        <f t="shared" si="11"/>
+        <v>410</v>
+      </c>
+      <c r="J16" s="43">
+        <v>16</v>
+      </c>
+      <c r="K16" s="2">
+        <v>400</v>
+      </c>
+      <c r="L16" s="19" cm="1">
+        <f t="array" ref="L16">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J16)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J16)^2/(2*2^2)))))</f>
+        <v>387.36465579026088</v>
+      </c>
+      <c r="P16" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>16</v>
+      </c>
+      <c r="R16" s="7">
+        <v>400</v>
+      </c>
+      <c r="S16" s="35">
+        <f t="shared" si="1"/>
+        <v>3.7266531720786709E-6</v>
+      </c>
+      <c r="T16" s="35">
+        <f t="shared" si="2"/>
+        <v>1.4906612688314683E-3</v>
+      </c>
+      <c r="U16" s="35">
+        <f t="shared" si="3"/>
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="V16" s="35">
+        <f t="shared" si="4"/>
+        <v>1.6026118957180428E-2</v>
+      </c>
+      <c r="W16" s="35">
+        <f t="shared" si="5"/>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="X16" s="35">
+        <f t="shared" si="6"/>
+        <v>0.13418505116100474</v>
+      </c>
+      <c r="Y16" s="35">
+        <f t="shared" si="7"/>
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="Z16" s="35">
+        <f t="shared" si="8"/>
+        <v>0.87499644727315407</v>
+      </c>
+      <c r="AA16" s="35">
+        <f t="shared" si="9"/>
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="AB16" s="35">
+        <f t="shared" si="10"/>
+        <v>4.4435986152969225</v>
+      </c>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>0.70833333333333404</v>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B17" s="43">
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>550</v>
       </c>
+      <c r="E17" s="43">
+        <v>17</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="11"/>
+        <v>516.66666666666663</v>
+      </c>
+      <c r="J17" s="43">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2">
+        <v>550</v>
+      </c>
+      <c r="L17" s="19" cm="1">
+        <f t="array" ref="L17">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J17)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J17)^2/(2*2^2)))))</f>
+        <v>440.28930320756791</v>
+      </c>
+      <c r="P17" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>17</v>
+      </c>
+      <c r="R17" s="7">
+        <v>550</v>
+      </c>
+      <c r="S17" s="35">
+        <f t="shared" si="1"/>
+        <v>2.6995785033630141E-7</v>
+      </c>
+      <c r="T17" s="35">
+        <f t="shared" si="2"/>
+        <v>1.4847681768496578E-4</v>
+      </c>
+      <c r="U17" s="35">
+        <f t="shared" si="3"/>
+        <v>3.7266531720786709E-6</v>
+      </c>
+      <c r="V17" s="35">
+        <f t="shared" si="4"/>
+        <v>2.0496592446432689E-3</v>
+      </c>
+      <c r="W17" s="35">
+        <f t="shared" si="5"/>
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="X17" s="35">
+        <f t="shared" si="6"/>
+        <v>2.2035913566123087E-2</v>
+      </c>
+      <c r="Y17" s="35">
+        <f t="shared" si="7"/>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="Z17" s="35">
+        <f t="shared" si="8"/>
+        <v>0.18450444534638152</v>
+      </c>
+      <c r="AA17" s="35">
+        <f t="shared" si="9"/>
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="AB17" s="35">
+        <f t="shared" si="10"/>
+        <v>1.2031201150005868</v>
+      </c>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>0.75</v>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B18" s="43">
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>600</v>
       </c>
+      <c r="E18" s="43">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="43">
+        <v>18</v>
+      </c>
+      <c r="K18" s="2">
+        <v>600</v>
+      </c>
+      <c r="L18" s="19" cm="1">
+        <f t="array" ref="L18">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J18)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J18)^2/(2*2^2)))))</f>
+        <v>485.32810205079517</v>
+      </c>
+      <c r="P18" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>18</v>
+      </c>
+      <c r="R18" s="7">
+        <v>600</v>
+      </c>
+      <c r="S18" s="35">
+        <f t="shared" si="1"/>
+        <v>1.5229979744712629E-8</v>
+      </c>
+      <c r="T18" s="35">
+        <f t="shared" si="2"/>
+        <v>9.137987846827578E-6</v>
+      </c>
+      <c r="U18" s="35">
+        <f t="shared" si="3"/>
+        <v>2.6995785033630141E-7</v>
+      </c>
+      <c r="V18" s="35">
+        <f t="shared" si="4"/>
+        <v>1.6197471020178085E-4</v>
+      </c>
+      <c r="W18" s="35">
+        <f t="shared" si="5"/>
+        <v>3.7266531720786709E-6</v>
+      </c>
+      <c r="X18" s="35">
+        <f t="shared" si="6"/>
+        <v>2.2359919032472024E-3</v>
+      </c>
+      <c r="Y18" s="35">
+        <f t="shared" si="7"/>
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="Z18" s="35">
+        <f t="shared" si="8"/>
+        <v>2.403917843577064E-2</v>
+      </c>
+      <c r="AA18" s="35">
+        <f t="shared" si="9"/>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="AB18" s="35">
+        <f t="shared" si="10"/>
+        <v>0.20127757674150712</v>
+      </c>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+      <c r="P19" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="50">
+        <f>SUM(S6:S18)</f>
+        <v>3.0066282739383219</v>
+      </c>
+      <c r="T19" s="35">
+        <f>SUM(T6:T18)</f>
+        <v>1016.4402260338528</v>
+      </c>
+      <c r="U19" s="50">
+        <f t="shared" ref="U19:V19" si="12">SUM(U6:U18)</f>
+        <v>3.8891251612929376</v>
+      </c>
+      <c r="V19" s="35">
+        <f t="shared" si="12"/>
+        <v>1400.4371096123061</v>
+      </c>
+      <c r="W19" s="50">
+        <f t="shared" ref="W19" si="13">SUM(W6:W18)</f>
+        <v>4.4956555510477196</v>
+      </c>
+      <c r="X19" s="35">
+        <f t="shared" ref="X19" si="14">SUM(X6:X18)</f>
+        <v>1675.1988378146439</v>
+      </c>
+      <c r="Y19" s="50">
+        <f t="shared" ref="Y19" si="15">SUM(Y6:Y18)</f>
+        <v>4.8203042917528975</v>
+      </c>
+      <c r="Z19" s="35">
+        <f t="shared" ref="Z19" si="16">SUM(Z6:Z18)</f>
+        <v>1779.6910215374123</v>
+      </c>
+      <c r="AA19" s="50">
+        <f t="shared" ref="AA19" si="17">SUM(AA6:AA18)</f>
+        <v>4.9555995096921173</v>
+      </c>
+      <c r="AB19" s="35">
+        <f t="shared" ref="AB19" si="18">SUM(AB6:AB18)</f>
+        <v>1727.6321220558812</v>
+      </c>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="49">
+        <f>T19/S19</f>
+        <v>338.06647627325015</v>
+      </c>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49">
+        <f>V19/U19</f>
+        <v>360.09052204088272</v>
+      </c>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49">
+        <f>X19/W19</f>
+        <v>372.62615402646588</v>
+      </c>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49">
+        <f>Z19/Y19</f>
+        <v>369.20719394879319</v>
+      </c>
+      <c r="Z20" s="49"/>
+      <c r="AA20" s="49">
+        <f>AB19/AA19</f>
+        <v>348.62222394626394</v>
+      </c>
+      <c r="AB20" s="49"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221791FE-AE24-461E-BE47-F59067CEB9BD}">
-  <dimension ref="B3:P57"/>
+  <dimension ref="B3:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
@@ -4770,708 +9290,802 @@
     <col min="14" max="14" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.21875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="11.5546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="16"/>
-      <c r="F3" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="27"/>
-      <c r="M3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="26"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="M3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="R3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="2:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="16"/>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="K4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="N4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="21" t="s">
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>48</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="F5" s="13">
+      <c r="D5" s="15"/>
+      <c r="F5" s="12">
         <f>LN(B5)</f>
         <v>1.6094379124341003</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f>LN(C5)</f>
         <v>3.8712010109078911</v>
       </c>
-      <c r="H5" s="19">
-        <f>F5-$F$11</f>
+      <c r="H5" s="35">
+        <f>F5-$F$12</f>
         <v>-1.0965418686683506</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="24">
         <f>H5^2</f>
         <v>1.2024040697426781</v>
       </c>
-      <c r="J5" s="19">
-        <f>G5-$G$11</f>
+      <c r="J5" s="35">
+        <f>G5-$G$12</f>
         <v>0.37764347303699219</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="24">
         <f>H5*J5</f>
         <v>-0.41410187961438927</v>
       </c>
-      <c r="M5" s="25">
-        <f>$J$13+($J$14*F5)</f>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11">
+        <f>$J$14+($J$15*F5)</f>
         <v>3.9693778266186839</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="11">
         <f>G5-M5</f>
         <v>-9.8176815710792731E-2</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="11">
         <f>N5^2</f>
         <v>9.6386871431109588E-3</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="11">
         <f>J5^2</f>
         <v>0.14261459272744145</v>
       </c>
+      <c r="R5" s="11">
+        <f>M5</f>
+        <v>3.9693778266186839</v>
+      </c>
+      <c r="S5" s="11">
+        <f>N5</f>
+        <v>-9.8176815710792731E-2</v>
+      </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="F6" s="13">
+      <c r="D6" s="15"/>
+      <c r="F6" s="12">
         <f t="shared" ref="F6:F10" si="0">LN(B6)</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f t="shared" ref="G6:G10" si="1">LN(C6)</f>
         <v>3.7376696182833684</v>
       </c>
-      <c r="H6" s="19">
-        <f>F6-$F$11</f>
+      <c r="H6" s="35">
+        <f>F6-$F$12</f>
         <v>-0.40339468810840495</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="24">
         <f t="shared" ref="I6:I10" si="2">H6^2</f>
         <v>0.1627272743940773</v>
       </c>
-      <c r="J6" s="19">
-        <f>G6-$G$11</f>
+      <c r="J6" s="35">
+        <f>G6-$G$12</f>
         <v>0.24411208041246946</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="24">
         <f t="shared" ref="K6:K10" si="3">H6*J6</f>
         <v>-9.8473516541481981E-2</v>
       </c>
-      <c r="M6" s="25">
-        <f t="shared" ref="M6:M10" si="4">$J$13+($J$14*F6)</f>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11">
+        <f t="shared" ref="M6:M10" si="4">$J$14+($J$15*F6)</f>
         <v>3.6686018133878582</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="11">
         <f t="shared" ref="N6:N10" si="5">G6-M6</f>
         <v>6.9067804895510232E-2</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="11">
         <f t="shared" ref="O6:O10" si="6">N6^2</f>
         <v>4.770361673084267E-3</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="11">
         <f t="shared" ref="P6:P10" si="7">J6^2</f>
         <v>5.9590707803303951E-2</v>
       </c>
+      <c r="R6" s="11">
+        <f>M6</f>
+        <v>3.6686018133878582</v>
+      </c>
+      <c r="S6" s="11">
+        <f t="shared" ref="S6:S10" si="8">N6</f>
+        <v>6.9067804895510232E-2</v>
+      </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
         <v>15</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>37</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="F7" s="13">
+      <c r="D7" s="15"/>
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f t="shared" si="1"/>
         <v>3.6109179126442243</v>
       </c>
-      <c r="H7" s="19">
-        <f>F7-$F$11</f>
+      <c r="H7" s="35">
+        <f>F7-$F$12</f>
         <v>2.0704199997592099E-3</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="24">
         <f>H7^2</f>
         <v>4.286638975402927E-6</v>
       </c>
-      <c r="J7" s="19">
-        <f>G7-$G$11</f>
+      <c r="J7" s="35">
+        <f>G7-$G$12</f>
         <v>0.11736037477332539</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="24">
         <f t="shared" si="3"/>
         <v>2.4298526710992915E-4</v>
       </c>
-      <c r="M7" s="25">
+      <c r="L7" s="14"/>
+      <c r="M7" s="11">
         <f t="shared" si="4"/>
         <v>3.4926591245314147</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="11">
         <f t="shared" si="5"/>
         <v>0.11825878811280965</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="11">
         <f t="shared" si="6"/>
         <v>1.3985140965910411E-2</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="11">
         <f t="shared" si="7"/>
         <v>1.3773457566935392E-2</v>
       </c>
+      <c r="R7" s="11">
+        <f>M7</f>
+        <v>3.4926591245314147</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="8"/>
+        <v>0.11825878811280965</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>20</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>30</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="F8" s="13">
+      <c r="D8" s="15"/>
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="H8" s="19">
-        <f>F8-$F$11</f>
+      <c r="H8" s="35">
+        <f>F8-$F$12</f>
         <v>0.28975249245154</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="24">
         <f t="shared" si="2"/>
         <v>8.395650688187975E-2</v>
       </c>
-      <c r="J8" s="19">
-        <f>G8-$G$11</f>
+      <c r="J8" s="35">
+        <f>G8-$G$12</f>
         <v>-9.2360156208743494E-2</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="24">
         <f t="shared" si="3"/>
         <v>-2.6761585464697004E-2</v>
       </c>
-      <c r="M8" s="25">
+      <c r="L8" s="14"/>
+      <c r="M8" s="11">
         <f t="shared" si="4"/>
         <v>3.3678258001570325</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="11">
         <f t="shared" si="5"/>
         <v>3.3371581505122982E-2</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="11">
         <f t="shared" si="6"/>
         <v>1.1136624521530664E-3</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="11">
         <f t="shared" si="7"/>
         <v>8.5303984549035001E-3</v>
       </c>
+      <c r="R8" s="11">
+        <f>M8</f>
+        <v>3.3678258001570325</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="8"/>
+        <v>3.3371581505122982E-2</v>
+      </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
         <v>25</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>27</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="F9" s="13">
+      <c r="D9" s="15"/>
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>3.2188758248682006</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f t="shared" si="1"/>
         <v>3.2958368660043291</v>
       </c>
-      <c r="H9" s="19">
-        <f>F9-$F$11</f>
+      <c r="H9" s="35">
+        <f>F9-$F$12</f>
         <v>0.51289604376574971</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="24">
         <f>H9^2</f>
         <v>0.26306235171055786</v>
       </c>
-      <c r="J9" s="19">
-        <f>G9-$G$11</f>
+      <c r="J9" s="35">
+        <f>G9-$G$12</f>
         <v>-0.19772067186656983</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="24">
         <f t="shared" si="3"/>
         <v>-0.10141015037106964</v>
       </c>
-      <c r="M9" s="25">
+      <c r="L9" s="14"/>
+      <c r="M9" s="11">
         <f t="shared" si="4"/>
         <v>3.2709975512298168</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="11">
         <f t="shared" si="5"/>
         <v>2.4839314774512289E-2</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="11">
         <f t="shared" si="6"/>
         <v>6.1699155846730452E-4</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="11">
         <f t="shared" si="7"/>
         <v>3.9093464083367779E-2</v>
       </c>
+      <c r="R9" s="11">
+        <f>M9</f>
+        <v>3.2709975512298168</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="8"/>
+        <v>2.4839314774512289E-2</v>
+      </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>21</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="F10" s="13">
+      <c r="D10" s="15"/>
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f t="shared" si="1"/>
         <v>3.044522437723423</v>
       </c>
-      <c r="H10" s="19">
-        <f>F10-$F$11</f>
+      <c r="H10" s="35">
+        <f>F10-$F$12</f>
         <v>0.69521760055970461</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="24">
         <f t="shared" si="2"/>
         <v>0.48332751212799296</v>
       </c>
-      <c r="J10" s="19">
-        <f t="shared" ref="J6:J10" si="8">G10-$G$11</f>
+      <c r="J10" s="35">
+        <f t="shared" ref="J6:J10" si="9">G10-$G$12</f>
         <v>-0.44903510014747594</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="24">
         <f t="shared" si="3"/>
         <v>-0.31217710489161488</v>
       </c>
-      <c r="M10" s="25">
+      <c r="L10" s="14"/>
+      <c r="M10" s="11">
         <f t="shared" si="4"/>
         <v>3.191883111300589</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="11">
         <f t="shared" si="5"/>
         <v>-0.14736067357716598</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="11">
         <f t="shared" si="6"/>
         <v>2.1715168117116063E-2</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="11">
         <f t="shared" si="7"/>
         <v>0.20163252116445374</v>
       </c>
+      <c r="R10" s="11">
+        <f>M10</f>
+        <v>3.191883111300589</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="8"/>
+        <v>-0.14736067357716598</v>
+      </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="20">
-        <f>AVERAGE(F5:F10)</f>
-        <v>2.7059797811024509</v>
-      </c>
-      <c r="G11" s="20">
-        <f>AVERAGE(G5:G10)</f>
-        <v>3.493557537870899</v>
-      </c>
-      <c r="I11" s="23">
-        <f>SUM(I5:I10)</f>
-        <v>2.1954820014961616</v>
-      </c>
-      <c r="K11" s="23">
-        <f>SUM(K5:K10)</f>
-        <v>-0.9526812516161427</v>
-      </c>
-      <c r="O11" s="29">
-        <f>SUM(O5:O10)</f>
-        <v>5.1840011909842068E-2</v>
-      </c>
-      <c r="P11" s="29">
-        <f>SUM(P5:P10)</f>
-        <v>0.46523514180040582</v>
-      </c>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="20">
+        <f>AVERAGE(F5:F10)</f>
+        <v>2.7059797811024509</v>
+      </c>
+      <c r="G12" s="20">
+        <f>AVERAGE(G5:G10)</f>
+        <v>3.493557537870899</v>
+      </c>
+      <c r="I12" s="22">
+        <f>SUM(I5:I10)</f>
+        <v>2.1954820014961616</v>
+      </c>
+      <c r="K12" s="22">
+        <f>SUM(K5:K10)</f>
+        <v>-0.9526812516161427</v>
+      </c>
+      <c r="O12" s="30">
+        <f>SUM(O5:O10)</f>
+        <v>5.1840011909842068E-2</v>
+      </c>
+      <c r="P12" s="30">
+        <f>SUM(P5:P10)</f>
+        <v>0.46523514180040582</v>
+      </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="10" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="24">
+        <f>G12-(J15*F12)</f>
+        <v>4.6677581020075509</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="F15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="24">
-        <f>G11-(J14*F11)</f>
-        <v>4.6677581020075509</v>
+      <c r="J15" s="24">
+        <f>K12/I12</f>
+        <v>-0.43392806270646544</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="15">
-        <v>2</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="F14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="15">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14">
         <v>1</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="24">
-        <f>K11/I11</f>
-        <v>-0.43392806270646544</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="D16" s="17"/>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="14">
         <v>1</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="F15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="24">
-        <f>1-(O11/P11)</f>
+      <c r="I16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="24">
+        <f>1-(O12/P12)</f>
         <v>0.88857245024692832</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="15">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="F16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="15">
-        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="B17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="14">
         <v>1</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="F17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="D17" s="17"/>
+      <c r="F17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="F18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
+      <c r="F20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="15">
-        <v>2</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="B22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="B23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="14">
         <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="15">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="15">
-        <v>1</v>
+      <c r="B24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="15">
+      <c r="B25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="26"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="2">
-        <v>6</v>
-      </c>
+      <c r="B47" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="27"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="2">
-        <f>C47-2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2">
+        <f>C48-2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:6" s="8" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
+    <row r="50" spans="2:6" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="E50" s="32">
+        <f>O12</f>
+        <v>5.1840011909842068E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="E49" s="31">
-        <f>O11</f>
-        <v>5.1840011909842068E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
+      <c r="C51" s="31"/>
+      <c r="E51" s="33">
+        <f xml:space="preserve"> (E50/C49)^0.5</f>
+        <v>0.11384200884322324</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="E50" s="32">
-        <f xml:space="preserve"> (E49/C48)^0.5</f>
-        <v>0.11384200884322324</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="25">
-        <f xml:space="preserve"> J14</f>
-        <v>-0.43392806270646544</v>
-      </c>
+      <c r="B53" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
-        <v>61</v>
+      <c r="B54" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C54" s="25">
-        <f>I11^0.5</f>
-        <v>1.4817158976997451</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>60</v>
+        <f xml:space="preserve"> J15</f>
+        <v>-0.43392806270646544</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="21" t="s">
-        <v>55</v>
+      <c r="B55" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C55" s="25">
-        <f>E50/C54</f>
-        <v>7.6831198895790057E-2</v>
+        <f>I12^0.5</f>
+        <v>1.4817158976997451</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C56" s="25">
-        <f>C53/C55</f>
-        <v>-5.6478106412867968</v>
+        <f>E51/C55</f>
+        <v>7.6831198895790057E-2</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="25">
+        <f>C54/C56</f>
+        <v>-5.6478106412867968</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="34">
+        <f>2 * _xlfn.T.DIST(-ABS(C57), 4, TRUE)</f>
+        <v>4.8406901409699015E-3</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="33">
-        <f>2 * _xlfn.T.DIST(-ABS(C56), 4, TRUE)</f>
-        <v>4.8406901409699015E-3</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>64</v>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="40">
+        <f>1-0.995</f>
+        <v>5.0000000000000044E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B52:E52"/>
+  <mergeCells count="8">
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="R3:S3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Part 2 & 4 - Smoothing & Regression.xlsx
+++ b/Part 2 & 4 - Smoothing & Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 MEng Transportation\SHC-798-DA-SLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D562B-5CC2-4AAE-91C0-E2845117EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A63C603-FA75-40B7-90C0-D5E18E935DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9D3958F0-25F4-47E3-8E6B-D1F8EE350FB9}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Qn. 4 Regression" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Qn. 2. Smoothing'!$J$6:$J$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Qn. 2. Smoothing'!$L$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Qn. 2. Smoothing'!$L$6:$L$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Qn. 2. Smoothing'!$K$6:$K$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Qn. 2. Smoothing'!$M$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Qn. 2. Smoothing'!$M$6:$M$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
   <si>
     <t>Traffic Flow Data Analysis</t>
   </si>
@@ -315,9 +315,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Running Mean Smoother by hand</t>
-  </si>
-  <si>
     <t>Gaussian Kernel Smoother in Excel</t>
   </si>
   <si>
@@ -381,6 +378,12 @@
   </si>
   <si>
     <t>wi</t>
+  </si>
+  <si>
+    <t>Running Mean Smoother</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -526,11 +529,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -559,6 +599,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,6 +609,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -585,9 +631,6 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,9 +696,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -664,11 +704,7 @@
     <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +718,36 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +850,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 2. Smoothing'!$F$5</c:f>
+              <c:f>'Qn. 2. Smoothing'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -821,7 +887,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$E$7:$E$17</c:f>
+              <c:f>'Qn. 2. Smoothing'!$F$7:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -863,9 +929,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$F$7:$F$17</c:f>
+              <c:f>'Qn. 2. Smoothing'!$G$7:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>350</c:v>
@@ -1293,7 +1359,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 2. Smoothing'!$L$5</c:f>
+              <c:f>'Qn. 2. Smoothing'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1328,7 +1394,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$J$6:$J$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$K$6:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1376,7 +1442,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$L$6:$L$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$M$6:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1456,7 +1522,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$J$6:$J$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$K$6:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1504,7 +1570,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$K$6:$K$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$L$6:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7260,15 +7326,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>501820</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>72626</xdr:rowOff>
+      <xdr:colOff>164026</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>429547</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>72626</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235670</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7944,240 +8010,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BBA91C-9C3F-4CE9-B728-30DFF26DDA3E}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="97" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="1" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="N1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="O1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="7">
         <v>2</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="2">
-        <f>2*O1^2</f>
+      <c r="O2" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="7">
+        <f>2*P1^2</f>
         <v>8</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="V2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="E4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="50"/>
+      <c r="G4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="48">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="58"/>
+      <c r="T4" s="46">
         <v>0.25</v>
       </c>
-      <c r="U4" s="48">
+      <c r="V4" s="46">
         <v>0.29166666666666669</v>
       </c>
-      <c r="W4" s="48">
+      <c r="X4" s="46">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Y4" s="48">
+      <c r="Z4" s="46">
         <v>0.375</v>
       </c>
-      <c r="AA4" s="48">
+      <c r="AB4" s="46">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="Q5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="T5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="10" t="s">
+      <c r="V5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="U5" s="10" t="s">
+      <c r="W5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" s="10" t="s">
+      <c r="Y5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="X5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="10" t="s">
+      <c r="AA5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="Z5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>77</v>
+      <c r="AC5" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
       <c r="B6" s="43">
         <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="45">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="45">
         <v>6</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="7">
         <v>200</v>
       </c>
-      <c r="L6" s="19" cm="1">
-        <f t="array" ref="L6">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J6)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J6)^2/(2*2^2)))))</f>
+      <c r="M6" s="13" cm="1">
+        <f t="array" ref="M6">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K6)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K6)^2/(2*2^2)))))</f>
         <v>338.0664762732502</v>
       </c>
-      <c r="P6" s="51">
+      <c r="N6" s="37"/>
+      <c r="Q6" s="49">
         <v>0.25</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="R6" s="45">
         <v>6</v>
       </c>
-      <c r="R6" s="7">
+      <c r="S6" s="7">
         <v>200</v>
       </c>
-      <c r="S6" s="35">
-        <f>EXP((0-($Q$6-Q6)^2/$O$2))</f>
+      <c r="T6" s="36">
+        <f>EXP((0-($R$6-R6)^2/$P$2))</f>
         <v>1</v>
       </c>
-      <c r="T6" s="35">
-        <f>S6*R6</f>
+      <c r="U6" s="36">
+        <f>T6*S6</f>
         <v>200</v>
       </c>
-      <c r="U6" s="35">
-        <f>EXP((0-($Q$7-Q6)^2/$O$2))</f>
+      <c r="V6" s="36">
+        <f>EXP((0-($R$7-R6)^2/$P$2))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="V6" s="35">
-        <f>U6*R6</f>
+      <c r="W6" s="36">
+        <f>V6*S6</f>
         <v>176.4993805169191</v>
       </c>
-      <c r="W6" s="35">
-        <f>EXP((0-($Q$8-Q6)^2/$O$2))</f>
+      <c r="X6" s="36">
+        <f>EXP((0-($R$8-R6)^2/$P$2))</f>
         <v>0.60653065971263342</v>
       </c>
-      <c r="X6" s="35">
-        <f>W6*R6</f>
+      <c r="Y6" s="36">
+        <f>X6*S6</f>
         <v>121.30613194252669</v>
       </c>
-      <c r="Y6" s="35">
-        <f>EXP((0-($Q$9-Q6)^2/$O$2))</f>
+      <c r="Z6" s="36">
+        <f>EXP((0-($R$9-R6)^2/$P$2))</f>
         <v>0.32465246735834974</v>
       </c>
-      <c r="Z6" s="35">
-        <f>Y6*R6</f>
+      <c r="AA6" s="36">
+        <f>Z6*S6</f>
         <v>64.930493471669948</v>
       </c>
-      <c r="AA6" s="35">
-        <f>EXP((0-($Q$10-Q6)^2/$O$2))</f>
+      <c r="AB6" s="36">
+        <f>EXP((0-($R$10-R6)^2/$P$2))</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="AB6" s="35">
-        <f>AA6*R6</f>
+      <c r="AC6" s="36">
+        <f>AB6*S6</f>
         <v>27.067056647322541</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="42">
         <f t="shared" ref="A7:A11" si="0">B8-B7</f>
         <v>1</v>
@@ -8188,80 +8285,91 @@
       <c r="C7" s="2">
         <v>350</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F7" s="45">
         <v>7</v>
       </c>
-      <c r="F7" s="41">
+      <c r="G7" s="14">
         <f>(C6+C7+C8)/3</f>
         <v>350</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="49">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="K7" s="45">
         <v>7</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="7">
         <v>350</v>
       </c>
-      <c r="L7" s="19" cm="1">
-        <f t="array" ref="L7">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J7)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J7)^2/(2*2^2)))))</f>
+      <c r="M7" s="13" cm="1">
+        <f t="array" ref="M7">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K7)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K7)^2/(2*2^2)))))</f>
         <v>360.09052204088266</v>
       </c>
-      <c r="P7" s="51">
+      <c r="N7" s="37"/>
+      <c r="O7" s="1">
+        <f>(1/(2*SQRT(2*PI())))</f>
+        <v>0.19947114020071635</v>
+      </c>
+      <c r="Q7" s="49">
         <v>0.29166666666666669</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="R7" s="45">
         <v>7</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>350</v>
       </c>
-      <c r="S7" s="35">
-        <f t="shared" ref="S7:S18" si="1">EXP((0-($Q$6-Q7)^2/$O$2))</f>
+      <c r="T7" s="36">
+        <f t="shared" ref="T7:T18" si="1">EXP((0-($R$6-R7)^2/$P$2))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="T7" s="35">
-        <f t="shared" ref="T7:T18" si="2">S7*R7</f>
+      <c r="U7" s="36">
+        <f t="shared" ref="U7:U18" si="2">T7*S7</f>
         <v>308.8739159046084</v>
       </c>
-      <c r="U7" s="35">
-        <f t="shared" ref="U7:U18" si="3">EXP((0-($Q$7-Q7)^2/$O$2))</f>
+      <c r="V7" s="36">
+        <f t="shared" ref="V7:V18" si="3">EXP((0-($R$7-R7)^2/$P$2))</f>
         <v>1</v>
       </c>
-      <c r="V7" s="35">
-        <f t="shared" ref="V7:V18" si="4">U7*R7</f>
+      <c r="W7" s="36">
+        <f t="shared" ref="W7:W18" si="4">V7*S7</f>
         <v>350</v>
       </c>
-      <c r="W7" s="35">
-        <f t="shared" ref="W7:W18" si="5">EXP((0-($Q$8-Q7)^2/$O$2))</f>
+      <c r="X7" s="36">
+        <f t="shared" ref="X7:X18" si="5">EXP((0-($R$8-R7)^2/$P$2))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="X7" s="35">
-        <f t="shared" ref="X7:X18" si="6">W7*R7</f>
+      <c r="Y7" s="36">
+        <f t="shared" ref="Y7:Y18" si="6">X7*S7</f>
         <v>308.8739159046084</v>
       </c>
-      <c r="Y7" s="35">
-        <f t="shared" ref="Y7:Y18" si="7">EXP((0-($Q$9-Q7)^2/$O$2))</f>
+      <c r="Z7" s="36">
+        <f t="shared" ref="Z7:Z18" si="7">EXP((0-($R$9-R7)^2/$P$2))</f>
         <v>0.60653065971263342</v>
       </c>
-      <c r="Z7" s="35">
-        <f t="shared" ref="Z7:Z18" si="8">Y7*R7</f>
+      <c r="AA7" s="36">
+        <f t="shared" ref="AA7:AA18" si="8">Z7*S7</f>
         <v>212.28573089942171</v>
       </c>
-      <c r="AA7" s="35">
-        <f t="shared" ref="AA7:AA18" si="9">EXP((0-($Q$10-Q7)^2/$O$2))</f>
+      <c r="AB7" s="36">
+        <f t="shared" ref="AB7:AB18" si="9">EXP((0-($R$10-R7)^2/$P$2))</f>
         <v>0.32465246735834974</v>
       </c>
-      <c r="AB7" s="35">
-        <f t="shared" ref="AB7:AB18" si="10">AA7*R7</f>
+      <c r="AC7" s="36">
+        <f t="shared" ref="AC7:AC18" si="10">AB7*S7</f>
         <v>113.62836357542241</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8272,80 +8380,87 @@
       <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F8" s="45">
         <v>8</v>
       </c>
-      <c r="F8" s="41">
-        <f t="shared" ref="F8:F17" si="11">(C7+C8+C9)/3</f>
+      <c r="G8" s="14">
+        <f>(C7+C8+C9)/3</f>
         <v>423.33333333333331</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K8" s="45">
         <v>8</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="7">
         <v>500</v>
       </c>
-      <c r="L8" s="19" cm="1">
-        <f t="array" ref="L8">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J8)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J8)^2/(2*2^2)))))</f>
+      <c r="M8" s="13" cm="1">
+        <f t="array" ref="M8">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K8)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K8)^2/(2*2^2)))))</f>
         <v>372.62615402646583</v>
       </c>
-      <c r="P8" s="51">
+      <c r="N8" s="37"/>
+      <c r="Q8" s="49">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="R8" s="45">
         <v>8</v>
       </c>
-      <c r="R8" s="7">
+      <c r="S8" s="7">
         <v>500</v>
       </c>
-      <c r="S8" s="35">
+      <c r="T8" s="36">
         <f t="shared" si="1"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="T8" s="35">
+      <c r="U8" s="36">
         <f t="shared" si="2"/>
         <v>303.26532985631673</v>
       </c>
-      <c r="U8" s="35">
+      <c r="V8" s="36">
         <f t="shared" si="3"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="V8" s="35">
+      <c r="W8" s="36">
         <f t="shared" si="4"/>
         <v>441.24845129229772</v>
       </c>
-      <c r="W8" s="35">
+      <c r="X8" s="36">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X8" s="35">
+      <c r="Y8" s="36">
         <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Z8" s="36">
         <f t="shared" si="7"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="AA8" s="36">
         <f t="shared" si="8"/>
         <v>441.24845129229772</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AB8" s="36">
         <f t="shared" si="9"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="AB8" s="35">
+      <c r="AC8" s="36">
         <f t="shared" si="10"/>
         <v>303.26532985631673</v>
       </c>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8356,80 +8471,87 @@
       <c r="C9" s="2">
         <v>420</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="F9" s="45">
         <v>9</v>
       </c>
-      <c r="F9" s="41">
-        <f t="shared" si="11"/>
+      <c r="G9" s="14">
+        <f>(C8+C9+C10)/3</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="K9" s="45">
         <v>9</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="7">
         <v>420</v>
       </c>
-      <c r="L9" s="19" cm="1">
-        <f t="array" ref="L9">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J9)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J9)^2/(2*2^2)))))</f>
+      <c r="M9" s="13" cm="1">
+        <f t="array" ref="M9">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K9)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K9)^2/(2*2^2)))))</f>
         <v>369.20719394879319</v>
       </c>
-      <c r="P9" s="51">
+      <c r="N9" s="37"/>
+      <c r="Q9" s="49">
         <v>0.375</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="R9" s="45">
         <v>9</v>
       </c>
-      <c r="R9" s="7">
+      <c r="S9" s="7">
         <v>420</v>
       </c>
-      <c r="S9" s="35">
+      <c r="T9" s="36">
         <f t="shared" si="1"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="T9" s="35">
+      <c r="U9" s="36">
         <f t="shared" si="2"/>
         <v>136.35403629050688</v>
       </c>
-      <c r="U9" s="35">
+      <c r="V9" s="36">
         <f t="shared" si="3"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="V9" s="35">
+      <c r="W9" s="36">
         <f t="shared" si="4"/>
         <v>254.74287707930603</v>
       </c>
-      <c r="W9" s="35">
+      <c r="X9" s="36">
         <f t="shared" si="5"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="X9" s="35">
+      <c r="Y9" s="36">
         <f t="shared" si="6"/>
         <v>370.6486990855301</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Z9" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Z9" s="35">
+      <c r="AA9" s="36">
         <f t="shared" si="8"/>
         <v>420</v>
       </c>
-      <c r="AA9" s="35">
+      <c r="AB9" s="36">
         <f t="shared" si="9"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AB9" s="35">
+      <c r="AC9" s="36">
         <f t="shared" si="10"/>
         <v>370.6486990855301</v>
       </c>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8440,80 +8562,87 @@
       <c r="C10" s="2">
         <v>380</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F10" s="45">
         <v>10</v>
       </c>
-      <c r="F10" s="41">
-        <f t="shared" si="11"/>
+      <c r="G10" s="14">
+        <f>(C9+C10+C11)/3</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="49">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K10" s="45">
         <v>10</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="7">
         <v>380</v>
       </c>
-      <c r="L10" s="19" cm="1">
-        <f t="array" ref="L10">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J10)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J10)^2/(2*2^2)))))</f>
+      <c r="M10" s="13" cm="1">
+        <f t="array" ref="M10">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K10)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K10)^2/(2*2^2)))))</f>
         <v>348.62222394626411</v>
       </c>
-      <c r="P10" s="51">
+      <c r="N10" s="37"/>
+      <c r="Q10" s="49">
         <v>0.41666666666666669</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="R10" s="45">
         <v>10</v>
       </c>
-      <c r="R10" s="7">
+      <c r="S10" s="7">
         <v>380</v>
       </c>
-      <c r="S10" s="35">
+      <c r="T10" s="36">
         <f t="shared" si="1"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="T10" s="35">
+      <c r="U10" s="36">
         <f t="shared" si="2"/>
         <v>51.427407629912828</v>
       </c>
-      <c r="U10" s="35">
+      <c r="V10" s="36">
         <f t="shared" si="3"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="V10" s="35">
+      <c r="W10" s="36">
         <f t="shared" si="4"/>
         <v>123.36793759617291</v>
       </c>
-      <c r="W10" s="35">
+      <c r="X10" s="36">
         <f t="shared" si="5"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="X10" s="35">
+      <c r="Y10" s="36">
         <f t="shared" si="6"/>
         <v>230.48165069080071</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Z10" s="36">
         <f t="shared" si="7"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="Z10" s="35">
+      <c r="AA10" s="36">
         <f t="shared" si="8"/>
         <v>335.34882298214626</v>
       </c>
-      <c r="AA10" s="35">
+      <c r="AB10" s="36">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AB10" s="35">
+      <c r="AC10" s="36">
         <f t="shared" si="10"/>
         <v>380</v>
       </c>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8524,739 +8653,809 @@
       <c r="C11" s="2">
         <v>300</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="49">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F11" s="45">
         <v>11</v>
       </c>
-      <c r="F11" s="41">
-        <f t="shared" si="11"/>
+      <c r="G11" s="14">
+        <f>(C10+C11+C12)/3</f>
         <v>310</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="49">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K11" s="45">
         <v>11</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="7">
         <v>300</v>
       </c>
-      <c r="L11" s="19" cm="1">
-        <f t="array" ref="L11">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J11)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J11)^2/(2*2^2)))))</f>
+      <c r="M11" s="13" cm="1">
+        <f t="array" ref="M11">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K11)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K11)^2/(2*2^2)))))</f>
         <v>318.14188617728212</v>
       </c>
-      <c r="P11" s="51">
+      <c r="N11" s="37"/>
+      <c r="Q11" s="49">
         <v>0.45833333333333331</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="R11" s="45">
         <v>11</v>
       </c>
-      <c r="R11" s="7">
+      <c r="S11" s="7">
         <v>300</v>
       </c>
-      <c r="S11" s="35">
+      <c r="T11" s="36">
         <f t="shared" si="1"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="T11" s="35">
+      <c r="U11" s="36">
         <f t="shared" si="2"/>
         <v>13.181080087022226</v>
       </c>
-      <c r="U11" s="35">
+      <c r="V11" s="36">
         <f t="shared" si="3"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="V11" s="35">
+      <c r="W11" s="36">
         <f t="shared" si="4"/>
         <v>40.60058497098381</v>
       </c>
-      <c r="W11" s="35">
+      <c r="X11" s="36">
         <f t="shared" si="5"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="X11" s="35">
+      <c r="Y11" s="36">
         <f t="shared" si="6"/>
         <v>97.395740207504929</v>
       </c>
-      <c r="Y11" s="35">
+      <c r="Z11" s="36">
         <f t="shared" si="7"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="Z11" s="35">
+      <c r="AA11" s="36">
         <f t="shared" si="8"/>
         <v>181.95919791379004</v>
       </c>
-      <c r="AA11" s="35">
+      <c r="AB11" s="36">
         <f t="shared" si="9"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AB11" s="35">
+      <c r="AC11" s="36">
         <f t="shared" si="10"/>
         <v>264.74907077537864</v>
       </c>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B12" s="43">
         <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>250</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="45">
         <v>12</v>
       </c>
-      <c r="F12" s="41">
-        <f t="shared" si="11"/>
+      <c r="G12" s="14">
+        <f>(C11+C12+C13)/3</f>
         <v>256.66666666666669</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="45">
         <v>12</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="7">
         <v>250</v>
       </c>
-      <c r="L12" s="19" cm="1">
-        <f t="array" ref="L12">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J12)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J12)^2/(2*2^2)))))</f>
+      <c r="M12" s="13" cm="1">
+        <f t="array" ref="M12">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K12)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K12)^2/(2*2^2)))))</f>
         <v>291.16202640364514</v>
       </c>
-      <c r="P12" s="51">
+      <c r="N12" s="37"/>
+      <c r="Q12" s="49">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="R12" s="45">
         <v>12</v>
       </c>
-      <c r="R12" s="7">
+      <c r="S12" s="7">
         <v>250</v>
       </c>
-      <c r="S12" s="35">
+      <c r="T12" s="36">
         <f t="shared" si="1"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="T12" s="35">
+      <c r="U12" s="36">
         <f t="shared" si="2"/>
         <v>2.7772491345605763</v>
       </c>
-      <c r="U12" s="35">
+      <c r="V12" s="36">
         <f t="shared" si="3"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="V12" s="35">
+      <c r="W12" s="36">
         <f t="shared" si="4"/>
         <v>10.984233405851855</v>
       </c>
-      <c r="W12" s="35">
+      <c r="X12" s="36">
         <f t="shared" si="5"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="X12" s="35">
+      <c r="Y12" s="36">
         <f t="shared" si="6"/>
         <v>33.833820809153174</v>
       </c>
-      <c r="Y12" s="35">
+      <c r="Z12" s="36">
         <f t="shared" si="7"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="Z12" s="35">
+      <c r="AA12" s="36">
         <f t="shared" si="8"/>
         <v>81.163116839587431</v>
       </c>
-      <c r="AA12" s="35">
+      <c r="AB12" s="36">
         <f t="shared" si="9"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="AB12" s="35">
+      <c r="AC12" s="36">
         <f t="shared" si="10"/>
         <v>151.63266492815836</v>
       </c>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B13" s="43">
         <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>220</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="49">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F13" s="45">
         <v>13</v>
       </c>
-      <c r="F13" s="41">
+      <c r="G13" s="14">
         <f>(C12+C13+C14)/3</f>
         <v>223.33333333333334</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="49">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K13" s="45">
         <v>13</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="7">
         <v>220</v>
       </c>
-      <c r="L13" s="19" cm="1">
-        <f t="array" ref="L13">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J13)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J13)^2/(2*2^2)))))</f>
+      <c r="M13" s="13" cm="1">
+        <f t="array" ref="M13">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K13)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K13)^2/(2*2^2)))))</f>
         <v>281.25930873853201</v>
       </c>
-      <c r="P13" s="51">
+      <c r="N13" s="37"/>
+      <c r="Q13" s="49">
         <v>0.54166666666666663</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="R13" s="45">
         <v>13</v>
       </c>
-      <c r="R13" s="7">
+      <c r="S13" s="7">
         <v>220</v>
       </c>
-      <c r="S13" s="35">
+      <c r="T13" s="36">
         <f t="shared" si="1"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="T13" s="35">
+      <c r="U13" s="36">
         <f t="shared" si="2"/>
         <v>0.48124804600023474</v>
       </c>
-      <c r="U13" s="35">
+      <c r="V13" s="36">
         <f t="shared" si="3"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="V13" s="35">
+      <c r="W13" s="36">
         <f t="shared" si="4"/>
         <v>2.4439792384133074</v>
       </c>
-      <c r="W13" s="35">
+      <c r="X13" s="36">
         <f t="shared" si="5"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="X13" s="35">
+      <c r="Y13" s="36">
         <f t="shared" si="6"/>
         <v>9.6661253971496333</v>
       </c>
-      <c r="Y13" s="35">
+      <c r="Z13" s="36">
         <f t="shared" si="7"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="Z13" s="35">
+      <c r="AA13" s="36">
         <f t="shared" si="8"/>
         <v>29.773762312054796</v>
       </c>
-      <c r="AA13" s="35">
+      <c r="AB13" s="36">
         <f t="shared" si="9"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="AB13" s="35">
+      <c r="AC13" s="36">
         <f t="shared" si="10"/>
         <v>71.42354281883695</v>
       </c>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B14" s="43">
         <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>200</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F14" s="45">
         <v>14</v>
       </c>
-      <c r="F14" s="41">
-        <f t="shared" si="11"/>
+      <c r="G14" s="14">
+        <f>(C13+C14+C15)/3</f>
         <v>233.33333333333334</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="49">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K14" s="45">
         <v>14</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="7">
         <v>200</v>
       </c>
-      <c r="L14" s="19" cm="1">
-        <f t="array" ref="L14">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J14)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J14)^2/(2*2^2)))))</f>
+      <c r="M14" s="13" cm="1">
+        <f t="array" ref="M14">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K14)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K14)^2/(2*2^2)))))</f>
         <v>296.41565604060395</v>
       </c>
-      <c r="P14" s="51">
+      <c r="N14" s="37"/>
+      <c r="Q14" s="49">
         <v>0.58333333333333337</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="R14" s="45">
         <v>14</v>
       </c>
-      <c r="R14" s="7">
+      <c r="S14" s="7">
         <v>200</v>
       </c>
-      <c r="S14" s="35">
+      <c r="T14" s="36">
         <f t="shared" si="1"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="T14" s="35">
+      <c r="U14" s="36">
         <f t="shared" si="2"/>
         <v>6.7092525580502368E-2</v>
       </c>
-      <c r="U14" s="35">
+      <c r="V14" s="36">
         <f t="shared" si="3"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="V14" s="35">
+      <c r="W14" s="36">
         <f t="shared" si="4"/>
         <v>0.43749822363657703</v>
       </c>
-      <c r="W14" s="35">
+      <c r="X14" s="36">
         <f t="shared" si="5"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="X14" s="35">
+      <c r="Y14" s="36">
         <f t="shared" si="6"/>
         <v>2.2217993076484612</v>
       </c>
-      <c r="Y14" s="35">
+      <c r="Z14" s="36">
         <f t="shared" si="7"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="Z14" s="35">
+      <c r="AA14" s="36">
         <f t="shared" si="8"/>
         <v>8.7873867246814843</v>
       </c>
-      <c r="AA14" s="35">
+      <c r="AB14" s="36">
         <f t="shared" si="9"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="AB14" s="35">
+      <c r="AC14" s="36">
         <f t="shared" si="10"/>
         <v>27.067056647322541</v>
       </c>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="43">
         <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>280</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="49">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="45">
         <v>15</v>
       </c>
-      <c r="F15" s="41">
-        <f t="shared" si="11"/>
+      <c r="G15" s="14">
+        <f>(C14+C15+C16)/3</f>
         <v>293.33333333333331</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="49">
+        <v>0.625</v>
+      </c>
+      <c r="K15" s="45">
         <v>15</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="7">
         <v>280</v>
       </c>
-      <c r="L15" s="19" cm="1">
-        <f t="array" ref="L15">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J15)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J15)^2/(2*2^2)))))</f>
+      <c r="M15" s="13" cm="1">
+        <f t="array" ref="M15">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K15)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K15)^2/(2*2^2)))))</f>
         <v>335.17861483985797</v>
       </c>
-      <c r="P15" s="51">
+      <c r="Q15" s="49">
         <v>0.625</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="R15" s="45">
         <v>15</v>
       </c>
-      <c r="R15" s="7">
+      <c r="S15" s="7">
         <v>280</v>
       </c>
-      <c r="S15" s="35">
+      <c r="T15" s="36">
         <f t="shared" si="1"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="T15" s="35">
+      <c r="U15" s="36">
         <f t="shared" si="2"/>
         <v>1.1218283270026299E-2</v>
       </c>
-      <c r="U15" s="35">
+      <c r="V15" s="36">
         <f t="shared" si="3"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="V15" s="35">
+      <c r="W15" s="36">
         <f t="shared" si="4"/>
         <v>9.3929535812703316E-2</v>
       </c>
-      <c r="W15" s="35">
+      <c r="X15" s="36">
         <f t="shared" si="5"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="X15" s="35">
+      <c r="Y15" s="36">
         <f t="shared" si="6"/>
         <v>0.61249751309120781</v>
       </c>
-      <c r="Y15" s="35">
+      <c r="Z15" s="36">
         <f t="shared" si="7"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="Z15" s="35">
+      <c r="AA15" s="36">
         <f t="shared" si="8"/>
         <v>3.1105190307078456</v>
       </c>
-      <c r="AA15" s="35">
+      <c r="AB15" s="36">
         <f t="shared" si="9"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="AB15" s="35">
+      <c r="AC15" s="36">
         <f t="shared" si="10"/>
         <v>12.302341414554078</v>
       </c>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B16" s="43">
         <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>400</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="49">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F16" s="45">
         <v>16</v>
       </c>
-      <c r="F16" s="41">
-        <f t="shared" si="11"/>
+      <c r="G16" s="14">
+        <f>(C15+C16+C17)/3</f>
         <v>410</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="49">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K16" s="45">
         <v>16</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="7">
         <v>400</v>
       </c>
-      <c r="L16" s="19" cm="1">
-        <f t="array" ref="L16">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J16)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J16)^2/(2*2^2)))))</f>
+      <c r="M16" s="13" cm="1">
+        <f t="array" ref="M16">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K16)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K16)^2/(2*2^2)))))</f>
         <v>387.36465579026088</v>
       </c>
-      <c r="P16" s="51">
+      <c r="N16" s="37"/>
+      <c r="Q16" s="49">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="R16" s="45">
         <v>16</v>
       </c>
-      <c r="R16" s="7">
+      <c r="S16" s="7">
         <v>400</v>
       </c>
-      <c r="S16" s="35">
+      <c r="T16" s="36">
         <f t="shared" si="1"/>
         <v>3.7266531720786709E-6</v>
       </c>
-      <c r="T16" s="35">
+      <c r="U16" s="36">
         <f t="shared" si="2"/>
         <v>1.4906612688314683E-3</v>
       </c>
-      <c r="U16" s="35">
+      <c r="V16" s="36">
         <f t="shared" si="3"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="V16" s="35">
+      <c r="W16" s="36">
         <f t="shared" si="4"/>
         <v>1.6026118957180428E-2</v>
       </c>
-      <c r="W16" s="35">
+      <c r="X16" s="36">
         <f t="shared" si="5"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="X16" s="35">
+      <c r="Y16" s="36">
         <f t="shared" si="6"/>
         <v>0.13418505116100474</v>
       </c>
-      <c r="Y16" s="35">
+      <c r="Z16" s="36">
         <f t="shared" si="7"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="Z16" s="35">
+      <c r="AA16" s="36">
         <f t="shared" si="8"/>
         <v>0.87499644727315407</v>
       </c>
-      <c r="AA16" s="35">
+      <c r="AB16" s="36">
         <f t="shared" si="9"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="AB16" s="35">
+      <c r="AC16" s="36">
         <f t="shared" si="10"/>
         <v>4.4435986152969225</v>
       </c>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17" s="43">
         <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>550</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="49">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F17" s="45">
         <v>17</v>
       </c>
-      <c r="F17" s="41">
-        <f t="shared" si="11"/>
+      <c r="G17" s="14">
+        <f>(C16+C17+C18)/3</f>
         <v>516.66666666666663</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="49">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K17" s="45">
         <v>17</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="7">
         <v>550</v>
       </c>
-      <c r="L17" s="19" cm="1">
-        <f t="array" ref="L17">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J17)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J17)^2/(2*2^2)))))</f>
+      <c r="M17" s="13" cm="1">
+        <f t="array" ref="M17">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K17)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K17)^2/(2*2^2)))))</f>
         <v>440.28930320756791</v>
       </c>
-      <c r="P17" s="51">
+      <c r="N17" s="37"/>
+      <c r="Q17" s="49">
         <v>0.70833333333333337</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="R17" s="45">
         <v>17</v>
       </c>
-      <c r="R17" s="7">
+      <c r="S17" s="7">
         <v>550</v>
       </c>
-      <c r="S17" s="35">
+      <c r="T17" s="36">
         <f t="shared" si="1"/>
         <v>2.6995785033630141E-7</v>
       </c>
-      <c r="T17" s="35">
+      <c r="U17" s="36">
         <f t="shared" si="2"/>
         <v>1.4847681768496578E-4</v>
       </c>
-      <c r="U17" s="35">
+      <c r="V17" s="36">
         <f t="shared" si="3"/>
         <v>3.7266531720786709E-6</v>
       </c>
-      <c r="V17" s="35">
+      <c r="W17" s="36">
         <f t="shared" si="4"/>
         <v>2.0496592446432689E-3</v>
       </c>
-      <c r="W17" s="35">
+      <c r="X17" s="36">
         <f t="shared" si="5"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="X17" s="35">
+      <c r="Y17" s="36">
         <f t="shared" si="6"/>
         <v>2.2035913566123087E-2</v>
       </c>
-      <c r="Y17" s="35">
+      <c r="Z17" s="36">
         <f t="shared" si="7"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="Z17" s="35">
+      <c r="AA17" s="36">
         <f t="shared" si="8"/>
         <v>0.18450444534638152</v>
       </c>
-      <c r="AA17" s="35">
+      <c r="AB17" s="36">
         <f t="shared" si="9"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="AB17" s="35">
+      <c r="AC17" s="36">
         <f t="shared" si="10"/>
         <v>1.2031201150005868</v>
       </c>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B18" s="43">
         <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>600</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="45">
         <v>18</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="45">
         <v>18</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="7">
         <v>600</v>
       </c>
-      <c r="L18" s="19" cm="1">
-        <f t="array" ref="L18">SUMPRODUCT($K$6:$K$18,EXP(-(($J$6:$J$18-J18)^2/(2*2^2)))/SUM(EXP(-(($J$6:$J$18-J18)^2/(2*2^2)))))</f>
+      <c r="M18" s="13" cm="1">
+        <f t="array" ref="M18">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K18)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K18)^2/(2*2^2)))))</f>
         <v>485.32810205079517</v>
       </c>
-      <c r="P18" s="51">
+      <c r="N18" s="37"/>
+      <c r="Q18" s="49">
         <v>0.75</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="R18" s="45">
         <v>18</v>
       </c>
-      <c r="R18" s="7">
+      <c r="S18" s="7">
         <v>600</v>
       </c>
-      <c r="S18" s="35">
+      <c r="T18" s="36">
         <f t="shared" si="1"/>
         <v>1.5229979744712629E-8</v>
       </c>
-      <c r="T18" s="35">
+      <c r="U18" s="36">
         <f t="shared" si="2"/>
         <v>9.137987846827578E-6</v>
       </c>
-      <c r="U18" s="35">
+      <c r="V18" s="36">
         <f t="shared" si="3"/>
         <v>2.6995785033630141E-7</v>
       </c>
-      <c r="V18" s="35">
+      <c r="W18" s="36">
         <f t="shared" si="4"/>
         <v>1.6197471020178085E-4</v>
       </c>
-      <c r="W18" s="35">
+      <c r="X18" s="36">
         <f t="shared" si="5"/>
         <v>3.7266531720786709E-6</v>
       </c>
-      <c r="X18" s="35">
+      <c r="Y18" s="36">
         <f t="shared" si="6"/>
         <v>2.2359919032472024E-3</v>
       </c>
-      <c r="Y18" s="35">
+      <c r="Z18" s="36">
         <f t="shared" si="7"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="Z18" s="35">
+      <c r="AA18" s="36">
         <f t="shared" si="8"/>
         <v>2.403917843577064E-2</v>
       </c>
-      <c r="AA18" s="35">
+      <c r="AB18" s="36">
         <f t="shared" si="9"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="AB18" s="35">
+      <c r="AC18" s="36">
         <f t="shared" si="10"/>
         <v>0.20127757674150712</v>
       </c>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="P19" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="50">
-        <f>SUM(S6:S18)</f>
+      <c r="K19" s="1">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1">
+        <v>200</v>
+      </c>
+      <c r="M19" s="1" cm="1">
+        <f t="array" ref="M19">SUMPRODUCT($L$6:$L$18, (O7*EXP(-(($K$6:$K$18-K19)^2/(2*2^2))))/SUM((O7*EXP(-(($K$6:$K$18-K19)^2/(2*2^2))))))</f>
+        <v>338.06647627325015</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="48">
+        <f>SUM(T6:T18)</f>
         <v>3.0066282739383219</v>
       </c>
-      <c r="T19" s="35">
-        <f>SUM(T6:T18)</f>
+      <c r="U19" s="36">
+        <f>SUM(U6:U18)</f>
         <v>1016.4402260338528</v>
       </c>
-      <c r="U19" s="50">
-        <f t="shared" ref="U19:V19" si="12">SUM(U6:U18)</f>
+      <c r="V19" s="48">
+        <f t="shared" ref="V19:W19" si="11">SUM(V6:V18)</f>
         <v>3.8891251612929376</v>
       </c>
-      <c r="V19" s="35">
-        <f t="shared" si="12"/>
+      <c r="W19" s="36">
+        <f t="shared" si="11"/>
         <v>1400.4371096123061</v>
       </c>
-      <c r="W19" s="50">
-        <f t="shared" ref="W19" si="13">SUM(W6:W18)</f>
+      <c r="X19" s="48">
+        <f t="shared" ref="X19" si="12">SUM(X6:X18)</f>
         <v>4.4956555510477196</v>
       </c>
-      <c r="X19" s="35">
-        <f t="shared" ref="X19" si="14">SUM(X6:X18)</f>
+      <c r="Y19" s="36">
+        <f t="shared" ref="Y19" si="13">SUM(Y6:Y18)</f>
         <v>1675.1988378146439</v>
       </c>
-      <c r="Y19" s="50">
-        <f t="shared" ref="Y19" si="15">SUM(Y6:Y18)</f>
+      <c r="Z19" s="48">
+        <f t="shared" ref="Z19" si="14">SUM(Z6:Z18)</f>
         <v>4.8203042917528975</v>
       </c>
-      <c r="Z19" s="35">
-        <f t="shared" ref="Z19" si="16">SUM(Z6:Z18)</f>
+      <c r="AA19" s="36">
+        <f t="shared" ref="AA19" si="15">SUM(AA6:AA18)</f>
         <v>1779.6910215374123</v>
       </c>
-      <c r="AA19" s="50">
-        <f t="shared" ref="AA19" si="17">SUM(AA6:AA18)</f>
+      <c r="AB19" s="48">
+        <f t="shared" ref="AB19" si="16">SUM(AB6:AB18)</f>
         <v>4.9555995096921173</v>
       </c>
-      <c r="AB19" s="35">
-        <f t="shared" ref="AB19" si="18">SUM(AB6:AB18)</f>
+      <c r="AC19" s="36">
+        <f t="shared" ref="AC19" si="17">SUM(AC6:AC18)</f>
         <v>1727.6321220558812</v>
       </c>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="P20" s="14"/>
-      <c r="Q20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="49">
-        <f>T19/S19</f>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q20" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="55"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="47">
+        <f>U19/T19</f>
         <v>338.06647627325015</v>
       </c>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49">
-        <f>V19/U19</f>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47">
+        <f>W19/V19</f>
         <v>360.09052204088272</v>
       </c>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49">
-        <f>X19/W19</f>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47">
+        <f>Y19/X19</f>
         <v>372.62615402646588</v>
       </c>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49">
-        <f>Z19/Y19</f>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47">
+        <f>AA19/Z19</f>
         <v>369.20719394879319</v>
       </c>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49">
-        <f>AB19/AA19</f>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47">
+        <f>AC19/AB19</f>
         <v>348.62222394626394</v>
       </c>
-      <c r="AB20" s="49"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
+      <c r="AC20" s="47"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
+  <mergeCells count="12">
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9296,61 +9495,61 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
+      <c r="F3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="M3" s="27" t="s">
+      <c r="G3" s="29"/>
+      <c r="M3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="27"/>
+      <c r="N3" s="28"/>
       <c r="R3" s="9" t="s">
         <v>64</v>
       </c>
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="18"/>
+      <c r="F4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>47</v>
       </c>
       <c r="R4" s="7" t="s">
@@ -9367,53 +9566,53 @@
       <c r="C5" s="7">
         <v>48</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="F5" s="12">
+      <c r="D5" s="17"/>
+      <c r="F5" s="13">
         <f>LN(B5)</f>
         <v>1.6094379124341003</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <f>LN(C5)</f>
         <v>3.8712010109078911</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="36">
         <f>F5-$F$12</f>
         <v>-1.0965418686683506</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="25">
         <f>H5^2</f>
         <v>1.2024040697426781</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="36">
         <f>G5-$G$12</f>
         <v>0.37764347303699219</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="25">
         <f>H5*J5</f>
         <v>-0.41410187961438927</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11">
+      <c r="L5" s="16"/>
+      <c r="M5" s="12">
         <f>$J$14+($J$15*F5)</f>
         <v>3.9693778266186839</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <f>G5-M5</f>
         <v>-9.8176815710792731E-2</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <f>N5^2</f>
         <v>9.6386871431109588E-3</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="12">
         <f>J5^2</f>
         <v>0.14261459272744145</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="12">
         <f>M5</f>
         <v>3.9693778266186839</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="12">
         <f>N5</f>
         <v>-9.8176815710792731E-2</v>
       </c>
@@ -9425,53 +9624,53 @@
       <c r="C6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="F6" s="12">
+      <c r="D6" s="17"/>
+      <c r="F6" s="13">
         <f t="shared" ref="F6:F10" si="0">LN(B6)</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <f t="shared" ref="G6:G10" si="1">LN(C6)</f>
         <v>3.7376696182833684</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="36">
         <f>F6-$F$12</f>
         <v>-0.40339468810840495</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="25">
         <f t="shared" ref="I6:I10" si="2">H6^2</f>
         <v>0.1627272743940773</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="36">
         <f>G6-$G$12</f>
         <v>0.24411208041246946</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="25">
         <f t="shared" ref="K6:K10" si="3">H6*J6</f>
         <v>-9.8473516541481981E-2</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11">
+      <c r="L6" s="16"/>
+      <c r="M6" s="12">
         <f t="shared" ref="M6:M10" si="4">$J$14+($J$15*F6)</f>
         <v>3.6686018133878582</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <f t="shared" ref="N6:N10" si="5">G6-M6</f>
         <v>6.9067804895510232E-2</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="12">
         <f t="shared" ref="O6:O10" si="6">N6^2</f>
         <v>4.770361673084267E-3</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="12">
         <f t="shared" ref="P6:P10" si="7">J6^2</f>
         <v>5.9590707803303951E-2</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="12">
         <f>M6</f>
         <v>3.6686018133878582</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="12">
         <f t="shared" ref="S6:S10" si="8">N6</f>
         <v>6.9067804895510232E-2</v>
       </c>
@@ -9483,53 +9682,53 @@
       <c r="C7" s="7">
         <v>37</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="F7" s="12">
+      <c r="D7" s="17"/>
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>3.6109179126442243</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="36">
         <f>F7-$F$12</f>
         <v>2.0704199997592099E-3</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="25">
         <f>H7^2</f>
         <v>4.286638975402927E-6</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="36">
         <f>G7-$G$12</f>
         <v>0.11736037477332539</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="25">
         <f t="shared" si="3"/>
         <v>2.4298526710992915E-4</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11">
+      <c r="L7" s="16"/>
+      <c r="M7" s="12">
         <f t="shared" si="4"/>
         <v>3.4926591245314147</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <f t="shared" si="5"/>
         <v>0.11825878811280965</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="12">
         <f t="shared" si="6"/>
         <v>1.3985140965910411E-2</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="12">
         <f t="shared" si="7"/>
         <v>1.3773457566935392E-2</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="12">
         <f>M7</f>
         <v>3.4926591245314147</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="12">
         <f t="shared" si="8"/>
         <v>0.11825878811280965</v>
       </c>
@@ -9541,53 +9740,53 @@
       <c r="C8" s="7">
         <v>30</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="F8" s="12">
+      <c r="D8" s="17"/>
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="36">
         <f>F8-$F$12</f>
         <v>0.28975249245154</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="25">
         <f t="shared" si="2"/>
         <v>8.395650688187975E-2</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="36">
         <f>G8-$G$12</f>
         <v>-9.2360156208743494E-2</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="25">
         <f t="shared" si="3"/>
         <v>-2.6761585464697004E-2</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11">
+      <c r="L8" s="16"/>
+      <c r="M8" s="12">
         <f t="shared" si="4"/>
         <v>3.3678258001570325</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="12">
         <f t="shared" si="5"/>
         <v>3.3371581505122982E-2</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="12">
         <f t="shared" si="6"/>
         <v>1.1136624521530664E-3</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="12">
         <f t="shared" si="7"/>
         <v>8.5303984549035001E-3</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="12">
         <f>M8</f>
         <v>3.3678258001570325</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="12">
         <f t="shared" si="8"/>
         <v>3.3371581505122982E-2</v>
       </c>
@@ -9599,53 +9798,53 @@
       <c r="C9" s="7">
         <v>27</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="F9" s="12">
+      <c r="D9" s="17"/>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>3.2188758248682006</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>3.2958368660043291</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="36">
         <f>F9-$F$12</f>
         <v>0.51289604376574971</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="25">
         <f>H9^2</f>
         <v>0.26306235171055786</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="36">
         <f>G9-$G$12</f>
         <v>-0.19772067186656983</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="25">
         <f t="shared" si="3"/>
         <v>-0.10141015037106964</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="11">
+      <c r="L9" s="16"/>
+      <c r="M9" s="12">
         <f t="shared" si="4"/>
         <v>3.2709975512298168</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="12">
         <f t="shared" si="5"/>
         <v>2.4839314774512289E-2</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="12">
         <f t="shared" si="6"/>
         <v>6.1699155846730452E-4</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="12">
         <f t="shared" si="7"/>
         <v>3.9093464083367779E-2</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="12">
         <f>M9</f>
         <v>3.2709975512298168</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="12">
         <f t="shared" si="8"/>
         <v>2.4839314774512289E-2</v>
       </c>
@@ -9657,105 +9856,105 @@
       <c r="C10" s="7">
         <v>21</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="F10" s="12">
+      <c r="D10" s="17"/>
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>3.044522437723423</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="36">
         <f>F10-$F$12</f>
         <v>0.69521760055970461</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="25">
         <f t="shared" si="2"/>
         <v>0.48332751212799296</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="36">
         <f t="shared" ref="J6:J10" si="9">G10-$G$12</f>
         <v>-0.44903510014747594</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="25">
         <f t="shared" si="3"/>
         <v>-0.31217710489161488</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="11">
+      <c r="L10" s="16"/>
+      <c r="M10" s="12">
         <f t="shared" si="4"/>
         <v>3.191883111300589</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="12">
         <f t="shared" si="5"/>
         <v>-0.14736067357716598</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="12">
         <f t="shared" si="6"/>
         <v>2.1715168117116063E-2</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="12">
         <f t="shared" si="7"/>
         <v>0.20163252116445374</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="12">
         <f>M10</f>
         <v>3.191883111300589</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="12">
         <f t="shared" si="8"/>
         <v>-0.14736067357716598</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="F11" s="36" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="21">
         <f>AVERAGE(F5:F10)</f>
         <v>2.7059797811024509</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="21">
         <f>AVERAGE(G5:G10)</f>
         <v>3.493557537870899</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="23">
         <f>SUM(I5:I10)</f>
         <v>2.1954820014961616</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="23">
         <f>SUM(K5:K10)</f>
         <v>-0.9526812516161427</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="31">
         <f>SUM(O5:O10)</f>
         <v>5.1840011909842068E-2</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="31">
         <f>SUM(P5:P10)</f>
         <v>0.46523514180040582</v>
       </c>
@@ -9772,7 +9971,7 @@
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="2"/>
       <c r="F14" s="7" t="s">
         <v>15</v>
@@ -9783,93 +9982,93 @@
       <c r="I14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="25">
         <f>G12-(J15*F12)</f>
         <v>4.6677581020075509</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="16">
         <v>2</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="19"/>
+      <c r="F15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="16">
         <v>1</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="25">
         <f>K12/I12</f>
         <v>-0.43392806270646544</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="19"/>
+      <c r="F16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="16">
         <v>1</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="25">
         <f>1-(O12/P12)</f>
         <v>0.88857245024692832</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="19"/>
+      <c r="F17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="16">
         <v>1</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="19"/>
+      <c r="F18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="16">
         <v>1</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F20" s="7" t="s">
@@ -9886,90 +10085,90 @@
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="16">
         <v>2</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="16">
         <v>0</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="16">
         <v>1</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="28"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
@@ -9989,21 +10188,21 @@
       </c>
     </row>
     <row r="50" spans="2:6" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="8"/>
-      <c r="E50" s="32">
+      <c r="E50" s="33">
         <f>O12</f>
         <v>5.1840011909842068E-2</v>
       </c>
     </row>
     <row r="51" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="E51" s="33">
+      <c r="C51" s="32"/>
+      <c r="E51" s="34">
         <f xml:space="preserve"> (E50/C49)^0.5</f>
         <v>0.11384200884322324</v>
       </c>
@@ -10020,10 +10219,10 @@
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="26">
         <f xml:space="preserve"> J15</f>
         <v>-0.43392806270646544</v>
       </c>
@@ -10032,7 +10231,7 @@
       <c r="B55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="26">
         <f>I12^0.5</f>
         <v>1.4817158976997451</v>
       </c>
@@ -10041,28 +10240,28 @@
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="26">
         <f>E51/C55</f>
         <v>7.6831198895790057E-2</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="26">
         <f>C54/C56</f>
         <v>-5.6478106412867968</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="34">
+      <c r="C58" s="35">
         <f>2 * _xlfn.T.DIST(-ABS(C57), 4, TRUE)</f>
         <v>4.8406901409699015E-3</v>
       </c>
@@ -10071,7 +10270,7 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="40">
+      <c r="E60" s="41">
         <f>1-0.995</f>
         <v>5.0000000000000044E-3</v>
       </c>

--- a/Part 2 & 4 - Smoothing & Regression.xlsx
+++ b/Part 2 & 4 - Smoothing & Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 MEng Transportation\SHC-798-DA-SLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A63C603-FA75-40B7-90C0-D5E18E935DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60397B8A-05DE-463B-BECE-266BD55DD75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9D3958F0-25F4-47E3-8E6B-D1F8EE350FB9}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Qn. 4 Regression" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Qn. 2. Smoothing'!$K$6:$K$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Qn. 2. Smoothing'!$M$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Qn. 2. Smoothing'!$M$6:$M$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Qn. 2. Smoothing'!$K$8:$K$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Qn. 2. Smoothing'!$M$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Qn. 2. Smoothing'!$M$8:$M$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,24 +39,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={C106360C-C790-4ABB-A5C5-C6FD05820A6D}</author>
-  </authors>
-  <commentList>
-    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Standard deviation of errors</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>Traffic Flow Data Analysis</t>
   </si>
@@ -198,9 +180,6 @@
     <t>x'-x*</t>
   </si>
   <si>
-    <t>mean (x* &amp; y*)</t>
-  </si>
-  <si>
     <t>y'-y*</t>
   </si>
   <si>
@@ -210,16 +189,10 @@
     <t>(x'-x*) . (y'-y*)</t>
   </si>
   <si>
-    <t>Computing  Predicted values</t>
-  </si>
-  <si>
     <t>ln(Strength), y^</t>
   </si>
   <si>
     <t>R^2</t>
-  </si>
-  <si>
-    <t>Residuals</t>
   </si>
   <si>
     <t>Residuals (y' - y^)</t>
@@ -228,41 +201,13 @@
     <t>(y'-y*)^2</t>
   </si>
   <si>
-    <t>Compute the P-value for  β1</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Compute the t-statistic (using the β1 = 0 null hypothesis)</t>
-  </si>
-  <si>
     <t>β0</t>
   </si>
   <si>
     <t>β1</t>
   </si>
   <si>
-    <t xml:space="preserve">SE(β1) </t>
-  </si>
-  <si>
-    <t>RSS (y' - y^)^2</t>
-  </si>
-  <si>
-    <t>Residual Sum of Squares (RSS) 
-(errors^2)</t>
-  </si>
-  <si>
     <t>Residual Standard Error (RSE)</t>
-  </si>
-  <si>
-    <t>(Reported in the R Model Summary</t>
-  </si>
-  <si>
-    <t>uses the variance of the independent variable</t>
   </si>
   <si>
     <r>
@@ -292,18 +237,6 @@
   </si>
   <si>
     <t>t-statistic for β1</t>
-  </si>
-  <si>
-    <t>Two-tailed p-value</t>
-  </si>
-  <si>
-    <t>p = 2*P(T&gt;∣t∣)</t>
-  </si>
-  <si>
-    <t>Plot residuals vs fitted</t>
-  </si>
-  <si>
-    <t>Fitted</t>
   </si>
   <si>
     <t>Calculation</t>
@@ -385,6 +318,128 @@
   <si>
     <t>Standard Deviation</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>(200+350+500)/3</t>
+  </si>
+  <si>
+    <t>(350+500+420)/3</t>
+  </si>
+  <si>
+    <t>(500+420+380)/3</t>
+  </si>
+  <si>
+    <t>(420+380+300)/3</t>
+  </si>
+  <si>
+    <t>(380+300+250)/3</t>
+  </si>
+  <si>
+    <t>(300+250+220)/3</t>
+  </si>
+  <si>
+    <t>(250+220+200)/3</t>
+  </si>
+  <si>
+    <t>(220+200+280)/3</t>
+  </si>
+  <si>
+    <t>(200+280+400)/3</t>
+  </si>
+  <si>
+    <t>(280+400+550)/3</t>
+  </si>
+  <si>
+    <t>(400+550+600)/3</t>
+  </si>
+  <si>
+    <t>Computations on Log-transformed Data</t>
+  </si>
+  <si>
+    <t>Summation</t>
+  </si>
+  <si>
+    <t>Mean ( x* &amp; y*)</t>
+  </si>
+  <si>
+    <t>20.96135/6</t>
+  </si>
+  <si>
+    <t>Computing  Predicted values [ln(Strength), y^]</t>
+  </si>
+  <si>
+    <t>ln(Strength), y^ is computed using the regression coefficients, β0 and β1</t>
+  </si>
+  <si>
+    <t>RSS =(y' - y^)^2</t>
+  </si>
+  <si>
+    <t>Fitted [ln(Strength), y^]</t>
+  </si>
+  <si>
+    <t>x* = 16.23588/6</t>
+  </si>
+  <si>
+    <t>y* = 20.96135/6</t>
+  </si>
+  <si>
+    <t>1 - [sum((y' - y^)^2)/sum((y'-y*)^2)]</t>
+  </si>
+  <si>
+    <t>Residual Sum of Squares (RSS) 
+(errors^2) = sum(y' - y^)^2</t>
+  </si>
+  <si>
+    <t>Computing the P-value for  β1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = (n-2)</t>
+  </si>
+  <si>
+    <t>df (degrees of freedom)</t>
+  </si>
+  <si>
+    <t>n (data points)</t>
+  </si>
+  <si>
+    <t>= RSS/df</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = Sum(y' - y^)^2</t>
+  </si>
+  <si>
+    <t>Computing the t-statistic (using the β1 = 0 null hypothesis)</t>
+  </si>
+  <si>
+    <t>SE(β1) : Standard error</t>
+  </si>
+  <si>
+    <t>β1 (Slope Coefficient)</t>
+  </si>
+  <si>
+    <t>uses the variance of the predictor</t>
+  </si>
+  <si>
+    <t>(From Excel)</t>
+  </si>
+  <si>
+    <t>=1-0.995</t>
+  </si>
+  <si>
+    <t>(Reported in the R Model Summary)</t>
+  </si>
+  <si>
+    <t>Two-tailed p-value; p = 2*P(T&gt;∣t∣)</t>
+  </si>
+  <si>
+    <t>(From Tables)
+= 1-0.995</t>
+  </si>
+  <si>
+    <t>Residuals vs Fitted</t>
+  </si>
 </sst>
 </file>
 
@@ -397,7 +452,7 @@
     <numFmt numFmtId="170" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,30 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="5"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,6 +508,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,7 +530,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -502,15 +548,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -570,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,16 +624,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -632,14 +669,14 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -647,34 +684,13 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -683,17 +699,8 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -701,13 +708,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,14 +726,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,17 +738,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +923,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 2. Smoothing'!$G$5</c:f>
+              <c:f>'Qn. 2. Smoothing'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -887,7 +960,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$F$7:$F$17</c:f>
+              <c:f>'Qn. 2. Smoothing'!$F$9:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -929,7 +1002,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$G$7:$G$17</c:f>
+              <c:f>'Qn. 2. Smoothing'!$H$9:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1005,7 +1078,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$B$6:$B$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$B$8:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1053,7 +1126,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$C$6:$C$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$C$8:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1139,6 +1212,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41980140031413898"/>
+              <c:y val="0.90531937424682851"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1198,7 +1332,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Vehicles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7661870346375303E-2"/>
+              <c:y val="0.38537291999205958"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1359,7 +1554,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 2. Smoothing'!$M$5</c:f>
+              <c:f>'Qn. 2. Smoothing'!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1394,7 +1589,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$K$6:$K$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$K$8:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1442,7 +1637,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$M$6:$M$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$M$8:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1522,7 +1717,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$K$6:$K$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$K$8:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1570,7 +1765,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 2. Smoothing'!$L$6:$L$18</c:f>
+              <c:f>'Qn. 2. Smoothing'!$L$8:$L$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1656,6 +1851,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1717,7 +1965,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Vehicles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7065786591666791E-2"/>
+              <c:y val="0.41768916900610537"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1886,7 +2195,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$C$14</c:f>
+              <c:f>'Qn. 4 Regression'!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1911,7 +2220,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$B$15:$B$19</c:f>
+              <c:f>'Qn. 4 Regression'!$B$19:$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1934,7 +2243,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$C$15:$C$19</c:f>
+              <c:f>'Qn. 4 Regression'!$C$19:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1982,6 +2291,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Age </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2044,6 +2406,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2207,7 +2622,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$C$21</c:f>
+              <c:f>'Qn. 4 Regression'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2235,7 +2650,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$B$22:$B$27</c:f>
+              <c:f>'Qn. 4 Regression'!$B$26:$B$31</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2261,7 +2676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$C$22:$C$27</c:f>
+              <c:f>'Qn. 4 Regression'!$C$26:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2312,6 +2727,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Strength</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2374,6 +2842,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2550,7 +3071,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$G$14</c:f>
+              <c:f>'Qn. 4 Regression'!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2578,7 +3099,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$F$15:$F$18</c:f>
+              <c:f>'Qn. 4 Regression'!$G$19:$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2598,7 +3119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$G$15:$G$18</c:f>
+              <c:f>'Qn. 4 Regression'!$H$19:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2643,6 +3164,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ln(Age)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41007274961036061"/>
+              <c:y val="0.84147773981082563"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2705,6 +3287,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2881,7 +3516,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$G$20</c:f>
+              <c:f>'Qn. 4 Regression'!$H$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2906,7 +3541,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Qn. 4 Regression'!$F$21:$F$25</c:f>
+              <c:f>'Qn. 4 Regression'!$G$25:$G$29</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2929,7 +3564,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$G$21:$G$25</c:f>
+              <c:f>'Qn. 4 Regression'!$H$25:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2977,6 +3612,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ln(Strength)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40143531754271089"/>
+              <c:y val="0.8489073697248517"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3039,6 +3735,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3203,7 +3952,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$R$5:$R$10</c:f>
+              <c:f>'Qn. 4 Regression'!$W$5:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3230,7 +3979,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Qn. 4 Regression'!$S$5:$S$10</c:f>
+              <c:f>'Qn. 4 Regression'!$V$5:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3296,6 +4045,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fitted Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3355,6 +4157,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7291,13 +8146,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7326,15 +8181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>164026</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>7856</xdr:rowOff>
+      <xdr:colOff>164025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>235670</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104049</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274948</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23567</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7366,16 +8221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1122045</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7402,16 +8257,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>855345</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7438,16 +8293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7474,16 +8329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>20954</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7510,15 +8365,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>289796</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137396</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>53410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7554,15 +8409,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>487681</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1264921</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>950596</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>63465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7599,15 +8454,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>156211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152404</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57154</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>179071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7630,8 +8485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="624840" y="7376161"/>
-          <a:ext cx="5623564" cy="754380"/>
+          <a:off x="662940" y="7757161"/>
+          <a:ext cx="5614039" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7642,16 +8497,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>927735</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7680,9 +8535,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mr. R Lubega" id="{23542B09-63C8-4591-A561-BA4E3E0F36D4}" userId="S::u25585089@up.ac.za::824e3a8b-dadf-4459-839f-97d51e04047b" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8000,26 +8853,20 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B51" dT="2025-07-13T16:13:17.24" personId="{23542B09-63C8-4591-A561-BA4E3E0F36D4}" id="{C106360C-C790-4ABB-A5C5-C6FD05820A6D}">
-    <text>Standard deviation of errors</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BBA91C-9C3F-4CE9-B728-30DFF26DDA3E}">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="97" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N2" zoomScale="97" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="8.88671875" style="1"/>
+    <col min="2" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.88671875" style="1" customWidth="1"/>
@@ -8039,510 +8886,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="O1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="7">
+      <c r="K1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="9">
         <v>2</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="7">
-        <f>2*P1^2</f>
+      <c r="K2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="9">
+        <f>2*L1^2</f>
         <v>8</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="44"/>
-      <c r="J3" s="52" t="s">
+      <c r="K3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>86</v>
+      <c r="L3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="9">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="E4" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="58"/>
-      <c r="T4" s="46">
-        <v>0.25</v>
-      </c>
-      <c r="V4" s="46">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="X4" s="46">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z4" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="AB4" s="46">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="9">
+        <f>2*P3^2</f>
+        <v>8</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="Q5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="43">
+      <c r="E6" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="J6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>200</v>
-      </c>
-      <c r="E6" s="49">
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="45"/>
+      <c r="T6" s="35">
         <v>0.25</v>
       </c>
-      <c r="F6" s="45">
-        <v>6</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="K6" s="45">
-        <v>6</v>
-      </c>
-      <c r="L6" s="7">
-        <v>200</v>
-      </c>
-      <c r="M6" s="13" cm="1">
-        <f t="array" ref="M6">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K6)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K6)^2/(2*2^2)))))</f>
-        <v>338.0664762732502</v>
-      </c>
-      <c r="N6" s="37"/>
-      <c r="Q6" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="R6" s="45">
-        <v>6</v>
-      </c>
-      <c r="S6" s="7">
-        <v>200</v>
-      </c>
-      <c r="T6" s="36">
-        <f>EXP((0-($R$6-R6)^2/$P$2))</f>
-        <v>1</v>
-      </c>
-      <c r="U6" s="36">
-        <f>T6*S6</f>
-        <v>200</v>
-      </c>
-      <c r="V6" s="36">
-        <f>EXP((0-($R$7-R6)^2/$P$2))</f>
-        <v>0.88249690258459546</v>
-      </c>
-      <c r="W6" s="36">
-        <f>V6*S6</f>
-        <v>176.4993805169191</v>
-      </c>
-      <c r="X6" s="36">
-        <f>EXP((0-($R$8-R6)^2/$P$2))</f>
-        <v>0.60653065971263342</v>
-      </c>
-      <c r="Y6" s="36">
-        <f>X6*S6</f>
-        <v>121.30613194252669</v>
-      </c>
-      <c r="Z6" s="36">
-        <f>EXP((0-($R$9-R6)^2/$P$2))</f>
-        <v>0.32465246735834974</v>
-      </c>
-      <c r="AA6" s="36">
-        <f>Z6*S6</f>
-        <v>64.930493471669948</v>
-      </c>
-      <c r="AB6" s="36">
-        <f>EXP((0-($R$10-R6)^2/$P$2))</f>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="AC6" s="36">
-        <f>AB6*S6</f>
-        <v>27.067056647322541</v>
+      <c r="V6" s="35">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="X6" s="35">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z6" s="35">
+        <v>0.375</v>
+      </c>
+      <c r="AB6" s="35">
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="42">
-        <f t="shared" ref="A7:A11" si="0">B8-B7</f>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="43">
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="Q7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="33">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="34">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="K8" s="34">
+        <v>6</v>
+      </c>
+      <c r="L8" s="9">
+        <v>200</v>
+      </c>
+      <c r="M8" s="13" cm="1">
+        <f t="array" ref="M8">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K8)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K8)^2/(2*2^2)))))</f>
+        <v>338.0664762732502</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="Q8" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="R8" s="34">
+        <v>6</v>
+      </c>
+      <c r="S8" s="9">
+        <v>200</v>
+      </c>
+      <c r="T8" s="29">
+        <f>EXP((0-($R$8-R8)^2/$P$4))</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="29">
+        <f>T8*S8</f>
+        <v>200</v>
+      </c>
+      <c r="V8" s="29">
+        <f>EXP((0-($R$9-R8)^2/$P$4))</f>
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="W8" s="29">
+        <f>V8*S8</f>
+        <v>176.4993805169191</v>
+      </c>
+      <c r="X8" s="29">
+        <f>EXP((0-($R$10-R8)^2/$P$4))</f>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="Y8" s="29">
+        <f>X8*S8</f>
+        <v>121.30613194252669</v>
+      </c>
+      <c r="Z8" s="29">
+        <f>EXP((0-($R$11-R8)^2/$P$4))</f>
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="AA8" s="29">
+        <f>Z8*S8</f>
+        <v>64.930493471669948</v>
+      </c>
+      <c r="AB8" s="29">
+        <f>EXP((0-($R$12-R8)^2/$P$4))</f>
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="AC8" s="29">
+        <f>AB8*S8</f>
+        <v>27.067056647322541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <f t="shared" ref="A9:A13" si="0">B10-B9</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="33">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>350</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E9" s="38">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F9" s="34">
         <v>7</v>
       </c>
-      <c r="G7" s="14">
-        <f>(C6+C7+C8)/3</f>
+      <c r="G9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="14">
+        <f>(C8+C9+C10)/3</f>
         <v>350</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J9" s="38">
         <v>0.29166666666666669</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K9" s="34">
         <v>7</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L9" s="9">
         <v>350</v>
       </c>
-      <c r="M7" s="13" cm="1">
-        <f t="array" ref="M7">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K7)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K7)^2/(2*2^2)))))</f>
+      <c r="M9" s="13" cm="1">
+        <f t="array" ref="M9">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K9)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K9)^2/(2*2^2)))))</f>
         <v>360.09052204088266</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="1">
+      <c r="N9" s="30"/>
+      <c r="O9" s="1">
         <f>(1/(2*SQRT(2*PI())))</f>
         <v>0.19947114020071635</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q9" s="38">
         <v>0.29166666666666669</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R9" s="34">
         <v>7</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S9" s="9">
         <v>350</v>
       </c>
-      <c r="T7" s="36">
-        <f t="shared" ref="T7:T18" si="1">EXP((0-($R$6-R7)^2/$P$2))</f>
+      <c r="T9" s="29">
+        <f t="shared" ref="T9:T20" si="1">EXP((0-($R$8-R9)^2/$P$4))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="U7" s="36">
-        <f t="shared" ref="U7:U18" si="2">T7*S7</f>
+      <c r="U9" s="29">
+        <f t="shared" ref="U9:U20" si="2">T9*S9</f>
         <v>308.8739159046084</v>
       </c>
-      <c r="V7" s="36">
-        <f t="shared" ref="V7:V18" si="3">EXP((0-($R$7-R7)^2/$P$2))</f>
+      <c r="V9" s="29">
+        <f t="shared" ref="V9:V20" si="3">EXP((0-($R$9-R9)^2/$P$4))</f>
         <v>1</v>
       </c>
-      <c r="W7" s="36">
-        <f t="shared" ref="W7:W18" si="4">V7*S7</f>
+      <c r="W9" s="29">
+        <f t="shared" ref="W9:W20" si="4">V9*S9</f>
         <v>350</v>
       </c>
-      <c r="X7" s="36">
-        <f t="shared" ref="X7:X18" si="5">EXP((0-($R$8-R7)^2/$P$2))</f>
+      <c r="X9" s="29">
+        <f t="shared" ref="X9:X20" si="5">EXP((0-($R$10-R9)^2/$P$4))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="Y7" s="36">
-        <f t="shared" ref="Y7:Y18" si="6">X7*S7</f>
+      <c r="Y9" s="29">
+        <f t="shared" ref="Y9:Y20" si="6">X9*S9</f>
         <v>308.8739159046084</v>
       </c>
-      <c r="Z7" s="36">
-        <f t="shared" ref="Z7:Z18" si="7">EXP((0-($R$9-R7)^2/$P$2))</f>
+      <c r="Z9" s="29">
+        <f t="shared" ref="Z9:Z20" si="7">EXP((0-($R$11-R9)^2/$P$4))</f>
         <v>0.60653065971263342</v>
       </c>
-      <c r="AA7" s="36">
-        <f t="shared" ref="AA7:AA18" si="8">Z7*S7</f>
+      <c r="AA9" s="29">
+        <f t="shared" ref="AA9:AA20" si="8">Z9*S9</f>
         <v>212.28573089942171</v>
       </c>
-      <c r="AB7" s="36">
-        <f t="shared" ref="AB7:AB18" si="9">EXP((0-($R$10-R7)^2/$P$2))</f>
+      <c r="AB9" s="29">
+        <f t="shared" ref="AB9:AB20" si="9">EXP((0-($R$12-R9)^2/$P$4))</f>
         <v>0.32465246735834974</v>
       </c>
-      <c r="AC7" s="36">
-        <f t="shared" ref="AC7:AC18" si="10">AB7*S7</f>
+      <c r="AC9" s="29">
+        <f t="shared" ref="AC9:AC20" si="10">AB9*S9</f>
         <v>113.62836357542241</v>
-      </c>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B8" s="43">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>500</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F8" s="45">
-        <v>8</v>
-      </c>
-      <c r="G8" s="14">
-        <f>(C7+C8+C9)/3</f>
-        <v>423.33333333333331</v>
-      </c>
-      <c r="J8" s="49">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K8" s="45">
-        <v>8</v>
-      </c>
-      <c r="L8" s="7">
-        <v>500</v>
-      </c>
-      <c r="M8" s="13" cm="1">
-        <f t="array" ref="M8">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K8)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K8)^2/(2*2^2)))))</f>
-        <v>372.62615402646583</v>
-      </c>
-      <c r="N8" s="37"/>
-      <c r="Q8" s="49">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R8" s="45">
-        <v>8</v>
-      </c>
-      <c r="S8" s="7">
-        <v>500</v>
-      </c>
-      <c r="T8" s="36">
-        <f t="shared" si="1"/>
-        <v>0.60653065971263342</v>
-      </c>
-      <c r="U8" s="36">
-        <f t="shared" si="2"/>
-        <v>303.26532985631673</v>
-      </c>
-      <c r="V8" s="36">
-        <f t="shared" si="3"/>
-        <v>0.88249690258459546</v>
-      </c>
-      <c r="W8" s="36">
-        <f t="shared" si="4"/>
-        <v>441.24845129229772</v>
-      </c>
-      <c r="X8" s="36">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y8" s="36">
-        <f t="shared" si="6"/>
-        <v>500</v>
-      </c>
-      <c r="Z8" s="36">
-        <f t="shared" si="7"/>
-        <v>0.88249690258459546</v>
-      </c>
-      <c r="AA8" s="36">
-        <f t="shared" si="8"/>
-        <v>441.24845129229772</v>
-      </c>
-      <c r="AB8" s="36">
-        <f t="shared" si="9"/>
-        <v>0.60653065971263342</v>
-      </c>
-      <c r="AC8" s="36">
-        <f t="shared" si="10"/>
-        <v>303.26532985631673</v>
-      </c>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B9" s="43">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2">
-        <v>420</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="F9" s="45">
-        <v>9</v>
-      </c>
-      <c r="G9" s="14">
-        <f>(C8+C9+C10)/3</f>
-        <v>433.33333333333331</v>
-      </c>
-      <c r="J9" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="K9" s="45">
-        <v>9</v>
-      </c>
-      <c r="L9" s="7">
-        <v>420</v>
-      </c>
-      <c r="M9" s="13" cm="1">
-        <f t="array" ref="M9">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K9)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K9)^2/(2*2^2)))))</f>
-        <v>369.20719394879319</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="Q9" s="49">
-        <v>0.375</v>
-      </c>
-      <c r="R9" s="45">
-        <v>9</v>
-      </c>
-      <c r="S9" s="7">
-        <v>420</v>
-      </c>
-      <c r="T9" s="36">
-        <f t="shared" si="1"/>
-        <v>0.32465246735834974</v>
-      </c>
-      <c r="U9" s="36">
-        <f t="shared" si="2"/>
-        <v>136.35403629050688</v>
-      </c>
-      <c r="V9" s="36">
-        <f t="shared" si="3"/>
-        <v>0.60653065971263342</v>
-      </c>
-      <c r="W9" s="36">
-        <f t="shared" si="4"/>
-        <v>254.74287707930603</v>
-      </c>
-      <c r="X9" s="36">
-        <f t="shared" si="5"/>
-        <v>0.88249690258459546</v>
-      </c>
-      <c r="Y9" s="36">
-        <f t="shared" si="6"/>
-        <v>370.6486990855301</v>
-      </c>
-      <c r="Z9" s="36">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="36">
-        <f t="shared" si="8"/>
-        <v>420</v>
-      </c>
-      <c r="AB9" s="36">
-        <f t="shared" si="9"/>
-        <v>0.88249690258459546</v>
-      </c>
-      <c r="AC9" s="36">
-        <f t="shared" si="10"/>
-        <v>370.6486990855301</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="24"/>
@@ -8552,88 +9247,91 @@
       <c r="AJ9" s="24"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="43">
-        <v>10</v>
+      <c r="B10" s="33">
+        <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>380</v>
-      </c>
-      <c r="E10" s="49">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F10" s="45">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14">
+        <v>500</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="34">
+        <v>8</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="14">
         <f>(C9+C10+C11)/3</f>
-        <v>366.66666666666669</v>
-      </c>
-      <c r="J10" s="49">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="K10" s="45">
-        <v>10</v>
-      </c>
-      <c r="L10" s="7">
-        <v>380</v>
+        <v>423.33333333333331</v>
+      </c>
+      <c r="J10" s="38">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K10" s="34">
+        <v>8</v>
+      </c>
+      <c r="L10" s="9">
+        <v>500</v>
       </c>
       <c r="M10" s="13" cm="1">
-        <f t="array" ref="M10">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K10)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K10)^2/(2*2^2)))))</f>
-        <v>348.62222394626411</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="Q10" s="49">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="R10" s="45">
-        <v>10</v>
-      </c>
-      <c r="S10" s="7">
-        <v>380</v>
-      </c>
-      <c r="T10" s="36">
+        <f t="array" ref="M10">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K10)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K10)^2/(2*2^2)))))</f>
+        <v>372.62615402646583</v>
+      </c>
+      <c r="N10" s="30"/>
+      <c r="Q10" s="38">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R10" s="34">
+        <v>8</v>
+      </c>
+      <c r="S10" s="9">
+        <v>500</v>
+      </c>
+      <c r="T10" s="29">
         <f t="shared" si="1"/>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="U10" s="36">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="U10" s="29">
         <f t="shared" si="2"/>
-        <v>51.427407629912828</v>
-      </c>
-      <c r="V10" s="36">
+        <v>303.26532985631673</v>
+      </c>
+      <c r="V10" s="29">
         <f t="shared" si="3"/>
-        <v>0.32465246735834974</v>
-      </c>
-      <c r="W10" s="36">
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="W10" s="29">
         <f t="shared" si="4"/>
-        <v>123.36793759617291</v>
-      </c>
-      <c r="X10" s="36">
+        <v>441.24845129229772</v>
+      </c>
+      <c r="X10" s="29">
         <f t="shared" si="5"/>
-        <v>0.60653065971263342</v>
-      </c>
-      <c r="Y10" s="36">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="29">
         <f t="shared" si="6"/>
-        <v>230.48165069080071</v>
-      </c>
-      <c r="Z10" s="36">
+        <v>500</v>
+      </c>
+      <c r="Z10" s="29">
         <f t="shared" si="7"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AA10" s="36">
+      <c r="AA10" s="29">
         <f t="shared" si="8"/>
-        <v>335.34882298214626</v>
-      </c>
-      <c r="AB10" s="36">
+        <v>441.24845129229772</v>
+      </c>
+      <c r="AB10" s="29">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AC10" s="36">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="AC10" s="29">
         <f t="shared" si="10"/>
-        <v>380</v>
+        <v>303.26532985631673</v>
       </c>
       <c r="AE10" s="20"/>
       <c r="AF10" s="24"/>
@@ -8643,88 +9341,91 @@
       <c r="AJ10" s="24"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="42">
+      <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="43">
-        <v>11</v>
+      <c r="B11" s="33">
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>300</v>
-      </c>
-      <c r="E11" s="49">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F11" s="45">
-        <v>11</v>
-      </c>
-      <c r="G11" s="14">
+        <v>420</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="34">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="14">
         <f>(C10+C11+C12)/3</f>
-        <v>310</v>
-      </c>
-      <c r="J11" s="49">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K11" s="45">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7">
-        <v>300</v>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="J11" s="38">
+        <v>0.375</v>
+      </c>
+      <c r="K11" s="34">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9">
+        <v>420</v>
       </c>
       <c r="M11" s="13" cm="1">
-        <f t="array" ref="M11">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K11)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K11)^2/(2*2^2)))))</f>
-        <v>318.14188617728212</v>
-      </c>
-      <c r="N11" s="37"/>
-      <c r="Q11" s="49">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="R11" s="45">
-        <v>11</v>
-      </c>
-      <c r="S11" s="7">
-        <v>300</v>
-      </c>
-      <c r="T11" s="36">
+        <f t="array" ref="M11">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K11)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K11)^2/(2*2^2)))))</f>
+        <v>369.20719394879319</v>
+      </c>
+      <c r="N11" s="30"/>
+      <c r="Q11" s="38">
+        <v>0.375</v>
+      </c>
+      <c r="R11" s="34">
+        <v>9</v>
+      </c>
+      <c r="S11" s="9">
+        <v>420</v>
+      </c>
+      <c r="T11" s="29">
         <f t="shared" si="1"/>
-        <v>4.393693362340742E-2</v>
-      </c>
-      <c r="U11" s="36">
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="U11" s="29">
         <f t="shared" si="2"/>
-        <v>13.181080087022226</v>
-      </c>
-      <c r="V11" s="36">
+        <v>136.35403629050688</v>
+      </c>
+      <c r="V11" s="29">
         <f t="shared" si="3"/>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="W11" s="36">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="W11" s="29">
         <f t="shared" si="4"/>
-        <v>40.60058497098381</v>
-      </c>
-      <c r="X11" s="36">
+        <v>254.74287707930603</v>
+      </c>
+      <c r="X11" s="29">
         <f t="shared" si="5"/>
-        <v>0.32465246735834974</v>
-      </c>
-      <c r="Y11" s="36">
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="Y11" s="29">
         <f t="shared" si="6"/>
-        <v>97.395740207504929</v>
-      </c>
-      <c r="Z11" s="36">
+        <v>370.6486990855301</v>
+      </c>
+      <c r="Z11" s="29">
         <f t="shared" si="7"/>
-        <v>0.60653065971263342</v>
-      </c>
-      <c r="AA11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="29">
         <f t="shared" si="8"/>
-        <v>181.95919791379004</v>
-      </c>
-      <c r="AB11" s="36">
+        <v>420</v>
+      </c>
+      <c r="AB11" s="29">
         <f t="shared" si="9"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AC11" s="36">
+      <c r="AC11" s="29">
         <f t="shared" si="10"/>
-        <v>264.74907077537864</v>
+        <v>370.6486990855301</v>
       </c>
       <c r="AE11" s="20"/>
       <c r="AF11" s="24"/>
@@ -8734,84 +9435,91 @@
       <c r="AJ11" s="24"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B12" s="43">
-        <v>12</v>
+      <c r="A12" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B12" s="33">
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>250</v>
-      </c>
-      <c r="E12" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="45">
-        <v>12</v>
-      </c>
-      <c r="G12" s="14">
+        <v>380</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F12" s="34">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="14">
         <f>(C11+C12+C13)/3</f>
-        <v>256.66666666666669</v>
-      </c>
-      <c r="J12" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="45">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7">
-        <v>250</v>
+        <v>366.66666666666669</v>
+      </c>
+      <c r="J12" s="38">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K12" s="34">
+        <v>10</v>
+      </c>
+      <c r="L12" s="9">
+        <v>380</v>
       </c>
       <c r="M12" s="13" cm="1">
-        <f t="array" ref="M12">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K12)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K12)^2/(2*2^2)))))</f>
-        <v>291.16202640364514</v>
-      </c>
-      <c r="N12" s="37"/>
-      <c r="Q12" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="R12" s="45">
-        <v>12</v>
-      </c>
-      <c r="S12" s="7">
-        <v>250</v>
-      </c>
-      <c r="T12" s="36">
+        <f t="array" ref="M12">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K12)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K12)^2/(2*2^2)))))</f>
+        <v>348.62222394626411</v>
+      </c>
+      <c r="N12" s="30"/>
+      <c r="Q12" s="38">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="R12" s="34">
+        <v>10</v>
+      </c>
+      <c r="S12" s="9">
+        <v>380</v>
+      </c>
+      <c r="T12" s="29">
         <f t="shared" si="1"/>
-        <v>1.1108996538242306E-2</v>
-      </c>
-      <c r="U12" s="36">
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="U12" s="29">
         <f t="shared" si="2"/>
-        <v>2.7772491345605763</v>
-      </c>
-      <c r="V12" s="36">
+        <v>51.427407629912828</v>
+      </c>
+      <c r="V12" s="29">
         <f t="shared" si="3"/>
-        <v>4.393693362340742E-2</v>
-      </c>
-      <c r="W12" s="36">
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="W12" s="29">
         <f t="shared" si="4"/>
-        <v>10.984233405851855</v>
-      </c>
-      <c r="X12" s="36">
+        <v>123.36793759617291</v>
+      </c>
+      <c r="X12" s="29">
         <f t="shared" si="5"/>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="Y12" s="36">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="Y12" s="29">
         <f t="shared" si="6"/>
-        <v>33.833820809153174</v>
-      </c>
-      <c r="Z12" s="36">
+        <v>230.48165069080071</v>
+      </c>
+      <c r="Z12" s="29">
         <f t="shared" si="7"/>
-        <v>0.32465246735834974</v>
-      </c>
-      <c r="AA12" s="36">
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="AA12" s="29">
         <f t="shared" si="8"/>
-        <v>81.163116839587431</v>
-      </c>
-      <c r="AB12" s="36">
+        <v>335.34882298214626</v>
+      </c>
+      <c r="AB12" s="29">
         <f t="shared" si="9"/>
-        <v>0.60653065971263342</v>
-      </c>
-      <c r="AC12" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="29">
         <f t="shared" si="10"/>
-        <v>151.63266492815836</v>
+        <v>380</v>
       </c>
       <c r="AE12" s="20"/>
       <c r="AF12" s="24"/>
@@ -8821,84 +9529,91 @@
       <c r="AJ12" s="24"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B13" s="43">
-        <v>13</v>
+      <c r="A13" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="33">
+        <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>220</v>
-      </c>
-      <c r="E13" s="49">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F13" s="45">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14">
+        <v>300</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F13" s="34">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="14">
         <f>(C12+C13+C14)/3</f>
-        <v>223.33333333333334</v>
-      </c>
-      <c r="J13" s="49">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K13" s="45">
-        <v>13</v>
-      </c>
-      <c r="L13" s="7">
-        <v>220</v>
+        <v>310</v>
+      </c>
+      <c r="J13" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="K13" s="34">
+        <v>11</v>
+      </c>
+      <c r="L13" s="9">
+        <v>300</v>
       </c>
       <c r="M13" s="13" cm="1">
-        <f t="array" ref="M13">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K13)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K13)^2/(2*2^2)))))</f>
-        <v>281.25930873853201</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="Q13" s="49">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="R13" s="45">
-        <v>13</v>
-      </c>
-      <c r="S13" s="7">
-        <v>220</v>
-      </c>
-      <c r="T13" s="36">
+        <f t="array" ref="M13">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K13)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K13)^2/(2*2^2)))))</f>
+        <v>318.14188617728212</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="Q13" s="38">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="R13" s="34">
+        <v>11</v>
+      </c>
+      <c r="S13" s="9">
+        <v>300</v>
+      </c>
+      <c r="T13" s="29">
         <f t="shared" si="1"/>
-        <v>2.1874911181828851E-3</v>
-      </c>
-      <c r="U13" s="36">
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="U13" s="29">
         <f t="shared" si="2"/>
-        <v>0.48124804600023474</v>
-      </c>
-      <c r="V13" s="36">
+        <v>13.181080087022226</v>
+      </c>
+      <c r="V13" s="29">
         <f t="shared" si="3"/>
-        <v>1.1108996538242306E-2</v>
-      </c>
-      <c r="W13" s="36">
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="W13" s="29">
         <f t="shared" si="4"/>
-        <v>2.4439792384133074</v>
-      </c>
-      <c r="X13" s="36">
+        <v>40.60058497098381</v>
+      </c>
+      <c r="X13" s="29">
         <f t="shared" si="5"/>
-        <v>4.393693362340742E-2</v>
-      </c>
-      <c r="Y13" s="36">
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="Y13" s="29">
         <f t="shared" si="6"/>
-        <v>9.6661253971496333</v>
-      </c>
-      <c r="Z13" s="36">
+        <v>97.395740207504929</v>
+      </c>
+      <c r="Z13" s="29">
         <f t="shared" si="7"/>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="AA13" s="36">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="AA13" s="29">
         <f t="shared" si="8"/>
-        <v>29.773762312054796</v>
-      </c>
-      <c r="AB13" s="36">
+        <v>181.95919791379004</v>
+      </c>
+      <c r="AB13" s="29">
         <f t="shared" si="9"/>
-        <v>0.32465246735834974</v>
-      </c>
-      <c r="AC13" s="36">
+        <v>0.88249690258459546</v>
+      </c>
+      <c r="AC13" s="29">
         <f t="shared" si="10"/>
-        <v>71.42354281883695</v>
+        <v>264.74907077537864</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="24"/>
@@ -8908,84 +9623,87 @@
       <c r="AJ13" s="24"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B14" s="43">
-        <v>14</v>
+      <c r="B14" s="33">
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>200</v>
-      </c>
-      <c r="E14" s="49">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F14" s="45">
-        <v>14</v>
-      </c>
-      <c r="G14" s="14">
+        <v>250</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="34">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="14">
         <f>(C13+C14+C15)/3</f>
-        <v>233.33333333333334</v>
-      </c>
-      <c r="J14" s="49">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="K14" s="45">
-        <v>14</v>
-      </c>
-      <c r="L14" s="7">
-        <v>200</v>
+        <v>256.66666666666669</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="34">
+        <v>12</v>
+      </c>
+      <c r="L14" s="9">
+        <v>250</v>
       </c>
       <c r="M14" s="13" cm="1">
-        <f t="array" ref="M14">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K14)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K14)^2/(2*2^2)))))</f>
-        <v>296.41565604060395</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="Q14" s="49">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="R14" s="45">
-        <v>14</v>
-      </c>
-      <c r="S14" s="7">
-        <v>200</v>
-      </c>
-      <c r="T14" s="36">
+        <f t="array" ref="M14">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K14)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K14)^2/(2*2^2)))))</f>
+        <v>291.16202640364514</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="Q14" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="34">
+        <v>12</v>
+      </c>
+      <c r="S14" s="9">
+        <v>250</v>
+      </c>
+      <c r="T14" s="29">
         <f t="shared" si="1"/>
-        <v>3.3546262790251185E-4</v>
-      </c>
-      <c r="U14" s="36">
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="U14" s="29">
         <f t="shared" si="2"/>
-        <v>6.7092525580502368E-2</v>
-      </c>
-      <c r="V14" s="36">
+        <v>2.7772491345605763</v>
+      </c>
+      <c r="V14" s="29">
         <f t="shared" si="3"/>
-        <v>2.1874911181828851E-3</v>
-      </c>
-      <c r="W14" s="36">
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="W14" s="29">
         <f t="shared" si="4"/>
-        <v>0.43749822363657703</v>
-      </c>
-      <c r="X14" s="36">
+        <v>10.984233405851855</v>
+      </c>
+      <c r="X14" s="29">
         <f t="shared" si="5"/>
-        <v>1.1108996538242306E-2</v>
-      </c>
-      <c r="Y14" s="36">
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="Y14" s="29">
         <f t="shared" si="6"/>
-        <v>2.2217993076484612</v>
-      </c>
-      <c r="Z14" s="36">
+        <v>33.833820809153174</v>
+      </c>
+      <c r="Z14" s="29">
         <f t="shared" si="7"/>
-        <v>4.393693362340742E-2</v>
-      </c>
-      <c r="AA14" s="36">
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="AA14" s="29">
         <f t="shared" si="8"/>
-        <v>8.7873867246814843</v>
-      </c>
-      <c r="AB14" s="36">
+        <v>81.163116839587431</v>
+      </c>
+      <c r="AB14" s="29">
         <f t="shared" si="9"/>
-        <v>0.1353352832366127</v>
-      </c>
-      <c r="AC14" s="36">
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="AC14" s="29">
         <f t="shared" si="10"/>
-        <v>27.067056647322541</v>
+        <v>151.63266492815836</v>
       </c>
       <c r="AE14" s="20"/>
       <c r="AF14" s="24"/>
@@ -8995,83 +9713,87 @@
       <c r="AJ14" s="24"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B15" s="43">
-        <v>15</v>
+      <c r="B15" s="33">
+        <v>13</v>
       </c>
       <c r="C15" s="2">
-        <v>280</v>
-      </c>
-      <c r="E15" s="49">
-        <v>0.625</v>
-      </c>
-      <c r="F15" s="45">
-        <v>15</v>
-      </c>
-      <c r="G15" s="14">
+        <v>220</v>
+      </c>
+      <c r="E15" s="38">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F15" s="34">
+        <v>13</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="14">
         <f>(C14+C15+C16)/3</f>
-        <v>293.33333333333331</v>
-      </c>
-      <c r="J15" s="49">
-        <v>0.625</v>
-      </c>
-      <c r="K15" s="45">
-        <v>15</v>
-      </c>
-      <c r="L15" s="7">
-        <v>280</v>
+        <v>223.33333333333334</v>
+      </c>
+      <c r="J15" s="38">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="K15" s="34">
+        <v>13</v>
+      </c>
+      <c r="L15" s="9">
+        <v>220</v>
       </c>
       <c r="M15" s="13" cm="1">
-        <f t="array" ref="M15">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K15)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K15)^2/(2*2^2)))))</f>
-        <v>335.17861483985797</v>
-      </c>
-      <c r="Q15" s="49">
-        <v>0.625</v>
-      </c>
-      <c r="R15" s="45">
-        <v>15</v>
-      </c>
-      <c r="S15" s="7">
-        <v>280</v>
-      </c>
-      <c r="T15" s="36">
+        <f t="array" ref="M15">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K15)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K15)^2/(2*2^2)))))</f>
+        <v>281.25930873853201</v>
+      </c>
+      <c r="N15" s="30"/>
+      <c r="Q15" s="38">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="R15" s="34">
+        <v>13</v>
+      </c>
+      <c r="S15" s="9">
+        <v>220</v>
+      </c>
+      <c r="T15" s="29">
         <f t="shared" si="1"/>
-        <v>4.0065297392951069E-5</v>
-      </c>
-      <c r="U15" s="36">
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="U15" s="29">
         <f t="shared" si="2"/>
-        <v>1.1218283270026299E-2</v>
-      </c>
-      <c r="V15" s="36">
+        <v>0.48124804600023474</v>
+      </c>
+      <c r="V15" s="29">
         <f t="shared" si="3"/>
-        <v>3.3546262790251185E-4</v>
-      </c>
-      <c r="W15" s="36">
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="W15" s="29">
         <f t="shared" si="4"/>
-        <v>9.3929535812703316E-2</v>
-      </c>
-      <c r="X15" s="36">
+        <v>2.4439792384133074</v>
+      </c>
+      <c r="X15" s="29">
         <f t="shared" si="5"/>
-        <v>2.1874911181828851E-3</v>
-      </c>
-      <c r="Y15" s="36">
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="Y15" s="29">
         <f t="shared" si="6"/>
-        <v>0.61249751309120781</v>
-      </c>
-      <c r="Z15" s="36">
+        <v>9.6661253971496333</v>
+      </c>
+      <c r="Z15" s="29">
         <f t="shared" si="7"/>
-        <v>1.1108996538242306E-2</v>
-      </c>
-      <c r="AA15" s="36">
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="AA15" s="29">
         <f t="shared" si="8"/>
-        <v>3.1105190307078456</v>
-      </c>
-      <c r="AB15" s="36">
+        <v>29.773762312054796</v>
+      </c>
+      <c r="AB15" s="29">
         <f t="shared" si="9"/>
-        <v>4.393693362340742E-2</v>
-      </c>
-      <c r="AC15" s="36">
+        <v>0.32465246735834974</v>
+      </c>
+      <c r="AC15" s="29">
         <f t="shared" si="10"/>
-        <v>12.302341414554078</v>
+        <v>71.42354281883695</v>
       </c>
       <c r="AE15" s="20"/>
       <c r="AF15" s="24"/>
@@ -9081,84 +9803,87 @@
       <c r="AJ15" s="24"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B16" s="43">
-        <v>16</v>
+      <c r="B16" s="33">
+        <v>14</v>
       </c>
       <c r="C16" s="2">
-        <v>400</v>
-      </c>
-      <c r="E16" s="49">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F16" s="45">
-        <v>16</v>
-      </c>
-      <c r="G16" s="14">
+        <v>200</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F16" s="34">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="14">
         <f>(C15+C16+C17)/3</f>
-        <v>410</v>
-      </c>
-      <c r="J16" s="49">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="K16" s="45">
-        <v>16</v>
-      </c>
-      <c r="L16" s="7">
-        <v>400</v>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="J16" s="38">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K16" s="34">
+        <v>14</v>
+      </c>
+      <c r="L16" s="9">
+        <v>200</v>
       </c>
       <c r="M16" s="13" cm="1">
-        <f t="array" ref="M16">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K16)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K16)^2/(2*2^2)))))</f>
-        <v>387.36465579026088</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="Q16" s="49">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R16" s="45">
-        <v>16</v>
-      </c>
-      <c r="S16" s="7">
-        <v>400</v>
-      </c>
-      <c r="T16" s="36">
+        <f t="array" ref="M16">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K16)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K16)^2/(2*2^2)))))</f>
+        <v>296.41565604060395</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="Q16" s="38">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R16" s="34">
+        <v>14</v>
+      </c>
+      <c r="S16" s="9">
+        <v>200</v>
+      </c>
+      <c r="T16" s="29">
         <f t="shared" si="1"/>
-        <v>3.7266531720786709E-6</v>
-      </c>
-      <c r="U16" s="36">
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="U16" s="29">
         <f t="shared" si="2"/>
-        <v>1.4906612688314683E-3</v>
-      </c>
-      <c r="V16" s="36">
+        <v>6.7092525580502368E-2</v>
+      </c>
+      <c r="V16" s="29">
         <f t="shared" si="3"/>
-        <v>4.0065297392951069E-5</v>
-      </c>
-      <c r="W16" s="36">
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="W16" s="29">
         <f t="shared" si="4"/>
-        <v>1.6026118957180428E-2</v>
-      </c>
-      <c r="X16" s="36">
+        <v>0.43749822363657703</v>
+      </c>
+      <c r="X16" s="29">
         <f t="shared" si="5"/>
-        <v>3.3546262790251185E-4</v>
-      </c>
-      <c r="Y16" s="36">
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="Y16" s="29">
         <f t="shared" si="6"/>
-        <v>0.13418505116100474</v>
-      </c>
-      <c r="Z16" s="36">
+        <v>2.2217993076484612</v>
+      </c>
+      <c r="Z16" s="29">
         <f t="shared" si="7"/>
-        <v>2.1874911181828851E-3</v>
-      </c>
-      <c r="AA16" s="36">
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="AA16" s="29">
         <f t="shared" si="8"/>
-        <v>0.87499644727315407</v>
-      </c>
-      <c r="AB16" s="36">
+        <v>8.7873867246814843</v>
+      </c>
+      <c r="AB16" s="29">
         <f t="shared" si="9"/>
-        <v>1.1108996538242306E-2</v>
-      </c>
-      <c r="AC16" s="36">
+        <v>0.1353352832366127</v>
+      </c>
+      <c r="AC16" s="29">
         <f t="shared" si="10"/>
-        <v>4.4435986152969225</v>
+        <v>27.067056647322541</v>
       </c>
       <c r="AE16" s="20"/>
       <c r="AF16" s="24"/>
@@ -9168,84 +9893,86 @@
       <c r="AJ16" s="24"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B17" s="43">
-        <v>17</v>
+      <c r="B17" s="33">
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <v>550</v>
-      </c>
-      <c r="E17" s="49">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="F17" s="45">
-        <v>17</v>
-      </c>
-      <c r="G17" s="14">
+        <v>280</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="F17" s="34">
+        <v>15</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="14">
         <f>(C16+C17+C18)/3</f>
-        <v>516.66666666666663</v>
-      </c>
-      <c r="J17" s="49">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K17" s="45">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7">
-        <v>550</v>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="J17" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="K17" s="34">
+        <v>15</v>
+      </c>
+      <c r="L17" s="9">
+        <v>280</v>
       </c>
       <c r="M17" s="13" cm="1">
-        <f t="array" ref="M17">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K17)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K17)^2/(2*2^2)))))</f>
-        <v>440.28930320756791</v>
-      </c>
-      <c r="N17" s="37"/>
-      <c r="Q17" s="49">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="R17" s="45">
-        <v>17</v>
-      </c>
-      <c r="S17" s="7">
-        <v>550</v>
-      </c>
-      <c r="T17" s="36">
+        <f t="array" ref="M17">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K17)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K17)^2/(2*2^2)))))</f>
+        <v>335.17861483985797</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>0.625</v>
+      </c>
+      <c r="R17" s="34">
+        <v>15</v>
+      </c>
+      <c r="S17" s="9">
+        <v>280</v>
+      </c>
+      <c r="T17" s="29">
         <f t="shared" si="1"/>
-        <v>2.6995785033630141E-7</v>
-      </c>
-      <c r="U17" s="36">
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="U17" s="29">
         <f t="shared" si="2"/>
-        <v>1.4847681768496578E-4</v>
-      </c>
-      <c r="V17" s="36">
+        <v>1.1218283270026299E-2</v>
+      </c>
+      <c r="V17" s="29">
         <f t="shared" si="3"/>
-        <v>3.7266531720786709E-6</v>
-      </c>
-      <c r="W17" s="36">
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="W17" s="29">
         <f t="shared" si="4"/>
-        <v>2.0496592446432689E-3</v>
-      </c>
-      <c r="X17" s="36">
+        <v>9.3929535812703316E-2</v>
+      </c>
+      <c r="X17" s="29">
         <f t="shared" si="5"/>
-        <v>4.0065297392951069E-5</v>
-      </c>
-      <c r="Y17" s="36">
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="Y17" s="29">
         <f t="shared" si="6"/>
-        <v>2.2035913566123087E-2</v>
-      </c>
-      <c r="Z17" s="36">
+        <v>0.61249751309120781</v>
+      </c>
+      <c r="Z17" s="29">
         <f t="shared" si="7"/>
-        <v>3.3546262790251185E-4</v>
-      </c>
-      <c r="AA17" s="36">
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="AA17" s="29">
         <f t="shared" si="8"/>
-        <v>0.18450444534638152</v>
-      </c>
-      <c r="AB17" s="36">
+        <v>3.1105190307078456</v>
+      </c>
+      <c r="AB17" s="29">
         <f t="shared" si="9"/>
-        <v>2.1874911181828851E-3</v>
-      </c>
-      <c r="AC17" s="36">
+        <v>4.393693362340742E-2</v>
+      </c>
+      <c r="AC17" s="29">
         <f t="shared" si="10"/>
-        <v>1.2031201150005868</v>
+        <v>12.302341414554078</v>
       </c>
       <c r="AE17" s="20"/>
       <c r="AF17" s="24"/>
@@ -9255,83 +9982,87 @@
       <c r="AJ17" s="24"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="43">
-        <v>18</v>
+      <c r="B18" s="33">
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>600</v>
-      </c>
-      <c r="E18" s="49">
-        <v>0.75</v>
-      </c>
-      <c r="F18" s="45">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="49">
-        <v>0.75</v>
-      </c>
-      <c r="K18" s="45">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7">
-        <v>600</v>
+        <v>400</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F18" s="34">
+        <v>16</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="14">
+        <f>(C17+C18+C19)/3</f>
+        <v>410</v>
+      </c>
+      <c r="J18" s="38">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K18" s="34">
+        <v>16</v>
+      </c>
+      <c r="L18" s="9">
+        <v>400</v>
       </c>
       <c r="M18" s="13" cm="1">
-        <f t="array" ref="M18">SUMPRODUCT($L$6:$L$18,EXP(-(($K$6:$K$18-K18)^2/(2*2^2)))/SUM(EXP(-(($K$6:$K$18-K18)^2/(2*2^2)))))</f>
-        <v>485.32810205079517</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="Q18" s="49">
-        <v>0.75</v>
-      </c>
-      <c r="R18" s="45">
-        <v>18</v>
-      </c>
-      <c r="S18" s="7">
-        <v>600</v>
-      </c>
-      <c r="T18" s="36">
+        <f t="array" ref="M18">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K18)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K18)^2/(2*2^2)))))</f>
+        <v>387.36465579026088</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="Q18" s="38">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R18" s="34">
+        <v>16</v>
+      </c>
+      <c r="S18" s="9">
+        <v>400</v>
+      </c>
+      <c r="T18" s="29">
         <f t="shared" si="1"/>
-        <v>1.5229979744712629E-8</v>
-      </c>
-      <c r="U18" s="36">
+        <v>3.7266531720786709E-6</v>
+      </c>
+      <c r="U18" s="29">
         <f t="shared" si="2"/>
-        <v>9.137987846827578E-6</v>
-      </c>
-      <c r="V18" s="36">
+        <v>1.4906612688314683E-3</v>
+      </c>
+      <c r="V18" s="29">
         <f t="shared" si="3"/>
-        <v>2.6995785033630141E-7</v>
-      </c>
-      <c r="W18" s="36">
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="W18" s="29">
         <f t="shared" si="4"/>
-        <v>1.6197471020178085E-4</v>
-      </c>
-      <c r="X18" s="36">
+        <v>1.6026118957180428E-2</v>
+      </c>
+      <c r="X18" s="29">
         <f t="shared" si="5"/>
-        <v>3.7266531720786709E-6</v>
-      </c>
-      <c r="Y18" s="36">
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="Y18" s="29">
         <f t="shared" si="6"/>
-        <v>2.2359919032472024E-3</v>
-      </c>
-      <c r="Z18" s="36">
+        <v>0.13418505116100474</v>
+      </c>
+      <c r="Z18" s="29">
         <f t="shared" si="7"/>
-        <v>4.0065297392951069E-5</v>
-      </c>
-      <c r="AA18" s="36">
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="AA18" s="29">
         <f t="shared" si="8"/>
-        <v>2.403917843577064E-2</v>
-      </c>
-      <c r="AB18" s="36">
+        <v>0.87499644727315407</v>
+      </c>
+      <c r="AB18" s="29">
         <f t="shared" si="9"/>
-        <v>3.3546262790251185E-4</v>
-      </c>
-      <c r="AC18" s="36">
+        <v>1.1108996538242306E-2</v>
+      </c>
+      <c r="AC18" s="29">
         <f t="shared" si="10"/>
-        <v>0.20127757674150712</v>
+        <v>4.4435986152969225</v>
       </c>
       <c r="AE18" s="20"/>
       <c r="AF18" s="24"/>
@@ -9341,61 +10072,87 @@
       <c r="AJ18" s="24"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-      <c r="K19" s="1">
-        <v>6</v>
-      </c>
-      <c r="L19" s="1">
-        <v>200</v>
-      </c>
-      <c r="M19" s="1" cm="1">
-        <f t="array" ref="M19">SUMPRODUCT($L$6:$L$18, (O7*EXP(-(($K$6:$K$18-K19)^2/(2*2^2))))/SUM((O7*EXP(-(($K$6:$K$18-K19)^2/(2*2^2))))))</f>
-        <v>338.06647627325015</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="48">
-        <f>SUM(T6:T18)</f>
-        <v>3.0066282739383219</v>
-      </c>
-      <c r="U19" s="36">
-        <f>SUM(U6:U18)</f>
-        <v>1016.4402260338528</v>
-      </c>
-      <c r="V19" s="48">
-        <f t="shared" ref="V19:W19" si="11">SUM(V6:V18)</f>
-        <v>3.8891251612929376</v>
-      </c>
-      <c r="W19" s="36">
-        <f t="shared" si="11"/>
-        <v>1400.4371096123061</v>
-      </c>
-      <c r="X19" s="48">
-        <f t="shared" ref="X19" si="12">SUM(X6:X18)</f>
-        <v>4.4956555510477196</v>
-      </c>
-      <c r="Y19" s="36">
-        <f t="shared" ref="Y19" si="13">SUM(Y6:Y18)</f>
-        <v>1675.1988378146439</v>
-      </c>
-      <c r="Z19" s="48">
-        <f t="shared" ref="Z19" si="14">SUM(Z6:Z18)</f>
-        <v>4.8203042917528975</v>
-      </c>
-      <c r="AA19" s="36">
-        <f t="shared" ref="AA19" si="15">SUM(AA6:AA18)</f>
-        <v>1779.6910215374123</v>
-      </c>
-      <c r="AB19" s="48">
-        <f t="shared" ref="AB19" si="16">SUM(AB6:AB18)</f>
-        <v>4.9555995096921173</v>
-      </c>
-      <c r="AC19" s="36">
-        <f t="shared" ref="AC19" si="17">SUM(AC6:AC18)</f>
-        <v>1727.6321220558812</v>
+      <c r="B19" s="33">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>550</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F19" s="34">
+        <v>17</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="14">
+        <f>(C18+C19+C20)/3</f>
+        <v>516.66666666666663</v>
+      </c>
+      <c r="J19" s="38">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="K19" s="34">
+        <v>17</v>
+      </c>
+      <c r="L19" s="9">
+        <v>550</v>
+      </c>
+      <c r="M19" s="13" cm="1">
+        <f t="array" ref="M19">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K19)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K19)^2/(2*2^2)))))</f>
+        <v>440.28930320756791</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="Q19" s="38">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R19" s="34">
+        <v>17</v>
+      </c>
+      <c r="S19" s="9">
+        <v>550</v>
+      </c>
+      <c r="T19" s="29">
+        <f t="shared" si="1"/>
+        <v>2.6995785033630141E-7</v>
+      </c>
+      <c r="U19" s="29">
+        <f t="shared" si="2"/>
+        <v>1.4847681768496578E-4</v>
+      </c>
+      <c r="V19" s="29">
+        <f t="shared" si="3"/>
+        <v>3.7266531720786709E-6</v>
+      </c>
+      <c r="W19" s="29">
+        <f t="shared" si="4"/>
+        <v>2.0496592446432689E-3</v>
+      </c>
+      <c r="X19" s="29">
+        <f t="shared" si="5"/>
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="Y19" s="29">
+        <f t="shared" si="6"/>
+        <v>2.2035913566123087E-2</v>
+      </c>
+      <c r="Z19" s="29">
+        <f t="shared" si="7"/>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="AA19" s="29">
+        <f t="shared" si="8"/>
+        <v>0.18450444534638152</v>
+      </c>
+      <c r="AB19" s="29">
+        <f t="shared" si="9"/>
+        <v>2.1874911181828851E-3</v>
+      </c>
+      <c r="AC19" s="29">
+        <f t="shared" si="10"/>
+        <v>1.2031201150005868</v>
       </c>
       <c r="AE19" s="20"/>
       <c r="AF19" s="24"/>
@@ -9405,57 +10162,211 @@
       <c r="AJ19" s="24"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="Q20" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" s="55"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="47">
-        <f>U19/T19</f>
-        <v>338.06647627325015</v>
-      </c>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47">
-        <f>W19/V19</f>
-        <v>360.09052204088272</v>
-      </c>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47">
-        <f>Y19/X19</f>
-        <v>372.62615402646588</v>
-      </c>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47">
-        <f>AA19/Z19</f>
-        <v>369.20719394879319</v>
-      </c>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47">
-        <f>AC19/AB19</f>
-        <v>348.62222394626394</v>
-      </c>
-      <c r="AC20" s="47"/>
-      <c r="AE20" s="24"/>
+      <c r="B20" s="33">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
+        <v>600</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="34">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="34">
+        <v>18</v>
+      </c>
+      <c r="L20" s="9">
+        <v>600</v>
+      </c>
+      <c r="M20" s="13" cm="1">
+        <f t="array" ref="M20">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K20)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K20)^2/(2*2^2)))))</f>
+        <v>485.32810205079517</v>
+      </c>
+      <c r="N20" s="30"/>
+      <c r="Q20" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="R20" s="34">
+        <v>18</v>
+      </c>
+      <c r="S20" s="9">
+        <v>600</v>
+      </c>
+      <c r="T20" s="29">
+        <f t="shared" si="1"/>
+        <v>1.5229979744712629E-8</v>
+      </c>
+      <c r="U20" s="29">
+        <f t="shared" si="2"/>
+        <v>9.137987846827578E-6</v>
+      </c>
+      <c r="V20" s="29">
+        <f t="shared" si="3"/>
+        <v>2.6995785033630141E-7</v>
+      </c>
+      <c r="W20" s="29">
+        <f t="shared" si="4"/>
+        <v>1.6197471020178085E-4</v>
+      </c>
+      <c r="X20" s="29">
+        <f t="shared" si="5"/>
+        <v>3.7266531720786709E-6</v>
+      </c>
+      <c r="Y20" s="29">
+        <f t="shared" si="6"/>
+        <v>2.2359919032472024E-3</v>
+      </c>
+      <c r="Z20" s="29">
+        <f t="shared" si="7"/>
+        <v>4.0065297392951069E-5</v>
+      </c>
+      <c r="AA20" s="29">
+        <f t="shared" si="8"/>
+        <v>2.403917843577064E-2</v>
+      </c>
+      <c r="AB20" s="29">
+        <f t="shared" si="9"/>
+        <v>3.3546262790251185E-4</v>
+      </c>
+      <c r="AC20" s="29">
+        <f t="shared" si="10"/>
+        <v>0.20127757674150712</v>
+      </c>
+      <c r="AE20" s="20"/>
       <c r="AF20" s="24"/>
       <c r="AG20" s="24"/>
       <c r="AH20" s="24"/>
       <c r="AI20" s="24"/>
       <c r="AJ20" s="24"/>
     </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="K21" s="1">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1">
+        <v>200</v>
+      </c>
+      <c r="M21" s="1" cm="1">
+        <f t="array" ref="M21">SUMPRODUCT($L$8:$L$20, (O9*EXP(-(($K$8:$K$20-K21)^2/(2*2^2))))/SUM((O9*EXP(-(($K$8:$K$20-K21)^2/(2*2^2))))))</f>
+        <v>338.06647627325015</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="37">
+        <f>SUM(T8:T20)</f>
+        <v>3.0066282739383219</v>
+      </c>
+      <c r="U21" s="29">
+        <f>SUM(U8:U20)</f>
+        <v>1016.4402260338528</v>
+      </c>
+      <c r="V21" s="37">
+        <f t="shared" ref="V21:W21" si="11">SUM(V8:V20)</f>
+        <v>3.8891251612929376</v>
+      </c>
+      <c r="W21" s="29">
+        <f t="shared" si="11"/>
+        <v>1400.4371096123061</v>
+      </c>
+      <c r="X21" s="37">
+        <f t="shared" ref="X21" si="12">SUM(X8:X20)</f>
+        <v>4.4956555510477196</v>
+      </c>
+      <c r="Y21" s="29">
+        <f t="shared" ref="Y21" si="13">SUM(Y8:Y20)</f>
+        <v>1675.1988378146439</v>
+      </c>
+      <c r="Z21" s="37">
+        <f t="shared" ref="Z21" si="14">SUM(Z8:Z20)</f>
+        <v>4.8203042917528975</v>
+      </c>
+      <c r="AA21" s="29">
+        <f t="shared" ref="AA21" si="15">SUM(AA8:AA20)</f>
+        <v>1779.6910215374123</v>
+      </c>
+      <c r="AB21" s="37">
+        <f t="shared" ref="AB21" si="16">SUM(AB8:AB20)</f>
+        <v>4.9555995096921173</v>
+      </c>
+      <c r="AC21" s="29">
+        <f t="shared" ref="AC21" si="17">SUM(AC8:AC20)</f>
+        <v>1727.6321220558812</v>
+      </c>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="Q22" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="36">
+        <f>U21/T21</f>
+        <v>338.06647627325015</v>
+      </c>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36">
+        <f>W21/V21</f>
+        <v>360.09052204088272</v>
+      </c>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36">
+        <f>Y21/X21</f>
+        <v>372.62615402646588</v>
+      </c>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36">
+        <f>AA21/Z21</f>
+        <v>369.20719394879319</v>
+      </c>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36">
+        <f>AC21/AB21</f>
+        <v>348.62222394626394</v>
+      </c>
+      <c r="AC22" s="36"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
+  <mergeCells count="13">
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9464,56 +10375,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221791FE-AE24-461E-BE47-F59067CEB9BD}">
-  <dimension ref="B3:S60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221791FE-AE24-461E-BE47-F59067CEB9BD}">
+  <dimension ref="B2:W83"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="80" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="11.5546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="10.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="Q2" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="17"/>
-      <c r="F3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="M3" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="28"/>
-      <c r="R3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="9"/>
+      <c r="E3" s="17"/>
+      <c r="G3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="P3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="V3" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="27"/>
     </row>
-    <row r="4" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
@@ -9521,774 +10450,1102 @@
         <v>35</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="18"/>
+      <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>45</v>
+      <c r="S4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>48</v>
       </c>
       <c r="D5" s="17"/>
-      <c r="F5" s="13">
+      <c r="E5" s="17"/>
+      <c r="G5" s="13">
         <f>LN(B5)</f>
         <v>1.6094379124341003</v>
       </c>
-      <c r="G5" s="13">
+      <c r="H5" s="13">
         <f>LN(C5)</f>
         <v>3.8712010109078911</v>
       </c>
-      <c r="H5" s="36">
-        <f>F5-$F$12</f>
+      <c r="I5" s="29">
+        <f>G5-$G$13</f>
         <v>-1.0965418686683506</v>
       </c>
-      <c r="I5" s="25">
-        <f>H5^2</f>
+      <c r="J5" s="25">
+        <f>I5^2</f>
         <v>1.2024040697426781</v>
       </c>
-      <c r="J5" s="36">
-        <f>G5-$G$12</f>
+      <c r="K5" s="29">
+        <f>H5-$H$13</f>
         <v>0.37764347303699219</v>
       </c>
-      <c r="K5" s="25">
-        <f>H5*J5</f>
+      <c r="L5" s="25">
+        <f>I5*K5</f>
         <v>-0.41410187961438927</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="12">
-        <f>$J$14+($J$15*F5)</f>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="13">
+        <v>3.8712010109078911</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>$K$18+($K$19*G5)</f>
         <v>3.9693778266186839</v>
       </c>
-      <c r="N5" s="12">
-        <f>G5-M5</f>
+      <c r="R5" s="12">
+        <f>H5-Q5</f>
         <v>-9.8176815710792731E-2</v>
       </c>
-      <c r="O5" s="12">
-        <f>N5^2</f>
+      <c r="S5" s="12">
+        <f>R5^2</f>
         <v>9.6386871431109588E-3</v>
       </c>
-      <c r="P5" s="12">
-        <f>J5^2</f>
+      <c r="T5" s="12">
+        <f>K5^2</f>
         <v>0.14261459272744145</v>
       </c>
-      <c r="R5" s="12">
-        <f>M5</f>
+      <c r="V5" s="12">
+        <f>R5</f>
+        <v>-9.8176815710792731E-2</v>
+      </c>
+      <c r="W5" s="12">
+        <f>Q5</f>
         <v>3.9693778266186839</v>
       </c>
-      <c r="S5" s="12">
-        <f>N5</f>
-        <v>-9.8176815710792731E-2</v>
-      </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="7">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>42</v>
       </c>
       <c r="D6" s="17"/>
-      <c r="F6" s="13">
-        <f t="shared" ref="F6:F10" si="0">LN(B6)</f>
+      <c r="E6" s="17"/>
+      <c r="G6" s="13">
+        <f t="shared" ref="G6:G10" si="0">LN(B6)</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="G6" s="13">
-        <f t="shared" ref="G6:G10" si="1">LN(C6)</f>
+      <c r="H6" s="13">
+        <f t="shared" ref="H6:H10" si="1">LN(C6)</f>
         <v>3.7376696182833684</v>
       </c>
-      <c r="H6" s="36">
-        <f>F6-$F$12</f>
+      <c r="I6" s="29">
+        <f>G6-$G$13</f>
         <v>-0.40339468810840495</v>
       </c>
-      <c r="I6" s="25">
-        <f t="shared" ref="I6:I10" si="2">H6^2</f>
+      <c r="J6" s="25">
+        <f t="shared" ref="J6:J10" si="2">I6^2</f>
         <v>0.1627272743940773</v>
       </c>
-      <c r="J6" s="36">
-        <f>G6-$G$12</f>
+      <c r="K6" s="29">
+        <f>H6-$H$13</f>
         <v>0.24411208041246946</v>
       </c>
-      <c r="K6" s="25">
-        <f t="shared" ref="K6:K10" si="3">H6*J6</f>
+      <c r="L6" s="25">
+        <f t="shared" ref="L6:L10" si="3">I6*K6</f>
         <v>-9.8473516541481981E-2</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="12">
-        <f t="shared" ref="M6:M10" si="4">$J$14+($J$15*F6)</f>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="13">
+        <v>3.7376696182833684</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" ref="Q6:Q10" si="4">$K$18+($K$19*G6)</f>
         <v>3.6686018133878582</v>
       </c>
-      <c r="N6" s="12">
-        <f t="shared" ref="N6:N10" si="5">G6-M6</f>
+      <c r="R6" s="12">
+        <f t="shared" ref="R6:R10" si="5">H6-Q6</f>
         <v>6.9067804895510232E-2</v>
       </c>
-      <c r="O6" s="12">
-        <f t="shared" ref="O6:O10" si="6">N6^2</f>
+      <c r="S6" s="12">
+        <f t="shared" ref="S6:S10" si="6">R6^2</f>
         <v>4.770361673084267E-3</v>
       </c>
-      <c r="P6" s="12">
-        <f t="shared" ref="P6:P10" si="7">J6^2</f>
+      <c r="T6" s="12">
+        <f t="shared" ref="T6:T10" si="7">K6^2</f>
         <v>5.9590707803303951E-2</v>
       </c>
-      <c r="R6" s="12">
-        <f>M6</f>
+      <c r="V6" s="12">
+        <f>R6</f>
+        <v>6.9067804895510232E-2</v>
+      </c>
+      <c r="W6" s="12">
+        <f>Q6</f>
         <v>3.6686018133878582</v>
       </c>
-      <c r="S6" s="12">
-        <f t="shared" ref="S6:S10" si="8">N6</f>
-        <v>6.9067804895510232E-2</v>
-      </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>37</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="F7" s="13">
+      <c r="E7" s="17"/>
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>2.7080502011022101</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H7" s="13">
         <f t="shared" si="1"/>
         <v>3.6109179126442243</v>
       </c>
-      <c r="H7" s="36">
-        <f>F7-$F$12</f>
+      <c r="I7" s="29">
+        <f>G7-$G$13</f>
         <v>2.0704199997592099E-3</v>
       </c>
-      <c r="I7" s="25">
-        <f>H7^2</f>
+      <c r="J7" s="25">
+        <f>I7^2</f>
         <v>4.286638975402927E-6</v>
       </c>
-      <c r="J7" s="36">
-        <f>G7-$G$12</f>
+      <c r="K7" s="29">
+        <f>H7-$H$13</f>
         <v>0.11736037477332539</v>
       </c>
-      <c r="K7" s="25">
+      <c r="L7" s="25">
         <f t="shared" si="3"/>
         <v>2.4298526710992915E-4</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="12">
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="13">
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="Q7" s="12">
         <f t="shared" si="4"/>
         <v>3.4926591245314147</v>
       </c>
-      <c r="N7" s="12">
+      <c r="R7" s="12">
         <f t="shared" si="5"/>
         <v>0.11825878811280965</v>
       </c>
-      <c r="O7" s="12">
+      <c r="S7" s="12">
         <f t="shared" si="6"/>
         <v>1.3985140965910411E-2</v>
       </c>
-      <c r="P7" s="12">
+      <c r="T7" s="12">
         <f t="shared" si="7"/>
         <v>1.3773457566935392E-2</v>
       </c>
-      <c r="R7" s="12">
-        <f>M7</f>
+      <c r="V7" s="12">
+        <f>R7</f>
+        <v>0.11825878811280965</v>
+      </c>
+      <c r="W7" s="12">
+        <f>Q7</f>
         <v>3.4926591245314147</v>
       </c>
-      <c r="S7" s="12">
-        <f t="shared" si="8"/>
-        <v>0.11825878811280965</v>
-      </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>30</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="F8" s="13">
+      <c r="E8" s="17"/>
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>2.9957322735539909</v>
       </c>
-      <c r="G8" s="13">
+      <c r="H8" s="13">
         <f t="shared" si="1"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="H8" s="36">
-        <f>F8-$F$12</f>
+      <c r="I8" s="29">
+        <f>G8-$G$13</f>
         <v>0.28975249245154</v>
       </c>
-      <c r="I8" s="25">
+      <c r="J8" s="25">
         <f t="shared" si="2"/>
         <v>8.395650688187975E-2</v>
       </c>
-      <c r="J8" s="36">
-        <f>G8-$G$12</f>
+      <c r="K8" s="29">
+        <f>H8-$H$13</f>
         <v>-9.2360156208743494E-2</v>
       </c>
-      <c r="K8" s="25">
+      <c r="L8" s="25">
         <f t="shared" si="3"/>
         <v>-2.6761585464697004E-2</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="12">
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="13">
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="Q8" s="12">
         <f t="shared" si="4"/>
         <v>3.3678258001570325</v>
       </c>
-      <c r="N8" s="12">
+      <c r="R8" s="12">
         <f t="shared" si="5"/>
         <v>3.3371581505122982E-2</v>
       </c>
-      <c r="O8" s="12">
+      <c r="S8" s="12">
         <f t="shared" si="6"/>
         <v>1.1136624521530664E-3</v>
       </c>
-      <c r="P8" s="12">
+      <c r="T8" s="12">
         <f t="shared" si="7"/>
         <v>8.5303984549035001E-3</v>
       </c>
-      <c r="R8" s="12">
-        <f>M8</f>
+      <c r="V8" s="12">
+        <f>R8</f>
+        <v>3.3371581505122982E-2</v>
+      </c>
+      <c r="W8" s="12">
+        <f>Q8</f>
         <v>3.3678258001570325</v>
       </c>
-      <c r="S8" s="12">
-        <f t="shared" si="8"/>
-        <v>3.3371581505122982E-2</v>
-      </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
         <v>25</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>27</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="F9" s="13">
+      <c r="E9" s="17"/>
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>3.2188758248682006</v>
       </c>
-      <c r="G9" s="13">
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>3.2958368660043291</v>
       </c>
-      <c r="H9" s="36">
-        <f>F9-$F$12</f>
+      <c r="I9" s="29">
+        <f>G9-$G$13</f>
         <v>0.51289604376574971</v>
       </c>
-      <c r="I9" s="25">
-        <f>H9^2</f>
+      <c r="J9" s="25">
+        <f>I9^2</f>
         <v>0.26306235171055786</v>
       </c>
-      <c r="J9" s="36">
-        <f>G9-$G$12</f>
+      <c r="K9" s="29">
+        <f>H9-$H$13</f>
         <v>-0.19772067186656983</v>
       </c>
-      <c r="K9" s="25">
+      <c r="L9" s="25">
         <f t="shared" si="3"/>
         <v>-0.10141015037106964</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="12">
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="13">
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="Q9" s="12">
         <f t="shared" si="4"/>
         <v>3.2709975512298168</v>
       </c>
-      <c r="N9" s="12">
+      <c r="R9" s="12">
         <f t="shared" si="5"/>
         <v>2.4839314774512289E-2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="S9" s="12">
         <f t="shared" si="6"/>
         <v>6.1699155846730452E-4</v>
       </c>
-      <c r="P9" s="12">
+      <c r="T9" s="12">
         <f t="shared" si="7"/>
         <v>3.9093464083367779E-2</v>
       </c>
-      <c r="R9" s="12">
-        <f>M9</f>
+      <c r="V9" s="12">
+        <f>R9</f>
+        <v>2.4839314774512289E-2</v>
+      </c>
+      <c r="W9" s="12">
+        <f>Q9</f>
         <v>3.2709975512298168</v>
       </c>
-      <c r="S9" s="12">
-        <f t="shared" si="8"/>
-        <v>2.4839314774512289E-2</v>
-      </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
         <v>30</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>21</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="F10" s="13">
+      <c r="E10" s="17"/>
+      <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>3.4011973816621555</v>
       </c>
-      <c r="G10" s="13">
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>3.044522437723423</v>
       </c>
-      <c r="H10" s="36">
-        <f>F10-$F$12</f>
+      <c r="I10" s="29">
+        <f>G10-$G$13</f>
         <v>0.69521760055970461</v>
       </c>
-      <c r="I10" s="25">
+      <c r="J10" s="25">
         <f t="shared" si="2"/>
         <v>0.48332751212799296</v>
       </c>
-      <c r="J10" s="36">
-        <f t="shared" ref="J6:J10" si="9">G10-$G$12</f>
+      <c r="K10" s="29">
+        <f>H10-$H$13</f>
         <v>-0.44903510014747594</v>
       </c>
-      <c r="K10" s="25">
+      <c r="L10" s="25">
         <f t="shared" si="3"/>
         <v>-0.31217710489161488</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="12">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="13">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="Q10" s="12">
         <f t="shared" si="4"/>
         <v>3.191883111300589</v>
       </c>
-      <c r="N10" s="12">
+      <c r="R10" s="12">
         <f t="shared" si="5"/>
         <v>-0.14736067357716598</v>
       </c>
-      <c r="O10" s="12">
+      <c r="S10" s="12">
         <f t="shared" si="6"/>
         <v>2.1715168117116063E-2</v>
       </c>
-      <c r="P10" s="12">
+      <c r="T10" s="12">
         <f t="shared" si="7"/>
         <v>0.20163252116445374</v>
       </c>
-      <c r="R10" s="12">
-        <f>M10</f>
+      <c r="V10" s="12">
+        <f>R10</f>
+        <v>-0.14736067357716598</v>
+      </c>
+      <c r="W10" s="12">
+        <f>Q10</f>
         <v>3.191883111300589</v>
       </c>
-      <c r="S10" s="12">
-        <f t="shared" si="8"/>
-        <v>-0.14736067357716598</v>
-      </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="F11" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="52">
+        <f>SUM(G5:G10)</f>
+        <v>16.235878686614704</v>
+      </c>
+      <c r="H11" s="53">
+        <f>SUM(H5:H10)</f>
+        <v>20.961345227225394</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="54">
+        <f>SUM(J5:J10)</f>
+        <v>2.1954820014961616</v>
+      </c>
+      <c r="K11" s="50"/>
+      <c r="L11" s="54">
+        <f>SUM(L5:L10)</f>
+        <v>-0.9526812516161427</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="P11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="57">
+        <f>SUM(S5:S10)</f>
+        <v>5.1840011909842068E-2</v>
+      </c>
+      <c r="T11" s="57">
+        <f>SUM(T5:T10)</f>
+        <v>0.46523514180040582</v>
+      </c>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="21">
-        <f>AVERAGE(F5:F10)</f>
-        <v>2.7059797811024509</v>
-      </c>
-      <c r="G12" s="21">
-        <f>AVERAGE(G5:G10)</f>
-        <v>3.493557537870899</v>
-      </c>
-      <c r="I12" s="23">
-        <f>SUM(I5:I10)</f>
-        <v>2.1954820014961616</v>
-      </c>
-      <c r="K12" s="23">
-        <f>SUM(K5:K10)</f>
-        <v>-0.9526812516161427</v>
-      </c>
-      <c r="O12" s="31">
-        <f>SUM(O5:O10)</f>
-        <v>5.1840011909842068E-2</v>
-      </c>
-      <c r="P12" s="31">
-        <f>SUM(P5:P10)</f>
-        <v>0.46523514180040582</v>
+      <c r="E12" s="2"/>
+      <c r="F12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="51">
+        <f>AVERAGE(G5:G10)</f>
+        <v>2.7059797811024509</v>
+      </c>
+      <c r="H13" s="51">
+        <f>AVERAGE(H5:H10)</f>
+        <v>3.493557537870899</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="25">
+        <f>L11/J11</f>
+        <v>-0.43392806270646544</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="28"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="Q14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="58">
+        <f>1-(S11/T11)</f>
+        <v>0.88857245024692832</v>
+      </c>
+      <c r="S14" s="59"/>
+      <c r="T14" s="28"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="22">
+        <f>G11/COUNT(G5:G10)</f>
+        <v>2.7059797811024509</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20.961345227225394</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="22"/>
+      <c r="J17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="25">
+        <f>H13-(K13*G13)</f>
+        <v>4.6677581020075509</v>
+      </c>
+      <c r="P17" s="21">
+        <f>SUM(P5:P10)</f>
+        <v>20.961345227225394</v>
+      </c>
+      <c r="Q17" s="53">
+        <f>SUM(Q5:Q10)</f>
+        <v>20.961345227225394</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="25">
-        <f>G12-(J15*F12)</f>
+      <c r="J18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="25">
+        <f>H13-(K19*G13)</f>
         <v>4.6677581020075509</v>
       </c>
+      <c r="P18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="F15" s="15" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="G19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="16">
+      <c r="H19" s="16">
         <v>1</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="25">
-        <f>K12/I12</f>
+      <c r="J19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="25">
+        <f>L11/J11</f>
         <v>-0.43392806270646544</v>
       </c>
+      <c r="P19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19" s="51">
+        <f>AVERAGE(Q5:Q10)</f>
+        <v>3.493557537870899</v>
+      </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C20" s="16">
         <v>1</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="F16" s="15" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="G20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="16">
+      <c r="H20" s="16">
         <v>1</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="25">
-        <f>1-(O12/P12)</f>
-        <v>0.88857245024692832</v>
-      </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C21" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="F17" s="15" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="16">
+      <c r="H21" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="F18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="16">
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="16">
-        <v>2</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="16">
         <v>1</v>
       </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="16">
-        <v>2</v>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="16">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="16">
         <v>1</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C26" s="16">
         <v>1</v>
       </c>
+      <c r="G26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C31" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="28"/>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="9">
         <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="2">
-        <f>C48-2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="E50" s="33">
-        <f>O12</f>
-        <v>5.1840011909842068E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="E51" s="34">
-        <f xml:space="preserve"> (E50/C49)^0.5</f>
-        <v>0.11384200884322324</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="B53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="9">
+        <f>E52-2</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="26">
-        <f xml:space="preserve"> J15</f>
-        <v>-0.43392806270646544</v>
+    <row r="54" spans="2:6" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="65">
+        <f>S11</f>
+        <v>5.1840011909842068E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="26">
-        <f>I12^0.5</f>
-        <v>1.4817158976997451</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>59</v>
+    <row r="55" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="66">
+        <f xml:space="preserve"> (E54/E53)^0.5</f>
+        <v>0.11384200884322324</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="26">
-        <f>E51/C55</f>
-        <v>7.6831198895790057E-2</v>
-      </c>
+    <row r="56" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="68"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="26">
-        <f>C54/C56</f>
-        <v>-5.6478106412867968</v>
-      </c>
+      <c r="B57" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="35">
-        <f>2 * _xlfn.T.DIST(-ABS(C57), 4, TRUE)</f>
-        <v>4.8406901409699015E-3</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>63</v>
+      <c r="B58" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="62"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="12">
+        <f xml:space="preserve"> K19</f>
+        <v>-0.43392806270646544</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="12">
+        <f>J11^0.5</f>
+        <v>1.4817158976997451</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="41">
+      <c r="B60" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="12">
+        <f>E55/E59</f>
+        <v>7.6831198895790057E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="12">
+        <f>E58/E60</f>
+        <v>-5.6478106412867968</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="62"/>
+      <c r="D62" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="63">
+        <f>2 * _xlfn.T.DIST(-ABS(E61), 4, TRUE)</f>
+        <v>4.8406901409699015E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="67">
         <f>1-0.995</f>
         <v>5.0000000000000044E-3</v>
       </c>
+      <c r="F63" s="64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="64">
+        <f>1-0.995</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="9">
+        <v>5</v>
+      </c>
+      <c r="C78" s="9">
+        <v>48</v>
+      </c>
+      <c r="D78" s="13">
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13">
+        <v>3.8712010109078911</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="9">
+        <v>10</v>
+      </c>
+      <c r="C79" s="9">
+        <v>42</v>
+      </c>
+      <c r="D79" s="13">
+        <v>2.3025850929940459</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13">
+        <v>3.7376696182833684</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="9">
+        <v>15</v>
+      </c>
+      <c r="C80" s="9">
+        <v>37</v>
+      </c>
+      <c r="D80" s="13">
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13">
+        <v>3.6109179126442243</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B81" s="9">
+        <v>20</v>
+      </c>
+      <c r="C81" s="9">
+        <v>30</v>
+      </c>
+      <c r="D81" s="13">
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13">
+        <v>3.4011973816621555</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B82" s="9">
+        <v>25</v>
+      </c>
+      <c r="C82" s="9">
+        <v>27</v>
+      </c>
+      <c r="D82" s="13">
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13">
+        <v>3.2958368660043291</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B83" s="9">
+        <v>30</v>
+      </c>
+      <c r="C83" s="9">
+        <v>21</v>
+      </c>
+      <c r="D83" s="13">
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13">
+        <v>3.044522437723423</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="R3:S3"/>
+  <mergeCells count="22">
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Part 2 & 4 - Smoothing & Regression.xlsx
+++ b/Part 2 & 4 - Smoothing & Regression.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025 MEng Transportation\SHC-798-DA-SLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60397B8A-05DE-463B-BECE-266BD55DD75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36CC77A-5FF3-474F-ACF3-6A6238F2BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9D3958F0-25F4-47E3-8E6B-D1F8EE350FB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{9D3958F0-25F4-47E3-8E6B-D1F8EE350FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Qn. 2. Smoothing" sheetId="2" r:id="rId1"/>
     <sheet name="Qn. 4 Regression" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Qn. 2. Smoothing'!$K$8:$K$20</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Qn. 2. Smoothing'!$M$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Qn. 2. Smoothing'!$M$8:$M$20</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -446,11 +441,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -607,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -636,19 +631,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -657,49 +649,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -714,100 +691,58 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -819,7 +754,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8534,10 +8514,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8857,8 +8833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BBA91C-9C3F-4CE9-B728-30DFF26DDA3E}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N2" zoomScale="97" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="97" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8894,7 +8870,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="35" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="9">
@@ -8923,36 +8899,36 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="35" t="s">
         <v>57</v>
       </c>
       <c r="P4" s="9">
         <f>2*P3^2</f>
         <v>8</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="J5" s="48" t="s">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="J5" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="44"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="9" t="s">
         <v>69</v>
       </c>
@@ -8961,34 +8937,34 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="J6" s="40" t="s">
+      <c r="H6" s="55"/>
+      <c r="J6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="45"/>
-      <c r="T6" s="35">
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="34"/>
+      <c r="T6" s="29">
         <v>0.25</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="29">
         <v>0.29166666666666669</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Z6" s="35">
+      <c r="Z6" s="29">
         <v>0.375</v>
       </c>
-      <c r="AB6" s="35">
+      <c r="AB6" s="29">
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -8999,19 +8975,19 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="K7" s="9" t="s">
@@ -9020,62 +8996,61 @@
       <c r="L7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AA7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="AB7" s="11" t="s">
+      <c r="AB7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AC7" s="11" t="s">
+      <c r="AC7" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="33">
+      <c r="A8" s="22"/>
+      <c r="B8" s="27">
         <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>200</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="32">
         <v>0.25</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="28">
         <v>6</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -9084,1094 +9059,1094 @@
       <c r="H8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="32">
         <v>0.25</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="28">
         <v>6</v>
       </c>
       <c r="L8" s="9">
         <v>200</v>
       </c>
-      <c r="M8" s="13" cm="1">
+      <c r="M8" s="12" cm="1">
         <f t="array" ref="M8">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K8)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K8)^2/(2*2^2)))))</f>
         <v>338.0664762732502</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="Q8" s="38">
+      <c r="N8" s="18"/>
+      <c r="Q8" s="32">
         <v>0.25</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="28">
         <v>6</v>
       </c>
       <c r="S8" s="9">
         <v>200</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="24">
         <f>EXP((0-($R$8-R8)^2/$P$4))</f>
         <v>1</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="24">
         <f>T8*S8</f>
         <v>200</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="24">
         <f>EXP((0-($R$9-R8)^2/$P$4))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="24">
         <f>V8*S8</f>
         <v>176.4993805169191</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="24">
         <f>EXP((0-($R$10-R8)^2/$P$4))</f>
         <v>0.60653065971263342</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="24">
         <f>X8*S8</f>
         <v>121.30613194252669</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="24">
         <f>EXP((0-($R$11-R8)^2/$P$4))</f>
         <v>0.32465246735834974</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="24">
         <f>Z8*S8</f>
         <v>64.930493471669948</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="24">
         <f>EXP((0-($R$12-R8)^2/$P$4))</f>
         <v>0.1353352832366127</v>
       </c>
-      <c r="AC8" s="29">
+      <c r="AC8" s="24">
         <f>AB8*S8</f>
         <v>27.067056647322541</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="A9" s="26">
         <f t="shared" ref="A9:A13" si="0">B10-B9</f>
         <v>1</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="27">
         <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>350</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="28">
         <v>7</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="14">
-        <f>(C8+C9+C10)/3</f>
+      <c r="H9" s="13">
+        <f t="shared" ref="H9:H19" si="1">(C8+C9+C10)/3</f>
         <v>350</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="28">
         <v>7</v>
       </c>
       <c r="L9" s="9">
         <v>350</v>
       </c>
-      <c r="M9" s="13" cm="1">
+      <c r="M9" s="12" cm="1">
         <f t="array" ref="M9">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K9)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K9)^2/(2*2^2)))))</f>
         <v>360.09052204088266</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="1">
         <f>(1/(2*SQRT(2*PI())))</f>
         <v>0.19947114020071635</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="32">
         <v>0.29166666666666669</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="28">
         <v>7</v>
       </c>
       <c r="S9" s="9">
         <v>350</v>
       </c>
-      <c r="T9" s="29">
-        <f t="shared" ref="T9:T20" si="1">EXP((0-($R$8-R9)^2/$P$4))</f>
+      <c r="T9" s="24">
+        <f t="shared" ref="T9:T20" si="2">EXP((0-($R$8-R9)^2/$P$4))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="U9" s="29">
-        <f t="shared" ref="U9:U20" si="2">T9*S9</f>
+      <c r="U9" s="24">
+        <f t="shared" ref="U9:U20" si="3">T9*S9</f>
         <v>308.8739159046084</v>
       </c>
-      <c r="V9" s="29">
-        <f t="shared" ref="V9:V20" si="3">EXP((0-($R$9-R9)^2/$P$4))</f>
+      <c r="V9" s="24">
+        <f t="shared" ref="V9:V20" si="4">EXP((0-($R$9-R9)^2/$P$4))</f>
         <v>1</v>
       </c>
-      <c r="W9" s="29">
-        <f t="shared" ref="W9:W20" si="4">V9*S9</f>
+      <c r="W9" s="24">
+        <f t="shared" ref="W9:W20" si="5">V9*S9</f>
         <v>350</v>
       </c>
-      <c r="X9" s="29">
-        <f t="shared" ref="X9:X20" si="5">EXP((0-($R$10-R9)^2/$P$4))</f>
+      <c r="X9" s="24">
+        <f t="shared" ref="X9:X20" si="6">EXP((0-($R$10-R9)^2/$P$4))</f>
         <v>0.88249690258459546</v>
       </c>
-      <c r="Y9" s="29">
-        <f t="shared" ref="Y9:Y20" si="6">X9*S9</f>
+      <c r="Y9" s="24">
+        <f t="shared" ref="Y9:Y20" si="7">X9*S9</f>
         <v>308.8739159046084</v>
       </c>
-      <c r="Z9" s="29">
-        <f t="shared" ref="Z9:Z20" si="7">EXP((0-($R$11-R9)^2/$P$4))</f>
+      <c r="Z9" s="24">
+        <f t="shared" ref="Z9:Z20" si="8">EXP((0-($R$11-R9)^2/$P$4))</f>
         <v>0.60653065971263342</v>
       </c>
-      <c r="AA9" s="29">
-        <f t="shared" ref="AA9:AA20" si="8">Z9*S9</f>
+      <c r="AA9" s="24">
+        <f t="shared" ref="AA9:AA20" si="9">Z9*S9</f>
         <v>212.28573089942171</v>
       </c>
-      <c r="AB9" s="29">
-        <f t="shared" ref="AB9:AB20" si="9">EXP((0-($R$12-R9)^2/$P$4))</f>
+      <c r="AB9" s="24">
+        <f t="shared" ref="AB9:AB20" si="10">EXP((0-($R$12-R9)^2/$P$4))</f>
         <v>0.32465246735834974</v>
       </c>
-      <c r="AC9" s="29">
-        <f t="shared" ref="AC9:AC20" si="10">AB9*S9</f>
+      <c r="AC9" s="24">
+        <f t="shared" ref="AC9:AC20" si="11">AB9*S9</f>
         <v>113.62836357542241</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="A10" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="27">
         <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>500</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="28">
         <v>8</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="14">
-        <f>(C9+C10+C11)/3</f>
+      <c r="H10" s="13">
+        <f t="shared" si="1"/>
         <v>423.33333333333331</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="28">
         <v>8</v>
       </c>
       <c r="L10" s="9">
         <v>500</v>
       </c>
-      <c r="M10" s="13" cm="1">
+      <c r="M10" s="12" cm="1">
         <f t="array" ref="M10">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K10)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K10)^2/(2*2^2)))))</f>
         <v>372.62615402646583</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="Q10" s="38">
+      <c r="N10" s="18"/>
+      <c r="Q10" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="28">
         <v>8</v>
       </c>
       <c r="S10" s="9">
         <v>500</v>
       </c>
-      <c r="T10" s="29">
-        <f t="shared" si="1"/>
+      <c r="T10" s="24">
+        <f t="shared" si="2"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="U10" s="29">
-        <f t="shared" si="2"/>
+      <c r="U10" s="24">
+        <f t="shared" si="3"/>
         <v>303.26532985631673</v>
       </c>
-      <c r="V10" s="29">
-        <f t="shared" si="3"/>
+      <c r="V10" s="24">
+        <f t="shared" si="4"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="W10" s="29">
-        <f t="shared" si="4"/>
+      <c r="W10" s="24">
+        <f t="shared" si="5"/>
         <v>441.24845129229772</v>
       </c>
-      <c r="X10" s="29">
-        <f t="shared" si="5"/>
+      <c r="X10" s="24">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y10" s="24">
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
-      <c r="Z10" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z10" s="24">
+        <f t="shared" si="8"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AA10" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA10" s="24">
+        <f t="shared" si="9"/>
         <v>441.24845129229772</v>
       </c>
-      <c r="AB10" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB10" s="24">
+        <f t="shared" si="10"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="AC10" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC10" s="24">
+        <f t="shared" si="11"/>
         <v>303.26532985631673</v>
       </c>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+      <c r="A11" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="27">
         <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>420</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="32">
         <v>0.375</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="28">
         <v>9</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="14">
-        <f>(C10+C11+C12)/3</f>
+      <c r="H11" s="13">
+        <f t="shared" si="1"/>
         <v>433.33333333333331</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="32">
         <v>0.375</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="28">
         <v>9</v>
       </c>
       <c r="L11" s="9">
         <v>420</v>
       </c>
-      <c r="M11" s="13" cm="1">
+      <c r="M11" s="12" cm="1">
         <f t="array" ref="M11">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K11)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K11)^2/(2*2^2)))))</f>
         <v>369.20719394879319</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="Q11" s="38">
+      <c r="N11" s="18"/>
+      <c r="Q11" s="32">
         <v>0.375</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="28">
         <v>9</v>
       </c>
       <c r="S11" s="9">
         <v>420</v>
       </c>
-      <c r="T11" s="29">
-        <f t="shared" si="1"/>
+      <c r="T11" s="24">
+        <f t="shared" si="2"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="U11" s="29">
-        <f t="shared" si="2"/>
+      <c r="U11" s="24">
+        <f t="shared" si="3"/>
         <v>136.35403629050688</v>
       </c>
-      <c r="V11" s="29">
-        <f t="shared" si="3"/>
+      <c r="V11" s="24">
+        <f t="shared" si="4"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="W11" s="29">
-        <f t="shared" si="4"/>
+      <c r="W11" s="24">
+        <f t="shared" si="5"/>
         <v>254.74287707930603</v>
       </c>
-      <c r="X11" s="29">
-        <f t="shared" si="5"/>
+      <c r="X11" s="24">
+        <f t="shared" si="6"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="Y11" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y11" s="24">
+        <f t="shared" si="7"/>
         <v>370.6486990855301</v>
       </c>
-      <c r="Z11" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z11" s="24">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AA11" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA11" s="24">
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
-      <c r="AB11" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB11" s="24">
+        <f t="shared" si="10"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AC11" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC11" s="24">
+        <f t="shared" si="11"/>
         <v>370.6486990855301</v>
       </c>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="27">
         <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>380</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="32">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="28">
         <v>10</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="14">
-        <f>(C11+C12+C13)/3</f>
+      <c r="H12" s="13">
+        <f t="shared" si="1"/>
         <v>366.66666666666669</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="32">
         <v>0.41666666666666669</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="28">
         <v>10</v>
       </c>
       <c r="L12" s="9">
         <v>380</v>
       </c>
-      <c r="M12" s="13" cm="1">
+      <c r="M12" s="12" cm="1">
         <f t="array" ref="M12">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K12)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K12)^2/(2*2^2)))))</f>
         <v>348.62222394626411</v>
       </c>
-      <c r="N12" s="30"/>
-      <c r="Q12" s="38">
+      <c r="N12" s="18"/>
+      <c r="Q12" s="32">
         <v>0.41666666666666669</v>
       </c>
-      <c r="R12" s="34">
+      <c r="R12" s="28">
         <v>10</v>
       </c>
       <c r="S12" s="9">
         <v>380</v>
       </c>
-      <c r="T12" s="29">
-        <f t="shared" si="1"/>
+      <c r="T12" s="24">
+        <f t="shared" si="2"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="U12" s="29">
-        <f t="shared" si="2"/>
+      <c r="U12" s="24">
+        <f t="shared" si="3"/>
         <v>51.427407629912828</v>
       </c>
-      <c r="V12" s="29">
-        <f t="shared" si="3"/>
+      <c r="V12" s="24">
+        <f t="shared" si="4"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="W12" s="29">
-        <f t="shared" si="4"/>
+      <c r="W12" s="24">
+        <f t="shared" si="5"/>
         <v>123.36793759617291</v>
       </c>
-      <c r="X12" s="29">
-        <f t="shared" si="5"/>
+      <c r="X12" s="24">
+        <f t="shared" si="6"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="Y12" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y12" s="24">
+        <f t="shared" si="7"/>
         <v>230.48165069080071</v>
       </c>
-      <c r="Z12" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z12" s="24">
+        <f t="shared" si="8"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AA12" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA12" s="24">
+        <f t="shared" si="9"/>
         <v>335.34882298214626</v>
       </c>
-      <c r="AB12" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB12" s="24">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AC12" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC12" s="24">
+        <f t="shared" si="11"/>
         <v>380</v>
       </c>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+      <c r="A13" s="26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="27">
         <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>300</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="32">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="28">
         <v>11</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="14">
-        <f>(C12+C13+C14)/3</f>
+      <c r="H13" s="13">
+        <f t="shared" si="1"/>
         <v>310</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="32">
         <v>0.45833333333333331</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="28">
         <v>11</v>
       </c>
       <c r="L13" s="9">
         <v>300</v>
       </c>
-      <c r="M13" s="13" cm="1">
+      <c r="M13" s="12" cm="1">
         <f t="array" ref="M13">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K13)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K13)^2/(2*2^2)))))</f>
         <v>318.14188617728212</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="Q13" s="38">
+      <c r="N13" s="18"/>
+      <c r="Q13" s="32">
         <v>0.45833333333333331</v>
       </c>
-      <c r="R13" s="34">
+      <c r="R13" s="28">
         <v>11</v>
       </c>
       <c r="S13" s="9">
         <v>300</v>
       </c>
-      <c r="T13" s="29">
-        <f t="shared" si="1"/>
+      <c r="T13" s="24">
+        <f t="shared" si="2"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="U13" s="29">
-        <f t="shared" si="2"/>
+      <c r="U13" s="24">
+        <f t="shared" si="3"/>
         <v>13.181080087022226</v>
       </c>
-      <c r="V13" s="29">
-        <f t="shared" si="3"/>
+      <c r="V13" s="24">
+        <f t="shared" si="4"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="W13" s="29">
-        <f t="shared" si="4"/>
+      <c r="W13" s="24">
+        <f t="shared" si="5"/>
         <v>40.60058497098381</v>
       </c>
-      <c r="X13" s="29">
-        <f t="shared" si="5"/>
+      <c r="X13" s="24">
+        <f t="shared" si="6"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="Y13" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y13" s="24">
+        <f t="shared" si="7"/>
         <v>97.395740207504929</v>
       </c>
-      <c r="Z13" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z13" s="24">
+        <f t="shared" si="8"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="AA13" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA13" s="24">
+        <f t="shared" si="9"/>
         <v>181.95919791379004</v>
       </c>
-      <c r="AB13" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB13" s="24">
+        <f t="shared" si="10"/>
         <v>0.88249690258459546</v>
       </c>
-      <c r="AC13" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC13" s="24">
+        <f t="shared" si="11"/>
         <v>264.74907077537864</v>
       </c>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B14" s="33">
+      <c r="B14" s="27">
         <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>250</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="32">
         <v>0.5</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="28">
         <v>12</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="14">
-        <f>(C13+C14+C15)/3</f>
+      <c r="H14" s="13">
+        <f t="shared" si="1"/>
         <v>256.66666666666669</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="32">
         <v>0.5</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="28">
         <v>12</v>
       </c>
       <c r="L14" s="9">
         <v>250</v>
       </c>
-      <c r="M14" s="13" cm="1">
+      <c r="M14" s="12" cm="1">
         <f t="array" ref="M14">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K14)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K14)^2/(2*2^2)))))</f>
         <v>291.16202640364514</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="Q14" s="38">
+      <c r="N14" s="18"/>
+      <c r="Q14" s="32">
         <v>0.5</v>
       </c>
-      <c r="R14" s="34">
+      <c r="R14" s="28">
         <v>12</v>
       </c>
       <c r="S14" s="9">
         <v>250</v>
       </c>
-      <c r="T14" s="29">
-        <f t="shared" si="1"/>
+      <c r="T14" s="24">
+        <f t="shared" si="2"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="U14" s="29">
-        <f t="shared" si="2"/>
+      <c r="U14" s="24">
+        <f t="shared" si="3"/>
         <v>2.7772491345605763</v>
       </c>
-      <c r="V14" s="29">
-        <f t="shared" si="3"/>
+      <c r="V14" s="24">
+        <f t="shared" si="4"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="W14" s="29">
-        <f t="shared" si="4"/>
+      <c r="W14" s="24">
+        <f t="shared" si="5"/>
         <v>10.984233405851855</v>
       </c>
-      <c r="X14" s="29">
-        <f t="shared" si="5"/>
+      <c r="X14" s="24">
+        <f t="shared" si="6"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="Y14" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y14" s="24">
+        <f t="shared" si="7"/>
         <v>33.833820809153174</v>
       </c>
-      <c r="Z14" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z14" s="24">
+        <f t="shared" si="8"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="AA14" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA14" s="24">
+        <f t="shared" si="9"/>
         <v>81.163116839587431</v>
       </c>
-      <c r="AB14" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB14" s="24">
+        <f t="shared" si="10"/>
         <v>0.60653065971263342</v>
       </c>
-      <c r="AC14" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC14" s="24">
+        <f t="shared" si="11"/>
         <v>151.63266492815836</v>
       </c>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B15" s="33">
+      <c r="B15" s="27">
         <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>220</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="32">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="28">
         <v>13</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="14">
-        <f>(C14+C15+C16)/3</f>
+      <c r="H15" s="13">
+        <f t="shared" si="1"/>
         <v>223.33333333333334</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="32">
         <v>0.54166666666666663</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="28">
         <v>13</v>
       </c>
       <c r="L15" s="9">
         <v>220</v>
       </c>
-      <c r="M15" s="13" cm="1">
+      <c r="M15" s="12" cm="1">
         <f t="array" ref="M15">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K15)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K15)^2/(2*2^2)))))</f>
         <v>281.25930873853201</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="Q15" s="38">
+      <c r="N15" s="18"/>
+      <c r="Q15" s="32">
         <v>0.54166666666666663</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="28">
         <v>13</v>
       </c>
       <c r="S15" s="9">
         <v>220</v>
       </c>
-      <c r="T15" s="29">
-        <f t="shared" si="1"/>
+      <c r="T15" s="24">
+        <f t="shared" si="2"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="U15" s="29">
-        <f t="shared" si="2"/>
+      <c r="U15" s="24">
+        <f t="shared" si="3"/>
         <v>0.48124804600023474</v>
       </c>
-      <c r="V15" s="29">
-        <f t="shared" si="3"/>
+      <c r="V15" s="24">
+        <f t="shared" si="4"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="W15" s="29">
-        <f t="shared" si="4"/>
+      <c r="W15" s="24">
+        <f t="shared" si="5"/>
         <v>2.4439792384133074</v>
       </c>
-      <c r="X15" s="29">
-        <f t="shared" si="5"/>
+      <c r="X15" s="24">
+        <f t="shared" si="6"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="Y15" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y15" s="24">
+        <f t="shared" si="7"/>
         <v>9.6661253971496333</v>
       </c>
-      <c r="Z15" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z15" s="24">
+        <f t="shared" si="8"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="AA15" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA15" s="24">
+        <f t="shared" si="9"/>
         <v>29.773762312054796</v>
       </c>
-      <c r="AB15" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB15" s="24">
+        <f t="shared" si="10"/>
         <v>0.32465246735834974</v>
       </c>
-      <c r="AC15" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC15" s="24">
+        <f t="shared" si="11"/>
         <v>71.42354281883695</v>
       </c>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B16" s="33">
+      <c r="B16" s="27">
         <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>200</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="32">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="28">
         <v>14</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="14">
-        <f>(C15+C16+C17)/3</f>
+      <c r="H16" s="13">
+        <f t="shared" si="1"/>
         <v>233.33333333333334</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="32">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="28">
         <v>14</v>
       </c>
       <c r="L16" s="9">
         <v>200</v>
       </c>
-      <c r="M16" s="13" cm="1">
+      <c r="M16" s="12" cm="1">
         <f t="array" ref="M16">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K16)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K16)^2/(2*2^2)))))</f>
         <v>296.41565604060395</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="Q16" s="38">
+      <c r="N16" s="18"/>
+      <c r="Q16" s="32">
         <v>0.58333333333333337</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="28">
         <v>14</v>
       </c>
       <c r="S16" s="9">
         <v>200</v>
       </c>
-      <c r="T16" s="29">
-        <f t="shared" si="1"/>
+      <c r="T16" s="24">
+        <f t="shared" si="2"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="U16" s="29">
-        <f t="shared" si="2"/>
+      <c r="U16" s="24">
+        <f t="shared" si="3"/>
         <v>6.7092525580502368E-2</v>
       </c>
-      <c r="V16" s="29">
-        <f t="shared" si="3"/>
+      <c r="V16" s="24">
+        <f t="shared" si="4"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="W16" s="29">
-        <f t="shared" si="4"/>
+      <c r="W16" s="24">
+        <f t="shared" si="5"/>
         <v>0.43749822363657703</v>
       </c>
-      <c r="X16" s="29">
-        <f t="shared" si="5"/>
+      <c r="X16" s="24">
+        <f t="shared" si="6"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="Y16" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y16" s="24">
+        <f t="shared" si="7"/>
         <v>2.2217993076484612</v>
       </c>
-      <c r="Z16" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z16" s="24">
+        <f t="shared" si="8"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="AA16" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA16" s="24">
+        <f t="shared" si="9"/>
         <v>8.7873867246814843</v>
       </c>
-      <c r="AB16" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB16" s="24">
+        <f t="shared" si="10"/>
         <v>0.1353352832366127</v>
       </c>
-      <c r="AC16" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC16" s="24">
+        <f t="shared" si="11"/>
         <v>27.067056647322541</v>
       </c>
-      <c r="AE16" s="20"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B17" s="33">
+      <c r="B17" s="27">
         <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>280</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="32">
         <v>0.625</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="28">
         <v>15</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="14">
-        <f>(C16+C17+C18)/3</f>
+      <c r="H17" s="13">
+        <f t="shared" si="1"/>
         <v>293.33333333333331</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="32">
         <v>0.625</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="28">
         <v>15</v>
       </c>
       <c r="L17" s="9">
         <v>280</v>
       </c>
-      <c r="M17" s="13" cm="1">
+      <c r="M17" s="12" cm="1">
         <f t="array" ref="M17">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K17)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K17)^2/(2*2^2)))))</f>
         <v>335.17861483985797</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="32">
         <v>0.625</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="28">
         <v>15</v>
       </c>
       <c r="S17" s="9">
         <v>280</v>
       </c>
-      <c r="T17" s="29">
-        <f t="shared" si="1"/>
+      <c r="T17" s="24">
+        <f t="shared" si="2"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="U17" s="29">
-        <f t="shared" si="2"/>
+      <c r="U17" s="24">
+        <f t="shared" si="3"/>
         <v>1.1218283270026299E-2</v>
       </c>
-      <c r="V17" s="29">
-        <f t="shared" si="3"/>
+      <c r="V17" s="24">
+        <f t="shared" si="4"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="W17" s="29">
-        <f t="shared" si="4"/>
+      <c r="W17" s="24">
+        <f t="shared" si="5"/>
         <v>9.3929535812703316E-2</v>
       </c>
-      <c r="X17" s="29">
-        <f t="shared" si="5"/>
+      <c r="X17" s="24">
+        <f t="shared" si="6"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="Y17" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y17" s="24">
+        <f t="shared" si="7"/>
         <v>0.61249751309120781</v>
       </c>
-      <c r="Z17" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z17" s="24">
+        <f t="shared" si="8"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="AA17" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA17" s="24">
+        <f t="shared" si="9"/>
         <v>3.1105190307078456</v>
       </c>
-      <c r="AB17" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB17" s="24">
+        <f t="shared" si="10"/>
         <v>4.393693362340742E-2</v>
       </c>
-      <c r="AC17" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC17" s="24">
+        <f t="shared" si="11"/>
         <v>12.302341414554078</v>
       </c>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B18" s="33">
+      <c r="B18" s="27">
         <v>16</v>
       </c>
       <c r="C18" s="2">
         <v>400</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="28">
         <v>16</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="14">
-        <f>(C17+C18+C19)/3</f>
+      <c r="H18" s="13">
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="28">
         <v>16</v>
       </c>
       <c r="L18" s="9">
         <v>400</v>
       </c>
-      <c r="M18" s="13" cm="1">
+      <c r="M18" s="12" cm="1">
         <f t="array" ref="M18">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K18)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K18)^2/(2*2^2)))))</f>
         <v>387.36465579026088</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="Q18" s="38">
+      <c r="N18" s="18"/>
+      <c r="Q18" s="32">
         <v>0.66666666666666663</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="28">
         <v>16</v>
       </c>
       <c r="S18" s="9">
         <v>400</v>
       </c>
-      <c r="T18" s="29">
-        <f t="shared" si="1"/>
+      <c r="T18" s="24">
+        <f t="shared" si="2"/>
         <v>3.7266531720786709E-6</v>
       </c>
-      <c r="U18" s="29">
-        <f t="shared" si="2"/>
+      <c r="U18" s="24">
+        <f t="shared" si="3"/>
         <v>1.4906612688314683E-3</v>
       </c>
-      <c r="V18" s="29">
-        <f t="shared" si="3"/>
+      <c r="V18" s="24">
+        <f t="shared" si="4"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="W18" s="29">
-        <f t="shared" si="4"/>
+      <c r="W18" s="24">
+        <f t="shared" si="5"/>
         <v>1.6026118957180428E-2</v>
       </c>
-      <c r="X18" s="29">
-        <f t="shared" si="5"/>
+      <c r="X18" s="24">
+        <f t="shared" si="6"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="Y18" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y18" s="24">
+        <f t="shared" si="7"/>
         <v>0.13418505116100474</v>
       </c>
-      <c r="Z18" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z18" s="24">
+        <f t="shared" si="8"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="AA18" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA18" s="24">
+        <f t="shared" si="9"/>
         <v>0.87499644727315407</v>
       </c>
-      <c r="AB18" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB18" s="24">
+        <f t="shared" si="10"/>
         <v>1.1108996538242306E-2</v>
       </c>
-      <c r="AC18" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC18" s="24">
+        <f t="shared" si="11"/>
         <v>4.4435986152969225</v>
       </c>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B19" s="33">
+      <c r="B19" s="27">
         <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>550</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="28">
         <v>17</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="14">
-        <f>(C18+C19+C20)/3</f>
+      <c r="H19" s="13">
+        <f t="shared" si="1"/>
         <v>516.66666666666663</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="28">
         <v>17</v>
       </c>
       <c r="L19" s="9">
         <v>550</v>
       </c>
-      <c r="M19" s="13" cm="1">
+      <c r="M19" s="12" cm="1">
         <f t="array" ref="M19">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K19)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K19)^2/(2*2^2)))))</f>
         <v>440.28930320756791</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="Q19" s="38">
+      <c r="N19" s="18"/>
+      <c r="Q19" s="32">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="28">
         <v>17</v>
       </c>
       <c r="S19" s="9">
         <v>550</v>
       </c>
-      <c r="T19" s="29">
-        <f t="shared" si="1"/>
+      <c r="T19" s="24">
+        <f t="shared" si="2"/>
         <v>2.6995785033630141E-7</v>
       </c>
-      <c r="U19" s="29">
-        <f t="shared" si="2"/>
+      <c r="U19" s="24">
+        <f t="shared" si="3"/>
         <v>1.4847681768496578E-4</v>
       </c>
-      <c r="V19" s="29">
-        <f t="shared" si="3"/>
+      <c r="V19" s="24">
+        <f t="shared" si="4"/>
         <v>3.7266531720786709E-6</v>
       </c>
-      <c r="W19" s="29">
-        <f t="shared" si="4"/>
+      <c r="W19" s="24">
+        <f t="shared" si="5"/>
         <v>2.0496592446432689E-3</v>
       </c>
-      <c r="X19" s="29">
-        <f t="shared" si="5"/>
+      <c r="X19" s="24">
+        <f t="shared" si="6"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="Y19" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y19" s="24">
+        <f t="shared" si="7"/>
         <v>2.2035913566123087E-2</v>
       </c>
-      <c r="Z19" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z19" s="24">
+        <f t="shared" si="8"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="AA19" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA19" s="24">
+        <f t="shared" si="9"/>
         <v>0.18450444534638152</v>
       </c>
-      <c r="AB19" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB19" s="24">
+        <f t="shared" si="10"/>
         <v>2.1874911181828851E-3</v>
       </c>
-      <c r="AC19" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC19" s="24">
+        <f t="shared" si="11"/>
         <v>1.2031201150005868</v>
       </c>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="B20" s="33">
+      <c r="B20" s="27">
         <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>600</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="32">
         <v>0.75</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="28">
         <v>18</v>
       </c>
       <c r="G20" s="9" t="s">
@@ -10180,75 +10155,75 @@
       <c r="H20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="32">
         <v>0.75</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="28">
         <v>18</v>
       </c>
       <c r="L20" s="9">
         <v>600</v>
       </c>
-      <c r="M20" s="13" cm="1">
+      <c r="M20" s="12" cm="1">
         <f t="array" ref="M20">SUMPRODUCT($L$8:$L$20,EXP(-(($K$8:$K$20-K20)^2/(2*2^2)))/SUM(EXP(-(($K$8:$K$20-K20)^2/(2*2^2)))))</f>
         <v>485.32810205079517</v>
       </c>
-      <c r="N20" s="30"/>
-      <c r="Q20" s="38">
+      <c r="N20" s="18"/>
+      <c r="Q20" s="32">
         <v>0.75</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="28">
         <v>18</v>
       </c>
       <c r="S20" s="9">
         <v>600</v>
       </c>
-      <c r="T20" s="29">
-        <f t="shared" si="1"/>
+      <c r="T20" s="24">
+        <f t="shared" si="2"/>
         <v>1.5229979744712629E-8</v>
       </c>
-      <c r="U20" s="29">
-        <f t="shared" si="2"/>
+      <c r="U20" s="24">
+        <f t="shared" si="3"/>
         <v>9.137987846827578E-6</v>
       </c>
-      <c r="V20" s="29">
-        <f t="shared" si="3"/>
+      <c r="V20" s="24">
+        <f t="shared" si="4"/>
         <v>2.6995785033630141E-7</v>
       </c>
-      <c r="W20" s="29">
-        <f t="shared" si="4"/>
+      <c r="W20" s="24">
+        <f t="shared" si="5"/>
         <v>1.6197471020178085E-4</v>
       </c>
-      <c r="X20" s="29">
-        <f t="shared" si="5"/>
+      <c r="X20" s="24">
+        <f t="shared" si="6"/>
         <v>3.7266531720786709E-6</v>
       </c>
-      <c r="Y20" s="29">
-        <f t="shared" si="6"/>
+      <c r="Y20" s="24">
+        <f t="shared" si="7"/>
         <v>2.2359919032472024E-3</v>
       </c>
-      <c r="Z20" s="29">
-        <f t="shared" si="7"/>
+      <c r="Z20" s="24">
+        <f t="shared" si="8"/>
         <v>4.0065297392951069E-5</v>
       </c>
-      <c r="AA20" s="29">
-        <f t="shared" si="8"/>
+      <c r="AA20" s="24">
+        <f t="shared" si="9"/>
         <v>2.403917843577064E-2</v>
       </c>
-      <c r="AB20" s="29">
-        <f t="shared" si="9"/>
+      <c r="AB20" s="24">
+        <f t="shared" si="10"/>
         <v>3.3546262790251185E-4</v>
       </c>
-      <c r="AC20" s="29">
-        <f t="shared" si="10"/>
+      <c r="AC20" s="24">
+        <f t="shared" si="11"/>
         <v>0.20127757674150712</v>
       </c>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -10262,98 +10237,100 @@
         <f t="array" ref="M21">SUMPRODUCT($L$8:$L$20, (O9*EXP(-(($K$8:$K$20-K21)^2/(2*2^2))))/SUM((O9*EXP(-(($K$8:$K$20-K21)^2/(2*2^2))))))</f>
         <v>338.06647627325015</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="37">
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="31">
         <f>SUM(T8:T20)</f>
         <v>3.0066282739383219</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="24">
         <f>SUM(U8:U20)</f>
         <v>1016.4402260338528</v>
       </c>
-      <c r="V21" s="37">
-        <f t="shared" ref="V21:W21" si="11">SUM(V8:V20)</f>
+      <c r="V21" s="31">
+        <f t="shared" ref="V21:W21" si="12">SUM(V8:V20)</f>
         <v>3.8891251612929376</v>
       </c>
-      <c r="W21" s="29">
-        <f t="shared" si="11"/>
+      <c r="W21" s="24">
+        <f t="shared" si="12"/>
         <v>1400.4371096123061</v>
       </c>
-      <c r="X21" s="37">
-        <f t="shared" ref="X21" si="12">SUM(X8:X20)</f>
+      <c r="X21" s="31">
+        <f t="shared" ref="X21" si="13">SUM(X8:X20)</f>
         <v>4.4956555510477196</v>
       </c>
-      <c r="Y21" s="29">
-        <f t="shared" ref="Y21" si="13">SUM(Y8:Y20)</f>
+      <c r="Y21" s="24">
+        <f t="shared" ref="Y21" si="14">SUM(Y8:Y20)</f>
         <v>1675.1988378146439</v>
       </c>
-      <c r="Z21" s="37">
-        <f t="shared" ref="Z21" si="14">SUM(Z8:Z20)</f>
+      <c r="Z21" s="31">
+        <f t="shared" ref="Z21" si="15">SUM(Z8:Z20)</f>
         <v>4.8203042917528975</v>
       </c>
-      <c r="AA21" s="29">
-        <f t="shared" ref="AA21" si="15">SUM(AA8:AA20)</f>
+      <c r="AA21" s="24">
+        <f t="shared" ref="AA21" si="16">SUM(AA8:AA20)</f>
         <v>1779.6910215374123</v>
       </c>
-      <c r="AB21" s="37">
-        <f t="shared" ref="AB21" si="16">SUM(AB8:AB20)</f>
+      <c r="AB21" s="31">
+        <f t="shared" ref="AB21" si="17">SUM(AB8:AB20)</f>
         <v>4.9555995096921173</v>
       </c>
-      <c r="AC21" s="29">
-        <f t="shared" ref="AC21" si="17">SUM(AC8:AC20)</f>
+      <c r="AC21" s="24">
+        <f t="shared" ref="AC21" si="18">SUM(AC8:AC20)</f>
         <v>1727.6321220558812</v>
       </c>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="Q22" s="41" t="s">
+      <c r="Q22" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="36">
+      <c r="R22" s="53"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="61">
         <f>U21/T21</f>
         <v>338.06647627325015</v>
       </c>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36">
+      <c r="U22" s="61"/>
+      <c r="V22" s="61">
         <f>W21/V21</f>
         <v>360.09052204088272</v>
       </c>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36">
+      <c r="W22" s="61"/>
+      <c r="X22" s="61">
         <f>Y21/X21</f>
         <v>372.62615402646588</v>
       </c>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36">
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61">
         <f>AA21/Z21</f>
         <v>369.20719394879319</v>
       </c>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36">
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61">
         <f>AC21/AB21</f>
         <v>348.62222394626394</v>
       </c>
-      <c r="AC22" s="36"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
+      <c r="AC22" s="61"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="Q21:S21"/>
@@ -10365,8 +10342,6 @@
     <mergeCell ref="T22:U22"/>
     <mergeCell ref="V22:W22"/>
     <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10378,8 +10353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221791FE-AE24-461E-BE47-F59067CEB9BD}">
   <dimension ref="B2:W83"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="80" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:W10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10408,89 +10383,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="G3" s="27" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="P3" s="27" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="P3" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="V3" s="27" t="s">
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="V3" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="W3" s="27"/>
+      <c r="W3" s="56"/>
     </row>
     <row r="4" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="G4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="10" t="s">
         <v>92</v>
       </c>
     </row>
@@ -10501,60 +10473,57 @@
       <c r="C5" s="9">
         <v>48</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="13">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="12">
         <f>LN(B5)</f>
         <v>1.6094379124341003</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <f>LN(C5)</f>
         <v>3.8712010109078911</v>
       </c>
-      <c r="I5" s="29">
-        <f>G5-$G$13</f>
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:I10" si="0">G5-$G$13</f>
         <v>-1.0965418686683506</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="21">
         <f>I5^2</f>
         <v>1.2024040697426781</v>
       </c>
-      <c r="K5" s="29">
-        <f>H5-$H$13</f>
+      <c r="K5" s="24">
+        <f t="shared" ref="K5:K10" si="1">H5-$H$13</f>
         <v>0.37764347303699219</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="21">
         <f>I5*K5</f>
         <v>-0.41410187961438927</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="13">
+      <c r="P5" s="12">
         <v>3.8712010109078911</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <f>$K$18+($K$19*G5)</f>
         <v>3.9693778266186839</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <f>H5-Q5</f>
         <v>-9.8176815710792731E-2</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <f>R5^2</f>
         <v>9.6386871431109588E-3</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <f>K5^2</f>
         <v>0.14261459272744145</v>
       </c>
-      <c r="V5" s="12">
-        <f>R5</f>
+      <c r="V5" s="11">
+        <f t="shared" ref="V5:V10" si="2">R5</f>
         <v>-9.8176815710792731E-2</v>
       </c>
-      <c r="W5" s="12">
-        <f>Q5</f>
+      <c r="W5" s="11">
+        <f t="shared" ref="W5:W10" si="3">Q5</f>
         <v>3.9693778266186839</v>
       </c>
     </row>
@@ -10565,60 +10534,57 @@
       <c r="C6" s="9">
         <v>42</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="G6" s="13">
-        <f t="shared" ref="G6:G10" si="0">LN(B6)</f>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="12">
+        <f t="shared" ref="G6:G10" si="4">LN(B6)</f>
         <v>2.3025850929940459</v>
       </c>
-      <c r="H6" s="13">
-        <f t="shared" ref="H6:H10" si="1">LN(C6)</f>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H10" si="5">LN(C6)</f>
         <v>3.7376696182833684</v>
       </c>
-      <c r="I6" s="29">
-        <f>G6-$G$13</f>
+      <c r="I6" s="24">
+        <f t="shared" si="0"/>
         <v>-0.40339468810840495</v>
       </c>
-      <c r="J6" s="25">
-        <f t="shared" ref="J6:J10" si="2">I6^2</f>
+      <c r="J6" s="21">
+        <f t="shared" ref="J6:J10" si="6">I6^2</f>
         <v>0.1627272743940773</v>
       </c>
-      <c r="K6" s="29">
-        <f>H6-$H$13</f>
+      <c r="K6" s="24">
+        <f t="shared" si="1"/>
         <v>0.24411208041246946</v>
       </c>
-      <c r="L6" s="25">
-        <f t="shared" ref="L6:L10" si="3">I6*K6</f>
+      <c r="L6" s="21">
+        <f t="shared" ref="L6:L10" si="7">I6*K6</f>
         <v>-9.8473516541481981E-2</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>3.7376696182833684</v>
       </c>
-      <c r="Q6" s="12">
-        <f t="shared" ref="Q6:Q10" si="4">$K$18+($K$19*G6)</f>
+      <c r="Q6" s="11">
+        <f t="shared" ref="Q6:Q10" si="8">$K$18+($K$19*G6)</f>
         <v>3.6686018133878582</v>
       </c>
-      <c r="R6" s="12">
-        <f t="shared" ref="R6:R10" si="5">H6-Q6</f>
+      <c r="R6" s="11">
+        <f t="shared" ref="R6:R10" si="9">H6-Q6</f>
         <v>6.9067804895510232E-2</v>
       </c>
-      <c r="S6" s="12">
-        <f t="shared" ref="S6:S10" si="6">R6^2</f>
+      <c r="S6" s="11">
+        <f t="shared" ref="S6:S10" si="10">R6^2</f>
         <v>4.770361673084267E-3</v>
       </c>
-      <c r="T6" s="12">
-        <f t="shared" ref="T6:T10" si="7">K6^2</f>
+      <c r="T6" s="11">
+        <f t="shared" ref="T6:T10" si="11">K6^2</f>
         <v>5.9590707803303951E-2</v>
       </c>
-      <c r="V6" s="12">
-        <f>R6</f>
+      <c r="V6" s="11">
+        <f t="shared" si="2"/>
         <v>6.9067804895510232E-2</v>
       </c>
-      <c r="W6" s="12">
-        <f>Q6</f>
+      <c r="W6" s="11">
+        <f t="shared" si="3"/>
         <v>3.6686018133878582</v>
       </c>
     </row>
@@ -10629,60 +10595,57 @@
       <c r="C7" s="9">
         <v>37</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="G7" s="13">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="12">
+        <f t="shared" si="4"/>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="5"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
-        <v>2.7080502011022101</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="1"/>
-        <v>3.6109179126442243</v>
-      </c>
-      <c r="I7" s="29">
-        <f>G7-$G$13</f>
         <v>2.0704199997592099E-3</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="21">
         <f>I7^2</f>
         <v>4.286638975402927E-6</v>
       </c>
-      <c r="K7" s="29">
-        <f>H7-$H$13</f>
+      <c r="K7" s="24">
+        <f t="shared" si="1"/>
         <v>0.11736037477332539</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="21">
+        <f t="shared" si="7"/>
+        <v>2.4298526710992915E-4</v>
+      </c>
+      <c r="P7" s="12">
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="8"/>
+        <v>3.4926591245314147</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="9"/>
+        <v>0.11825878811280965</v>
+      </c>
+      <c r="S7" s="11">
+        <f t="shared" si="10"/>
+        <v>1.3985140965910411E-2</v>
+      </c>
+      <c r="T7" s="11">
+        <f t="shared" si="11"/>
+        <v>1.3773457566935392E-2</v>
+      </c>
+      <c r="V7" s="11">
+        <f t="shared" si="2"/>
+        <v>0.11825878811280965</v>
+      </c>
+      <c r="W7" s="11">
         <f t="shared" si="3"/>
-        <v>2.4298526710992915E-4</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="13">
-        <v>3.6109179126442243</v>
-      </c>
-      <c r="Q7" s="12">
-        <f t="shared" si="4"/>
-        <v>3.4926591245314147</v>
-      </c>
-      <c r="R7" s="12">
-        <f t="shared" si="5"/>
-        <v>0.11825878811280965</v>
-      </c>
-      <c r="S7" s="12">
-        <f t="shared" si="6"/>
-        <v>1.3985140965910411E-2</v>
-      </c>
-      <c r="T7" s="12">
-        <f t="shared" si="7"/>
-        <v>1.3773457566935392E-2</v>
-      </c>
-      <c r="V7" s="12">
-        <f>R7</f>
-        <v>0.11825878811280965</v>
-      </c>
-      <c r="W7" s="12">
-        <f>Q7</f>
         <v>3.4926591245314147</v>
       </c>
     </row>
@@ -10693,60 +10656,57 @@
       <c r="C8" s="9">
         <v>30</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="G8" s="13">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="12">
+        <f t="shared" si="4"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="5"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="I8" s="24">
         <f t="shared" si="0"/>
-        <v>2.9957322735539909</v>
-      </c>
-      <c r="H8" s="13">
+        <v>0.28975249245154</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="6"/>
+        <v>8.395650688187975E-2</v>
+      </c>
+      <c r="K8" s="24">
         <f t="shared" si="1"/>
+        <v>-9.2360156208743494E-2</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="7"/>
+        <v>-2.6761585464697004E-2</v>
+      </c>
+      <c r="P8" s="12">
         <v>3.4011973816621555</v>
       </c>
-      <c r="I8" s="29">
-        <f>G8-$G$13</f>
-        <v>0.28975249245154</v>
-      </c>
-      <c r="J8" s="25">
+      <c r="Q8" s="11">
+        <f t="shared" si="8"/>
+        <v>3.3678258001570325</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="9"/>
+        <v>3.3371581505122982E-2</v>
+      </c>
+      <c r="S8" s="11">
+        <f t="shared" si="10"/>
+        <v>1.1136624521530664E-3</v>
+      </c>
+      <c r="T8" s="11">
+        <f t="shared" si="11"/>
+        <v>8.5303984549035001E-3</v>
+      </c>
+      <c r="V8" s="11">
         <f t="shared" si="2"/>
-        <v>8.395650688187975E-2</v>
-      </c>
-      <c r="K8" s="29">
-        <f>H8-$H$13</f>
-        <v>-9.2360156208743494E-2</v>
-      </c>
-      <c r="L8" s="25">
+        <v>3.3371581505122982E-2</v>
+      </c>
+      <c r="W8" s="11">
         <f t="shared" si="3"/>
-        <v>-2.6761585464697004E-2</v>
-      </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="13">
-        <v>3.4011973816621555</v>
-      </c>
-      <c r="Q8" s="12">
-        <f t="shared" si="4"/>
-        <v>3.3678258001570325</v>
-      </c>
-      <c r="R8" s="12">
-        <f t="shared" si="5"/>
-        <v>3.3371581505122982E-2</v>
-      </c>
-      <c r="S8" s="12">
-        <f t="shared" si="6"/>
-        <v>1.1136624521530664E-3</v>
-      </c>
-      <c r="T8" s="12">
-        <f t="shared" si="7"/>
-        <v>8.5303984549035001E-3</v>
-      </c>
-      <c r="V8" s="12">
-        <f>R8</f>
-        <v>3.3371581505122982E-2</v>
-      </c>
-      <c r="W8" s="12">
-        <f>Q8</f>
         <v>3.3678258001570325</v>
       </c>
     </row>
@@ -10757,60 +10717,57 @@
       <c r="C9" s="9">
         <v>27</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="G9" s="13">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="12">
+        <f t="shared" si="4"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="5"/>
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="I9" s="24">
         <f t="shared" si="0"/>
-        <v>3.2188758248682006</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="1"/>
-        <v>3.2958368660043291</v>
-      </c>
-      <c r="I9" s="29">
-        <f>G9-$G$13</f>
         <v>0.51289604376574971</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="21">
         <f>I9^2</f>
         <v>0.26306235171055786</v>
       </c>
-      <c r="K9" s="29">
-        <f>H9-$H$13</f>
+      <c r="K9" s="24">
+        <f t="shared" si="1"/>
         <v>-0.19772067186656983</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="21">
+        <f t="shared" si="7"/>
+        <v>-0.10141015037106964</v>
+      </c>
+      <c r="P9" s="12">
+        <v>3.2958368660043291</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="8"/>
+        <v>3.2709975512298168</v>
+      </c>
+      <c r="R9" s="11">
+        <f t="shared" si="9"/>
+        <v>2.4839314774512289E-2</v>
+      </c>
+      <c r="S9" s="11">
+        <f t="shared" si="10"/>
+        <v>6.1699155846730452E-4</v>
+      </c>
+      <c r="T9" s="11">
+        <f t="shared" si="11"/>
+        <v>3.9093464083367779E-2</v>
+      </c>
+      <c r="V9" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4839314774512289E-2</v>
+      </c>
+      <c r="W9" s="11">
         <f t="shared" si="3"/>
-        <v>-0.10141015037106964</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="13">
-        <v>3.2958368660043291</v>
-      </c>
-      <c r="Q9" s="12">
-        <f t="shared" si="4"/>
-        <v>3.2709975512298168</v>
-      </c>
-      <c r="R9" s="12">
-        <f t="shared" si="5"/>
-        <v>2.4839314774512289E-2</v>
-      </c>
-      <c r="S9" s="12">
-        <f t="shared" si="6"/>
-        <v>6.1699155846730452E-4</v>
-      </c>
-      <c r="T9" s="12">
-        <f t="shared" si="7"/>
-        <v>3.9093464083367779E-2</v>
-      </c>
-      <c r="V9" s="12">
-        <f>R9</f>
-        <v>2.4839314774512289E-2</v>
-      </c>
-      <c r="W9" s="12">
-        <f>Q9</f>
         <v>3.2709975512298168</v>
       </c>
     </row>
@@ -10821,113 +10778,108 @@
       <c r="C10" s="9">
         <v>21</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="G10" s="13">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="12">
+        <f t="shared" si="4"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="5"/>
+        <v>3.044522437723423</v>
+      </c>
+      <c r="I10" s="24">
         <f t="shared" si="0"/>
-        <v>3.4011973816621555</v>
-      </c>
-      <c r="H10" s="13">
+        <v>0.69521760055970461</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="6"/>
+        <v>0.48332751212799296</v>
+      </c>
+      <c r="K10" s="24">
         <f t="shared" si="1"/>
+        <v>-0.44903510014747594</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="7"/>
+        <v>-0.31217710489161488</v>
+      </c>
+      <c r="P10" s="12">
         <v>3.044522437723423</v>
       </c>
-      <c r="I10" s="29">
-        <f>G10-$G$13</f>
-        <v>0.69521760055970461</v>
-      </c>
-      <c r="J10" s="25">
+      <c r="Q10" s="11">
+        <f t="shared" si="8"/>
+        <v>3.191883111300589</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="9"/>
+        <v>-0.14736067357716598</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="10"/>
+        <v>2.1715168117116063E-2</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="11"/>
+        <v>0.20163252116445374</v>
+      </c>
+      <c r="V10" s="11">
         <f t="shared" si="2"/>
-        <v>0.48332751212799296</v>
-      </c>
-      <c r="K10" s="29">
-        <f>H10-$H$13</f>
-        <v>-0.44903510014747594</v>
-      </c>
-      <c r="L10" s="25">
+        <v>-0.14736067357716598</v>
+      </c>
+      <c r="W10" s="11">
         <f t="shared" si="3"/>
-        <v>-0.31217710489161488</v>
-      </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="13">
-        <v>3.044522437723423</v>
-      </c>
-      <c r="Q10" s="12">
-        <f t="shared" si="4"/>
-        <v>3.191883111300589</v>
-      </c>
-      <c r="R10" s="12">
-        <f t="shared" si="5"/>
-        <v>-0.14736067357716598</v>
-      </c>
-      <c r="S10" s="12">
-        <f t="shared" si="6"/>
-        <v>2.1715168117116063E-2</v>
-      </c>
-      <c r="T10" s="12">
-        <f t="shared" si="7"/>
-        <v>0.20163252116445374</v>
-      </c>
-      <c r="V10" s="12">
-        <f>R10</f>
-        <v>-0.14736067357716598</v>
-      </c>
-      <c r="W10" s="12">
-        <f>Q10</f>
         <v>3.191883111300589</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="38">
         <f>SUM(G5:G10)</f>
         <v>16.235878686614704</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="39">
         <f>SUM(H5:H10)</f>
         <v>20.961345227225394</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="54">
+      <c r="I11" s="36"/>
+      <c r="J11" s="40">
         <f>SUM(J5:J10)</f>
         <v>2.1954820014961616</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="54">
+      <c r="K11" s="37"/>
+      <c r="L11" s="40">
         <f>SUM(L5:L10)</f>
         <v>-0.9526812516161427</v>
       </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="57">
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="41">
         <f>SUM(S5:S10)</f>
         <v>5.1840011909842068E-2</v>
       </c>
-      <c r="T11" s="57">
+      <c r="T11" s="41">
         <f>SUM(T5:T10)</f>
         <v>0.46523514180040582</v>
       </c>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -10942,66 +10894,66 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="30">
         <f>AVERAGE(G5:G10)</f>
         <v>2.7059797811024509</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="30">
         <f>AVERAGE(H5:H10)</f>
         <v>3.493557537870899</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="21">
         <f>L11/J11</f>
         <v>-0.43392806270646544</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="28"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="23"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="23"/>
-      <c r="H14" s="22"/>
+      <c r="F14" s="16"/>
+      <c r="H14" s="19"/>
       <c r="Q14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="58">
+      <c r="R14" s="63">
         <f>1-(S11/T11)</f>
         <v>0.88857245024692832</v>
       </c>
-      <c r="S14" s="59"/>
-      <c r="T14" s="28"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="23"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="23"/>
-      <c r="H15" s="22"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
+      <c r="F15" s="16"/>
+      <c r="H15" s="19"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="22">
+      <c r="G16" s="19">
         <f>G11/COUNT(G5:G10)</f>
         <v>2.7059797811024509</v>
       </c>
@@ -11014,19 +10966,19 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="G17" s="22"/>
-      <c r="J17" s="11" t="s">
+      <c r="G17" s="19"/>
+      <c r="J17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="21">
         <f>H13-(K13*G13)</f>
         <v>4.6677581020075509</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="18">
         <f>SUM(P5:P10)</f>
         <v>20.961345227225394</v>
       </c>
-      <c r="Q17" s="53">
+      <c r="Q17" s="39">
         <f>SUM(Q5:Q10)</f>
         <v>20.961345227225394</v>
       </c>
@@ -11038,8 +10990,8 @@
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="9" t="s">
         <v>15</v>
@@ -11050,11 +11002,11 @@
       <c r="J18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="21">
         <f>H13-(K19*G13)</f>
         <v>4.6677581020075509</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="Q18" s="9" t="s">
@@ -11062,95 +11014,85 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>2</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="21">
         <f>L11/J11</f>
         <v>-0.43392806270646544</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="30">
         <f>AVERAGE(Q5:Q10)</f>
         <v>3.493557537870899</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>1</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>1</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>1</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>1</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="G24" s="9" t="s">
@@ -11167,108 +11109,108 @@
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>1</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>2</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>0</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>1</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="9" t="s">
         <v>98</v>
       </c>
@@ -11278,27 +11220,27 @@
       </c>
     </row>
     <row r="54" spans="2:6" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="65">
+      <c r="E54" s="45">
         <f>S11</f>
         <v>5.1840011909842068E-2</v>
       </c>
     </row>
     <row r="55" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="60" t="s">
+      <c r="B55" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="46">
         <f xml:space="preserve"> (E54/E53)^0.5</f>
         <v>0.11384200884322324</v>
       </c>
@@ -11307,19 +11249,19 @@
       </c>
     </row>
     <row r="56" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="71"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="43"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="62" t="s">
@@ -11327,18 +11269,18 @@
       </c>
       <c r="C58" s="62"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <f xml:space="preserve"> K19</f>
         <v>-0.43392806270646544</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <f>J11^0.5</f>
         <v>1.4817158976997451</v>
       </c>
@@ -11347,23 +11289,23 @@
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="27"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <f>E55/E59</f>
         <v>7.6831198895790057E-2</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="12">
+      <c r="E61" s="11">
         <f>E58/E60</f>
         <v>-5.6478106412867968</v>
       </c>
@@ -11376,49 +11318,49 @@
       <c r="D62" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E62" s="63">
+      <c r="E62" s="43">
         <f>2 * _xlfn.T.DIST(-ABS(E61), 4, TRUE)</f>
         <v>4.8406901409699015E-3</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="27"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E63" s="67">
+      <c r="E63" s="47">
         <f>1-0.995</f>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="F63" s="64" t="s">
+      <c r="F63" s="44" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F64" s="64">
+      <c r="F64" s="44">
         <f>1-0.995</f>
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27" t="s">
+      <c r="C76" s="56"/>
+      <c r="D76" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D77" s="9" t="s">
@@ -11436,11 +11378,11 @@
       <c r="C78" s="9">
         <v>48</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D78" s="12">
         <v>1.6094379124341003</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12">
         <v>3.8712010109078911</v>
       </c>
     </row>
@@ -11451,11 +11393,11 @@
       <c r="C79" s="9">
         <v>42</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D79" s="12">
         <v>2.3025850929940459</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13">
+      <c r="E79" s="12"/>
+      <c r="F79" s="12">
         <v>3.7376696182833684</v>
       </c>
     </row>
@@ -11466,11 +11408,11 @@
       <c r="C80" s="9">
         <v>37</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="12">
         <v>2.7080502011022101</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13">
+      <c r="E80" s="12"/>
+      <c r="F80" s="12">
         <v>3.6109179126442243</v>
       </c>
     </row>
@@ -11481,11 +11423,11 @@
       <c r="C81" s="9">
         <v>30</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D81" s="12">
         <v>2.9957322735539909</v>
       </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13">
+      <c r="E81" s="12"/>
+      <c r="F81" s="12">
         <v>3.4011973816621555</v>
       </c>
     </row>
@@ -11496,11 +11438,11 @@
       <c r="C82" s="9">
         <v>27</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D82" s="12">
         <v>3.2188758248682006</v>
       </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12">
         <v>3.2958368660043291</v>
       </c>
     </row>
@@ -11511,38 +11453,38 @@
       <c r="C83" s="9">
         <v>21</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D83" s="12">
         <v>3.4011973816621555</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13">
+      <c r="E83" s="12"/>
+      <c r="F83" s="12">
         <v>3.044522437723423</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:E51"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
